--- a/BackTest/2020-01-15 BackTest MTL.xlsx
+++ b/BackTest/2020-01-15 BackTest MTL.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M345"/>
+  <dimension ref="A1:M346"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>243</v>
+        <v>243.1</v>
       </c>
       <c r="C2" t="n">
         <v>243</v>
       </c>
       <c r="D2" t="n">
-        <v>243</v>
+        <v>243.1</v>
       </c>
       <c r="E2" t="n">
         <v>243</v>
       </c>
       <c r="F2" t="n">
-        <v>633.0004</v>
+        <v>15680.318</v>
       </c>
       <c r="G2" t="n">
-        <v>247.0933333333334</v>
+        <v>247.2433333333334</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -480,10 +480,10 @@
         <v>243</v>
       </c>
       <c r="F3" t="n">
-        <v>5017.5289</v>
+        <v>633.0004</v>
       </c>
       <c r="G3" t="n">
-        <v>246.9433333333334</v>
+        <v>247.0933333333334</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>242.9</v>
+        <v>243</v>
       </c>
       <c r="C4" t="n">
-        <v>242.9</v>
+        <v>243</v>
       </c>
       <c r="D4" t="n">
-        <v>242.9</v>
+        <v>243</v>
       </c>
       <c r="E4" t="n">
-        <v>242.9</v>
+        <v>243</v>
       </c>
       <c r="F4" t="n">
-        <v>1357.7082</v>
+        <v>5017.5289</v>
       </c>
       <c r="G4" t="n">
-        <v>246.7816666666667</v>
+        <v>246.9433333333334</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>242.8</v>
+        <v>242.9</v>
       </c>
       <c r="C5" t="n">
-        <v>242.1</v>
+        <v>242.9</v>
       </c>
       <c r="D5" t="n">
-        <v>242.8</v>
+        <v>242.9</v>
       </c>
       <c r="E5" t="n">
-        <v>242.1</v>
+        <v>242.9</v>
       </c>
       <c r="F5" t="n">
-        <v>19288.7349</v>
+        <v>1357.7082</v>
       </c>
       <c r="G5" t="n">
-        <v>246.6066666666667</v>
+        <v>246.7816666666667</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>242.1</v>
+        <v>242.8</v>
       </c>
       <c r="C6" t="n">
         <v>242.1</v>
       </c>
       <c r="D6" t="n">
-        <v>242.1</v>
+        <v>242.8</v>
       </c>
       <c r="E6" t="n">
         <v>242.1</v>
       </c>
       <c r="F6" t="n">
-        <v>86.33799999999999</v>
+        <v>19288.7349</v>
       </c>
       <c r="G6" t="n">
-        <v>246.4500000000001</v>
+        <v>246.6066666666667</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>242.4</v>
+        <v>242.1</v>
       </c>
       <c r="C7" t="n">
-        <v>242.3</v>
+        <v>242.1</v>
       </c>
       <c r="D7" t="n">
-        <v>242.4</v>
+        <v>242.1</v>
       </c>
       <c r="E7" t="n">
-        <v>242.3</v>
+        <v>242.1</v>
       </c>
       <c r="F7" t="n">
-        <v>877.4858</v>
+        <v>86.33799999999999</v>
       </c>
       <c r="G7" t="n">
-        <v>246.2816666666667</v>
+        <v>246.4500000000001</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
+        <v>242.4</v>
+      </c>
+      <c r="C8" t="n">
         <v>242.3</v>
       </c>
-      <c r="C8" t="n">
-        <v>244.3</v>
-      </c>
       <c r="D8" t="n">
-        <v>244.3</v>
+        <v>242.4</v>
       </c>
       <c r="E8" t="n">
         <v>242.3</v>
       </c>
       <c r="F8" t="n">
-        <v>551.4103</v>
+        <v>877.4858</v>
       </c>
       <c r="G8" t="n">
-        <v>246.1833333333334</v>
+        <v>246.2816666666667</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>242.4</v>
+        <v>242.3</v>
       </c>
       <c r="C9" t="n">
-        <v>242.3</v>
+        <v>244.3</v>
       </c>
       <c r="D9" t="n">
-        <v>242.4</v>
+        <v>244.3</v>
       </c>
       <c r="E9" t="n">
         <v>242.3</v>
       </c>
       <c r="F9" t="n">
-        <v>9093.975700000001</v>
+        <v>551.4103</v>
       </c>
       <c r="G9" t="n">
-        <v>246.0316666666667</v>
+        <v>246.1833333333334</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>244.3</v>
+        <v>242.4</v>
       </c>
       <c r="C10" t="n">
-        <v>243.1</v>
+        <v>242.3</v>
       </c>
       <c r="D10" t="n">
-        <v>244.9</v>
+        <v>242.4</v>
       </c>
       <c r="E10" t="n">
-        <v>242.1</v>
+        <v>242.3</v>
       </c>
       <c r="F10" t="n">
-        <v>5120.1143</v>
+        <v>9093.975700000001</v>
       </c>
       <c r="G10" t="n">
-        <v>245.8983333333334</v>
+        <v>246.0316666666667</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>242.7</v>
+        <v>244.3</v>
       </c>
       <c r="C11" t="n">
-        <v>242.6</v>
+        <v>243.1</v>
       </c>
       <c r="D11" t="n">
-        <v>242.7</v>
+        <v>244.9</v>
       </c>
       <c r="E11" t="n">
-        <v>242.6</v>
+        <v>242.1</v>
       </c>
       <c r="F11" t="n">
-        <v>1990.7195</v>
+        <v>5120.1143</v>
       </c>
       <c r="G11" t="n">
-        <v>245.7466666666667</v>
+        <v>245.8983333333334</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
+        <v>242.7</v>
+      </c>
+      <c r="C12" t="n">
         <v>242.6</v>
       </c>
-      <c r="C12" t="n">
-        <v>242.5</v>
-      </c>
       <c r="D12" t="n">
+        <v>242.7</v>
+      </c>
+      <c r="E12" t="n">
         <v>242.6</v>
       </c>
-      <c r="E12" t="n">
-        <v>242.5</v>
-      </c>
       <c r="F12" t="n">
-        <v>1243</v>
+        <v>1990.7195</v>
       </c>
       <c r="G12" t="n">
-        <v>245.58</v>
+        <v>245.7466666666667</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>244</v>
+        <v>242.6</v>
       </c>
       <c r="C13" t="n">
+        <v>242.5</v>
+      </c>
+      <c r="D13" t="n">
         <v>242.6</v>
       </c>
-      <c r="D13" t="n">
-        <v>244</v>
-      </c>
       <c r="E13" t="n">
-        <v>242.6</v>
+        <v>242.5</v>
       </c>
       <c r="F13" t="n">
-        <v>477.6284</v>
+        <v>1243</v>
       </c>
       <c r="G13" t="n">
-        <v>245.4283333333333</v>
+        <v>245.58</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
+        <v>244</v>
+      </c>
+      <c r="C14" t="n">
         <v>242.6</v>
       </c>
-      <c r="C14" t="n">
-        <v>242.3</v>
-      </c>
       <c r="D14" t="n">
+        <v>244</v>
+      </c>
+      <c r="E14" t="n">
         <v>242.6</v>
       </c>
-      <c r="E14" t="n">
-        <v>242.3</v>
-      </c>
       <c r="F14" t="n">
-        <v>9834.5021</v>
+        <v>477.6284</v>
       </c>
       <c r="G14" t="n">
-        <v>245.3</v>
+        <v>245.4283333333333</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
+        <v>242.6</v>
+      </c>
+      <c r="C15" t="n">
         <v>242.3</v>
       </c>
-      <c r="C15" t="n">
-        <v>242.5</v>
-      </c>
       <c r="D15" t="n">
-        <v>242.5</v>
+        <v>242.6</v>
       </c>
       <c r="E15" t="n">
         <v>242.3</v>
       </c>
       <c r="F15" t="n">
-        <v>7955.5086</v>
+        <v>9834.5021</v>
       </c>
       <c r="G15" t="n">
-        <v>245.175</v>
+        <v>245.3</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
+        <v>242.3</v>
+      </c>
+      <c r="C16" t="n">
         <v>242.5</v>
       </c>
-      <c r="C16" t="n">
-        <v>241.9</v>
-      </c>
       <c r="D16" t="n">
-        <v>243</v>
+        <v>242.5</v>
       </c>
       <c r="E16" t="n">
-        <v>241.9</v>
+        <v>242.3</v>
       </c>
       <c r="F16" t="n">
-        <v>24262.8600823</v>
+        <v>7955.5086</v>
       </c>
       <c r="G16" t="n">
-        <v>245.07</v>
+        <v>245.175</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>242</v>
+        <v>242.5</v>
       </c>
       <c r="C17" t="n">
-        <v>242</v>
+        <v>241.9</v>
       </c>
       <c r="D17" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E17" t="n">
-        <v>242</v>
+        <v>241.9</v>
       </c>
       <c r="F17" t="n">
-        <v>6745.9785</v>
+        <v>24262.8600823</v>
       </c>
       <c r="G17" t="n">
-        <v>244.9466666666667</v>
+        <v>245.07</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -999,16 +999,16 @@
         <v>242</v>
       </c>
       <c r="D18" t="n">
-        <v>242.7</v>
+        <v>242</v>
       </c>
       <c r="E18" t="n">
         <v>242</v>
       </c>
       <c r="F18" t="n">
-        <v>1605.261</v>
+        <v>6745.9785</v>
       </c>
       <c r="G18" t="n">
-        <v>244.8333333333333</v>
+        <v>244.9466666666667</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1034,16 +1034,16 @@
         <v>242</v>
       </c>
       <c r="D19" t="n">
+        <v>242.7</v>
+      </c>
+      <c r="E19" t="n">
         <v>242</v>
       </c>
-      <c r="E19" t="n">
-        <v>241.8</v>
-      </c>
       <c r="F19" t="n">
-        <v>9016.903700000001</v>
+        <v>1605.261</v>
       </c>
       <c r="G19" t="n">
-        <v>244.75</v>
+        <v>244.8333333333333</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
+        <v>242</v>
+      </c>
+      <c r="C20" t="n">
+        <v>242</v>
+      </c>
+      <c r="D20" t="n">
+        <v>242</v>
+      </c>
+      <c r="E20" t="n">
         <v>241.8</v>
       </c>
-      <c r="C20" t="n">
-        <v>241.7</v>
-      </c>
-      <c r="D20" t="n">
-        <v>241.8</v>
-      </c>
-      <c r="E20" t="n">
-        <v>241.7</v>
-      </c>
       <c r="F20" t="n">
-        <v>8270.361000000001</v>
+        <v>9016.903700000001</v>
       </c>
       <c r="G20" t="n">
-        <v>244.6616666666667</v>
+        <v>244.75</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>241.7</v>
+        <v>241.8</v>
       </c>
       <c r="C21" t="n">
         <v>241.7</v>
       </c>
       <c r="D21" t="n">
-        <v>241.7</v>
+        <v>241.8</v>
       </c>
       <c r="E21" t="n">
         <v>241.7</v>
       </c>
       <c r="F21" t="n">
-        <v>7293.1214</v>
+        <v>8270.361000000001</v>
       </c>
       <c r="G21" t="n">
-        <v>244.5733333333334</v>
+        <v>244.6616666666667</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>241.6</v>
+        <v>241.7</v>
       </c>
       <c r="C22" t="n">
         <v>241.7</v>
@@ -1142,13 +1142,13 @@
         <v>241.7</v>
       </c>
       <c r="E22" t="n">
-        <v>241.6</v>
+        <v>241.7</v>
       </c>
       <c r="F22" t="n">
-        <v>1449</v>
+        <v>7293.1214</v>
       </c>
       <c r="G22" t="n">
-        <v>244.4866666666667</v>
+        <v>244.5733333333334</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,10 +1168,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
+        <v>241.6</v>
+      </c>
+      <c r="C23" t="n">
         <v>241.7</v>
-      </c>
-      <c r="C23" t="n">
-        <v>241.6</v>
       </c>
       <c r="D23" t="n">
         <v>241.7</v>
@@ -1180,190 +1180,166 @@
         <v>241.6</v>
       </c>
       <c r="F23" t="n">
+        <v>1449</v>
+      </c>
+      <c r="G23" t="n">
+        <v>244.4866666666667</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>241.7</v>
+      </c>
+      <c r="C24" t="n">
+        <v>241.6</v>
+      </c>
+      <c r="D24" t="n">
+        <v>241.7</v>
+      </c>
+      <c r="E24" t="n">
+        <v>241.6</v>
+      </c>
+      <c r="F24" t="n">
         <v>16491.5325</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G24" t="n">
         <v>244.4000000000001</v>
       </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>241.7</v>
-      </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>241.6</v>
+      </c>
+      <c r="C25" t="n">
+        <v>241.5</v>
+      </c>
+      <c r="D25" t="n">
+        <v>241.6</v>
+      </c>
+      <c r="E25" t="n">
+        <v>241.5</v>
+      </c>
+      <c r="F25" t="n">
+        <v>16815.7314</v>
+      </c>
+      <c r="G25" t="n">
+        <v>244.3116666666668</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>241.5</v>
+      </c>
+      <c r="C26" t="n">
+        <v>241.4</v>
+      </c>
+      <c r="D26" t="n">
+        <v>242</v>
+      </c>
+      <c r="E26" t="n">
+        <v>241.4</v>
+      </c>
+      <c r="F26" t="n">
+        <v>5671.9233</v>
+      </c>
+      <c r="G26" t="n">
+        <v>244.2233333333334</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>241.4</v>
+      </c>
+      <c r="C27" t="n">
+        <v>240.9</v>
+      </c>
+      <c r="D27" t="n">
+        <v>241.4</v>
+      </c>
+      <c r="E27" t="n">
+        <v>240.9</v>
+      </c>
+      <c r="F27" t="n">
+        <v>29001.5469</v>
+      </c>
+      <c r="G27" t="n">
+        <v>244.1266666666667</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>241.4</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>241.6</v>
-      </c>
-      <c r="C24" t="n">
-        <v>241.5</v>
-      </c>
-      <c r="D24" t="n">
-        <v>241.6</v>
-      </c>
-      <c r="E24" t="n">
-        <v>241.5</v>
-      </c>
-      <c r="F24" t="n">
-        <v>16815.7314</v>
-      </c>
-      <c r="G24" t="n">
-        <v>244.3116666666668</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>241.6</v>
-      </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>241.5</v>
-      </c>
-      <c r="C25" t="n">
-        <v>241.4</v>
-      </c>
-      <c r="D25" t="n">
-        <v>242</v>
-      </c>
-      <c r="E25" t="n">
-        <v>241.4</v>
-      </c>
-      <c r="F25" t="n">
-        <v>5671.9233</v>
-      </c>
-      <c r="G25" t="n">
-        <v>244.2233333333334</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>241.5</v>
-      </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>241.4</v>
-      </c>
-      <c r="C26" t="n">
-        <v>240.9</v>
-      </c>
-      <c r="D26" t="n">
-        <v>241.4</v>
-      </c>
-      <c r="E26" t="n">
-        <v>240.9</v>
-      </c>
-      <c r="F26" t="n">
-        <v>29001.5469</v>
-      </c>
-      <c r="G26" t="n">
-        <v>244.1266666666667</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>241.4</v>
-      </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>241</v>
-      </c>
-      <c r="C27" t="n">
-        <v>241</v>
-      </c>
-      <c r="D27" t="n">
-        <v>241</v>
-      </c>
-      <c r="E27" t="n">
-        <v>240.9</v>
-      </c>
-      <c r="F27" t="n">
-        <v>331.893</v>
-      </c>
-      <c r="G27" t="n">
-        <v>244.0083333333334</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>240.9</v>
-      </c>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1373,22 +1349,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>240.9</v>
+        <v>241</v>
       </c>
       <c r="C28" t="n">
-        <v>240.9</v>
+        <v>241</v>
       </c>
       <c r="D28" t="n">
-        <v>240.9</v>
+        <v>241</v>
       </c>
       <c r="E28" t="n">
         <v>240.9</v>
       </c>
       <c r="F28" t="n">
-        <v>845.5558</v>
+        <v>331.893</v>
       </c>
       <c r="G28" t="n">
-        <v>243.9133333333334</v>
+        <v>244.0083333333334</v>
       </c>
       <c r="H28" t="n">
         <v>1</v>
@@ -1397,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>241</v>
+        <v>240.9</v>
       </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
@@ -1414,22 +1390,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>240.8</v>
+        <v>240.9</v>
       </c>
       <c r="C29" t="n">
-        <v>240.8</v>
+        <v>240.9</v>
       </c>
       <c r="D29" t="n">
-        <v>240.8</v>
+        <v>240.9</v>
       </c>
       <c r="E29" t="n">
-        <v>240.6</v>
+        <v>240.9</v>
       </c>
       <c r="F29" t="n">
-        <v>12982.6877</v>
+        <v>845.5558</v>
       </c>
       <c r="G29" t="n">
-        <v>243.8166666666667</v>
+        <v>243.9133333333334</v>
       </c>
       <c r="H29" t="n">
         <v>1</v>
@@ -1438,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>240.9</v>
+        <v>241</v>
       </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
@@ -1455,7 +1431,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>240.7</v>
+        <v>240.8</v>
       </c>
       <c r="C30" t="n">
         <v>240.8</v>
@@ -1464,13 +1440,13 @@
         <v>240.8</v>
       </c>
       <c r="E30" t="n">
-        <v>240.7</v>
+        <v>240.6</v>
       </c>
       <c r="F30" t="n">
-        <v>11700.0435</v>
+        <v>12982.6877</v>
       </c>
       <c r="G30" t="n">
-        <v>243.72</v>
+        <v>243.8166666666667</v>
       </c>
       <c r="H30" t="n">
         <v>1</v>
@@ -1479,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>240.8</v>
+        <v>240.9</v>
       </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
@@ -1499,19 +1475,19 @@
         <v>240.7</v>
       </c>
       <c r="C31" t="n">
-        <v>240.6</v>
+        <v>240.8</v>
       </c>
       <c r="D31" t="n">
+        <v>240.8</v>
+      </c>
+      <c r="E31" t="n">
         <v>240.7</v>
       </c>
-      <c r="E31" t="n">
-        <v>240.6</v>
-      </c>
       <c r="F31" t="n">
-        <v>3101.5999</v>
+        <v>11700.0435</v>
       </c>
       <c r="G31" t="n">
-        <v>243.62</v>
+        <v>243.72</v>
       </c>
       <c r="H31" t="n">
         <v>1</v>
@@ -1537,31 +1513,31 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
+        <v>240.7</v>
+      </c>
+      <c r="C32" t="n">
+        <v>240.6</v>
+      </c>
+      <c r="D32" t="n">
+        <v>240.7</v>
+      </c>
+      <c r="E32" t="n">
+        <v>240.6</v>
+      </c>
+      <c r="F32" t="n">
+        <v>3101.5999</v>
+      </c>
+      <c r="G32" t="n">
+        <v>243.62</v>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
         <v>240.8</v>
-      </c>
-      <c r="C32" t="n">
-        <v>240.8</v>
-      </c>
-      <c r="D32" t="n">
-        <v>240.8</v>
-      </c>
-      <c r="E32" t="n">
-        <v>240.8</v>
-      </c>
-      <c r="F32" t="n">
-        <v>3501.3033</v>
-      </c>
-      <c r="G32" t="n">
-        <v>243.505</v>
-      </c>
-      <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>240.6</v>
       </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr">
@@ -1578,22 +1554,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>240.9</v>
+        <v>240.8</v>
       </c>
       <c r="C33" t="n">
         <v>240.8</v>
       </c>
       <c r="D33" t="n">
-        <v>240.9</v>
+        <v>240.8</v>
       </c>
       <c r="E33" t="n">
         <v>240.8</v>
       </c>
       <c r="F33" t="n">
-        <v>11274.7674</v>
+        <v>3501.3033</v>
       </c>
       <c r="G33" t="n">
-        <v>243.4083333333333</v>
+        <v>243.505</v>
       </c>
       <c r="H33" t="n">
         <v>1</v>
@@ -1602,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>240.8</v>
+        <v>240.6</v>
       </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr">
@@ -1619,22 +1595,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>240.6</v>
+        <v>240.9</v>
       </c>
       <c r="C34" t="n">
-        <v>240.6</v>
+        <v>240.8</v>
       </c>
       <c r="D34" t="n">
-        <v>240.6</v>
+        <v>240.9</v>
       </c>
       <c r="E34" t="n">
-        <v>240.6</v>
+        <v>240.8</v>
       </c>
       <c r="F34" t="n">
-        <v>2965.1873</v>
+        <v>11274.7674</v>
       </c>
       <c r="G34" t="n">
-        <v>243.3083333333333</v>
+        <v>243.4083333333333</v>
       </c>
       <c r="H34" t="n">
         <v>1</v>
@@ -1660,22 +1636,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>243</v>
+        <v>240.6</v>
       </c>
       <c r="C35" t="n">
-        <v>243</v>
+        <v>240.6</v>
       </c>
       <c r="D35" t="n">
-        <v>243</v>
+        <v>240.6</v>
       </c>
       <c r="E35" t="n">
-        <v>243</v>
+        <v>240.6</v>
       </c>
       <c r="F35" t="n">
-        <v>12.3107</v>
+        <v>2965.1873</v>
       </c>
       <c r="G35" t="n">
-        <v>243.2266666666666</v>
+        <v>243.3083333333333</v>
       </c>
       <c r="H35" t="n">
         <v>1</v>
@@ -1684,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>240.6</v>
+        <v>240.8</v>
       </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr">
@@ -1701,30 +1677,32 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>240.7</v>
+        <v>243</v>
       </c>
       <c r="C36" t="n">
-        <v>240.7</v>
+        <v>243</v>
       </c>
       <c r="D36" t="n">
-        <v>240.7</v>
+        <v>243</v>
       </c>
       <c r="E36" t="n">
-        <v>240.7</v>
+        <v>243</v>
       </c>
       <c r="F36" t="n">
-        <v>2200.3573</v>
+        <v>12.3107</v>
       </c>
       <c r="G36" t="n">
-        <v>243.1066666666666</v>
+        <v>243.2266666666666</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>240.6</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr">
         <is>
@@ -1740,22 +1718,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>242.2</v>
+        <v>240.7</v>
       </c>
       <c r="C37" t="n">
-        <v>242.2</v>
+        <v>240.7</v>
       </c>
       <c r="D37" t="n">
-        <v>242.2</v>
+        <v>240.7</v>
       </c>
       <c r="E37" t="n">
-        <v>242.2</v>
+        <v>240.7</v>
       </c>
       <c r="F37" t="n">
-        <v>477.82</v>
+        <v>2200.3573</v>
       </c>
       <c r="G37" t="n">
-        <v>243.0483333333333</v>
+        <v>243.1066666666666</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1791,10 +1769,10 @@
         <v>242.2</v>
       </c>
       <c r="F38" t="n">
-        <v>469.6658</v>
+        <v>477.82</v>
       </c>
       <c r="G38" t="n">
-        <v>242.99</v>
+        <v>243.0483333333333</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1818,22 +1796,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>241.1</v>
+        <v>242.2</v>
       </c>
       <c r="C39" t="n">
-        <v>241.1</v>
+        <v>242.2</v>
       </c>
       <c r="D39" t="n">
-        <v>241.1</v>
+        <v>242.2</v>
       </c>
       <c r="E39" t="n">
-        <v>241.1</v>
+        <v>242.2</v>
       </c>
       <c r="F39" t="n">
-        <v>2392.2237</v>
+        <v>469.6658</v>
       </c>
       <c r="G39" t="n">
-        <v>242.9166666666666</v>
+        <v>242.99</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1857,22 +1835,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>240.7</v>
+        <v>241.1</v>
       </c>
       <c r="C40" t="n">
-        <v>240.7</v>
+        <v>241.1</v>
       </c>
       <c r="D40" t="n">
-        <v>240.7</v>
+        <v>241.1</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7</v>
+        <v>241.1</v>
       </c>
       <c r="F40" t="n">
-        <v>23</v>
+        <v>2392.2237</v>
       </c>
       <c r="G40" t="n">
-        <v>242.8366666666666</v>
+        <v>242.9166666666666</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1896,22 +1874,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>240.8</v>
+        <v>240.7</v>
       </c>
       <c r="C41" t="n">
-        <v>240.8</v>
+        <v>240.7</v>
       </c>
       <c r="D41" t="n">
-        <v>240.8</v>
+        <v>240.7</v>
       </c>
       <c r="E41" t="n">
-        <v>240.8</v>
+        <v>240.7</v>
       </c>
       <c r="F41" t="n">
-        <v>1100</v>
+        <v>23</v>
       </c>
       <c r="G41" t="n">
-        <v>242.7583333333333</v>
+        <v>242.8366666666666</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1935,22 +1913,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>242.2</v>
+        <v>240.8</v>
       </c>
       <c r="C42" t="n">
-        <v>242.2</v>
+        <v>240.8</v>
       </c>
       <c r="D42" t="n">
-        <v>242.2</v>
+        <v>240.8</v>
       </c>
       <c r="E42" t="n">
-        <v>242.2</v>
+        <v>240.8</v>
       </c>
       <c r="F42" t="n">
-        <v>2341.4797</v>
+        <v>1100</v>
       </c>
       <c r="G42" t="n">
-        <v>242.7</v>
+        <v>242.7583333333333</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1974,22 +1952,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>240.9</v>
+        <v>242.2</v>
       </c>
       <c r="C43" t="n">
-        <v>240.9</v>
+        <v>242.2</v>
       </c>
       <c r="D43" t="n">
-        <v>240.9</v>
+        <v>242.2</v>
       </c>
       <c r="E43" t="n">
-        <v>240.9</v>
+        <v>242.2</v>
       </c>
       <c r="F43" t="n">
-        <v>1530.2584</v>
+        <v>2341.4797</v>
       </c>
       <c r="G43" t="n">
-        <v>242.6199999999999</v>
+        <v>242.7</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2016,19 +1994,19 @@
         <v>240.9</v>
       </c>
       <c r="C44" t="n">
-        <v>240.8</v>
+        <v>240.9</v>
       </c>
       <c r="D44" t="n">
         <v>240.9</v>
       </c>
       <c r="E44" t="n">
-        <v>240.8</v>
+        <v>240.9</v>
       </c>
       <c r="F44" t="n">
-        <v>300</v>
+        <v>1530.2584</v>
       </c>
       <c r="G44" t="n">
-        <v>242.5499999999999</v>
+        <v>242.6199999999999</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2052,22 +2030,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
+        <v>240.9</v>
+      </c>
+      <c r="C45" t="n">
         <v>240.8</v>
       </c>
-      <c r="C45" t="n">
-        <v>240.7</v>
-      </c>
       <c r="D45" t="n">
+        <v>240.9</v>
+      </c>
+      <c r="E45" t="n">
         <v>240.8</v>
       </c>
-      <c r="E45" t="n">
-        <v>240.7</v>
-      </c>
       <c r="F45" t="n">
-        <v>7687</v>
+        <v>300</v>
       </c>
       <c r="G45" t="n">
-        <v>242.4666666666666</v>
+        <v>242.5499999999999</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2091,22 +2069,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
+        <v>240.8</v>
+      </c>
+      <c r="C46" t="n">
         <v>240.7</v>
       </c>
-      <c r="C46" t="n">
-        <v>241</v>
-      </c>
       <c r="D46" t="n">
-        <v>241</v>
+        <v>240.8</v>
       </c>
       <c r="E46" t="n">
         <v>240.7</v>
       </c>
       <c r="F46" t="n">
-        <v>4526.7777</v>
+        <v>7687</v>
       </c>
       <c r="G46" t="n">
-        <v>242.4033333333333</v>
+        <v>242.4666666666666</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2130,7 +2108,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>241</v>
+        <v>240.7</v>
       </c>
       <c r="C47" t="n">
         <v>241</v>
@@ -2139,13 +2117,13 @@
         <v>241</v>
       </c>
       <c r="E47" t="n">
-        <v>241</v>
+        <v>240.7</v>
       </c>
       <c r="F47" t="n">
-        <v>1600</v>
+        <v>4526.7777</v>
       </c>
       <c r="G47" t="n">
-        <v>242.3266666666666</v>
+        <v>242.4033333333333</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2172,19 +2150,19 @@
         <v>241</v>
       </c>
       <c r="C48" t="n">
-        <v>241.1</v>
+        <v>241</v>
       </c>
       <c r="D48" t="n">
-        <v>241.1</v>
+        <v>241</v>
       </c>
       <c r="E48" t="n">
         <v>241</v>
       </c>
       <c r="F48" t="n">
-        <v>657</v>
+        <v>1600</v>
       </c>
       <c r="G48" t="n">
-        <v>242.2499999999999</v>
+        <v>242.3266666666666</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2208,22 +2186,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C49" t="n">
-        <v>240.7</v>
+        <v>241.1</v>
       </c>
       <c r="D49" t="n">
-        <v>242</v>
+        <v>241.1</v>
       </c>
       <c r="E49" t="n">
-        <v>240.7</v>
+        <v>241</v>
       </c>
       <c r="F49" t="n">
-        <v>16718.0025</v>
+        <v>657</v>
       </c>
       <c r="G49" t="n">
-        <v>242.1816666666666</v>
+        <v>242.2499999999999</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2247,22 +2225,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>242.9</v>
+        <v>242</v>
       </c>
       <c r="C50" t="n">
-        <v>240.8</v>
+        <v>240.7</v>
       </c>
       <c r="D50" t="n">
-        <v>242.9</v>
+        <v>242</v>
       </c>
       <c r="E50" t="n">
-        <v>240.8</v>
+        <v>240.7</v>
       </c>
       <c r="F50" t="n">
-        <v>397.22</v>
+        <v>16718.0025</v>
       </c>
       <c r="G50" t="n">
-        <v>242.115</v>
+        <v>242.1816666666666</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2286,22 +2264,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>240.8</v>
+        <v>242.9</v>
       </c>
       <c r="C51" t="n">
         <v>240.8</v>
       </c>
       <c r="D51" t="n">
-        <v>240.9</v>
+        <v>242.9</v>
       </c>
       <c r="E51" t="n">
         <v>240.8</v>
       </c>
       <c r="F51" t="n">
-        <v>1648</v>
+        <v>397.22</v>
       </c>
       <c r="G51" t="n">
-        <v>242.0483333333333</v>
+        <v>242.115</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2331,16 +2309,16 @@
         <v>240.8</v>
       </c>
       <c r="D52" t="n">
-        <v>240.8</v>
+        <v>240.9</v>
       </c>
       <c r="E52" t="n">
         <v>240.8</v>
       </c>
       <c r="F52" t="n">
-        <v>12287.9548</v>
+        <v>1648</v>
       </c>
       <c r="G52" t="n">
-        <v>241.9816666666666</v>
+        <v>242.0483333333333</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2364,22 +2342,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>241</v>
+        <v>240.8</v>
       </c>
       <c r="C53" t="n">
-        <v>240.9</v>
+        <v>240.8</v>
       </c>
       <c r="D53" t="n">
-        <v>241</v>
+        <v>240.8</v>
       </c>
       <c r="E53" t="n">
-        <v>240.9</v>
+        <v>240.8</v>
       </c>
       <c r="F53" t="n">
-        <v>7640.4309</v>
+        <v>12287.9548</v>
       </c>
       <c r="G53" t="n">
-        <v>241.9166666666666</v>
+        <v>241.9816666666666</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2403,22 +2381,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>240.8</v>
+        <v>241</v>
       </c>
       <c r="C54" t="n">
-        <v>240.8</v>
+        <v>240.9</v>
       </c>
       <c r="D54" t="n">
+        <v>241</v>
+      </c>
+      <c r="E54" t="n">
         <v>240.9</v>
       </c>
-      <c r="E54" t="n">
-        <v>240.8</v>
-      </c>
       <c r="F54" t="n">
-        <v>13910.9543</v>
+        <v>7640.4309</v>
       </c>
       <c r="G54" t="n">
-        <v>241.85</v>
+        <v>241.9166666666666</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2445,19 +2423,19 @@
         <v>240.8</v>
       </c>
       <c r="C55" t="n">
-        <v>241</v>
+        <v>240.8</v>
       </c>
       <c r="D55" t="n">
-        <v>241</v>
+        <v>240.9</v>
       </c>
       <c r="E55" t="n">
         <v>240.8</v>
       </c>
       <c r="F55" t="n">
-        <v>2910.5691</v>
+        <v>13910.9543</v>
       </c>
       <c r="G55" t="n">
-        <v>241.7933333333333</v>
+        <v>241.85</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2481,22 +2459,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>242.7</v>
+        <v>240.8</v>
       </c>
       <c r="C56" t="n">
         <v>241</v>
       </c>
       <c r="D56" t="n">
-        <v>242.7</v>
+        <v>241</v>
       </c>
       <c r="E56" t="n">
-        <v>241</v>
+        <v>240.8</v>
       </c>
       <c r="F56" t="n">
-        <v>1404.5</v>
+        <v>2910.5691</v>
       </c>
       <c r="G56" t="n">
-        <v>241.74</v>
+        <v>241.7933333333333</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2520,22 +2498,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
+        <v>242.7</v>
+      </c>
+      <c r="C57" t="n">
         <v>241</v>
       </c>
-      <c r="C57" t="n">
-        <v>240.8</v>
-      </c>
       <c r="D57" t="n">
+        <v>242.7</v>
+      </c>
+      <c r="E57" t="n">
         <v>241</v>
       </c>
-      <c r="E57" t="n">
-        <v>240.8</v>
-      </c>
       <c r="F57" t="n">
-        <v>4802.38</v>
+        <v>1404.5</v>
       </c>
       <c r="G57" t="n">
-        <v>241.6833333333333</v>
+        <v>241.74</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2559,22 +2537,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>240.9</v>
+        <v>241</v>
       </c>
       <c r="C58" t="n">
         <v>240.8</v>
       </c>
       <c r="D58" t="n">
-        <v>240.9</v>
+        <v>241</v>
       </c>
       <c r="E58" t="n">
         <v>240.8</v>
       </c>
       <c r="F58" t="n">
-        <v>4083.4824</v>
+        <v>4802.38</v>
       </c>
       <c r="G58" t="n">
-        <v>241.6383333333333</v>
+        <v>241.6833333333333</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2598,10 +2576,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
+        <v>240.9</v>
+      </c>
+      <c r="C59" t="n">
         <v>240.8</v>
-      </c>
-      <c r="C59" t="n">
-        <v>240.9</v>
       </c>
       <c r="D59" t="n">
         <v>240.9</v>
@@ -2610,10 +2588,10 @@
         <v>240.8</v>
       </c>
       <c r="F59" t="n">
-        <v>1778.5174</v>
+        <v>4083.4824</v>
       </c>
       <c r="G59" t="n">
-        <v>241.6016666666666</v>
+        <v>241.6383333333333</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2637,22 +2615,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>241</v>
+        <v>240.8</v>
       </c>
       <c r="C60" t="n">
-        <v>241.2</v>
+        <v>240.9</v>
       </c>
       <c r="D60" t="n">
-        <v>241.2</v>
+        <v>240.9</v>
       </c>
       <c r="E60" t="n">
-        <v>241</v>
+        <v>240.8</v>
       </c>
       <c r="F60" t="n">
-        <v>6396.9176</v>
+        <v>1778.5174</v>
       </c>
       <c r="G60" t="n">
-        <v>241.5699999999999</v>
+        <v>241.6016666666666</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2676,22 +2654,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>241.3</v>
+        <v>241</v>
       </c>
       <c r="C61" t="n">
-        <v>242.2</v>
+        <v>241.2</v>
       </c>
       <c r="D61" t="n">
-        <v>242.2</v>
+        <v>241.2</v>
       </c>
       <c r="E61" t="n">
-        <v>241.3</v>
+        <v>241</v>
       </c>
       <c r="F61" t="n">
-        <v>18708.7841</v>
+        <v>6396.9176</v>
       </c>
       <c r="G61" t="n">
-        <v>241.5566666666666</v>
+        <v>241.5699999999999</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2715,7 +2693,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>242.2</v>
+        <v>241.3</v>
       </c>
       <c r="C62" t="n">
         <v>242.2</v>
@@ -2724,13 +2702,13 @@
         <v>242.2</v>
       </c>
       <c r="E62" t="n">
-        <v>242.2</v>
+        <v>241.3</v>
       </c>
       <c r="F62" t="n">
-        <v>9355.769899999999</v>
+        <v>18708.7841</v>
       </c>
       <c r="G62" t="n">
-        <v>241.5433333333333</v>
+        <v>241.5566666666666</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2757,19 +2735,19 @@
         <v>242.2</v>
       </c>
       <c r="C63" t="n">
-        <v>242.5</v>
+        <v>242.2</v>
       </c>
       <c r="D63" t="n">
-        <v>242.5</v>
+        <v>242.2</v>
       </c>
       <c r="E63" t="n">
         <v>242.2</v>
       </c>
       <c r="F63" t="n">
-        <v>40323.361</v>
+        <v>9355.769899999999</v>
       </c>
       <c r="G63" t="n">
-        <v>241.5349999999999</v>
+        <v>241.5433333333333</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2796,19 +2774,19 @@
         <v>242.2</v>
       </c>
       <c r="C64" t="n">
-        <v>242.2</v>
+        <v>242.5</v>
       </c>
       <c r="D64" t="n">
-        <v>242.2</v>
+        <v>242.5</v>
       </c>
       <c r="E64" t="n">
         <v>242.2</v>
       </c>
       <c r="F64" t="n">
-        <v>3972.0771</v>
+        <v>40323.361</v>
       </c>
       <c r="G64" t="n">
-        <v>241.5233333333333</v>
+        <v>241.5349999999999</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2832,22 +2810,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>243</v>
+        <v>242.2</v>
       </c>
       <c r="C65" t="n">
-        <v>243</v>
+        <v>242.2</v>
       </c>
       <c r="D65" t="n">
-        <v>243</v>
+        <v>242.2</v>
       </c>
       <c r="E65" t="n">
-        <v>243</v>
+        <v>242.2</v>
       </c>
       <c r="F65" t="n">
-        <v>11.0125</v>
+        <v>3972.0771</v>
       </c>
       <c r="G65" t="n">
-        <v>241.5383333333333</v>
+        <v>241.5233333333333</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2871,22 +2849,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>242.2</v>
+        <v>243</v>
       </c>
       <c r="C66" t="n">
-        <v>242.2</v>
+        <v>243</v>
       </c>
       <c r="D66" t="n">
-        <v>242.2</v>
+        <v>243</v>
       </c>
       <c r="E66" t="n">
-        <v>242.2</v>
+        <v>243</v>
       </c>
       <c r="F66" t="n">
-        <v>7501.4645</v>
+        <v>11.0125</v>
       </c>
       <c r="G66" t="n">
-        <v>241.54</v>
+        <v>241.5383333333333</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2922,10 +2900,10 @@
         <v>242.2</v>
       </c>
       <c r="F67" t="n">
-        <v>400</v>
+        <v>7501.4645</v>
       </c>
       <c r="G67" t="n">
-        <v>241.5383333333333</v>
+        <v>241.54</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2961,10 +2939,10 @@
         <v>242.2</v>
       </c>
       <c r="F68" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="G68" t="n">
-        <v>241.5033333333334</v>
+        <v>241.5383333333333</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2991,19 +2969,19 @@
         <v>242.2</v>
       </c>
       <c r="C69" t="n">
-        <v>242</v>
+        <v>242.2</v>
       </c>
       <c r="D69" t="n">
         <v>242.2</v>
       </c>
       <c r="E69" t="n">
-        <v>242</v>
+        <v>242.2</v>
       </c>
       <c r="F69" t="n">
-        <v>5964.9176</v>
+        <v>100</v>
       </c>
       <c r="G69" t="n">
-        <v>241.4983333333334</v>
+        <v>241.5033333333334</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3027,22 +3005,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>242</v>
+        <v>242.2</v>
       </c>
       <c r="C70" t="n">
         <v>242</v>
       </c>
       <c r="D70" t="n">
-        <v>242</v>
+        <v>242.2</v>
       </c>
       <c r="E70" t="n">
         <v>242</v>
       </c>
       <c r="F70" t="n">
-        <v>4355.76</v>
+        <v>5964.9176</v>
       </c>
       <c r="G70" t="n">
-        <v>241.48</v>
+        <v>241.4983333333334</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3078,10 +3056,10 @@
         <v>242</v>
       </c>
       <c r="F71" t="n">
-        <v>2229</v>
+        <v>4355.76</v>
       </c>
       <c r="G71" t="n">
-        <v>241.47</v>
+        <v>241.48</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3117,10 +3095,10 @@
         <v>242</v>
       </c>
       <c r="F72" t="n">
-        <v>153.9999</v>
+        <v>2229</v>
       </c>
       <c r="G72" t="n">
-        <v>241.4616666666667</v>
+        <v>241.47</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3147,19 +3125,19 @@
         <v>242</v>
       </c>
       <c r="C73" t="n">
-        <v>241.3</v>
+        <v>242</v>
       </c>
       <c r="D73" t="n">
         <v>242</v>
       </c>
       <c r="E73" t="n">
-        <v>241.3</v>
+        <v>242</v>
       </c>
       <c r="F73" t="n">
-        <v>9650.803599999999</v>
+        <v>153.9999</v>
       </c>
       <c r="G73" t="n">
-        <v>241.44</v>
+        <v>241.4616666666667</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3183,22 +3161,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C74" t="n">
-        <v>242.5</v>
+        <v>241.3</v>
       </c>
       <c r="D74" t="n">
-        <v>243.5</v>
+        <v>242</v>
       </c>
       <c r="E74" t="n">
-        <v>242.5</v>
+        <v>241.3</v>
       </c>
       <c r="F74" t="n">
-        <v>674.5</v>
+        <v>9650.803599999999</v>
       </c>
       <c r="G74" t="n">
-        <v>241.4433333333333</v>
+        <v>241.44</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3222,19 +3200,19 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>242.5</v>
+        <v>243</v>
       </c>
       <c r="C75" t="n">
         <v>242.5</v>
       </c>
       <c r="D75" t="n">
-        <v>242.5</v>
+        <v>243.5</v>
       </c>
       <c r="E75" t="n">
         <v>242.5</v>
       </c>
       <c r="F75" t="n">
-        <v>2003.7299</v>
+        <v>674.5</v>
       </c>
       <c r="G75" t="n">
         <v>241.4433333333333</v>
@@ -3261,22 +3239,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>242</v>
+        <v>242.5</v>
       </c>
       <c r="C76" t="n">
-        <v>241</v>
+        <v>242.5</v>
       </c>
       <c r="D76" t="n">
-        <v>242</v>
+        <v>242.5</v>
       </c>
       <c r="E76" t="n">
-        <v>241</v>
+        <v>242.5</v>
       </c>
       <c r="F76" t="n">
-        <v>5500</v>
+        <v>2003.7299</v>
       </c>
       <c r="G76" t="n">
-        <v>241.4283333333333</v>
+        <v>241.4433333333333</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3303,16 +3281,16 @@
         <v>242</v>
       </c>
       <c r="C77" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D77" t="n">
         <v>242</v>
       </c>
       <c r="E77" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F77" t="n">
-        <v>1313.7626</v>
+        <v>5500</v>
       </c>
       <c r="G77" t="n">
         <v>241.4283333333333</v>
@@ -3351,7 +3329,7 @@
         <v>242</v>
       </c>
       <c r="F78" t="n">
-        <v>164.23</v>
+        <v>1313.7626</v>
       </c>
       <c r="G78" t="n">
         <v>241.4283333333333</v>
@@ -3390,7 +3368,7 @@
         <v>242</v>
       </c>
       <c r="F79" t="n">
-        <v>188.01</v>
+        <v>164.23</v>
       </c>
       <c r="G79" t="n">
         <v>241.4283333333333</v>
@@ -3417,22 +3395,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>242.9</v>
+        <v>242</v>
       </c>
       <c r="C80" t="n">
-        <v>242.9</v>
+        <v>242</v>
       </c>
       <c r="D80" t="n">
-        <v>242.9</v>
+        <v>242</v>
       </c>
       <c r="E80" t="n">
-        <v>242.9</v>
+        <v>242</v>
       </c>
       <c r="F80" t="n">
-        <v>8.2339</v>
+        <v>188.01</v>
       </c>
       <c r="G80" t="n">
-        <v>241.4483333333333</v>
+        <v>241.4283333333333</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3456,22 +3434,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>243</v>
+        <v>242.9</v>
       </c>
       <c r="C81" t="n">
-        <v>243.9</v>
+        <v>242.9</v>
       </c>
       <c r="D81" t="n">
-        <v>243.9</v>
+        <v>242.9</v>
       </c>
       <c r="E81" t="n">
-        <v>243</v>
+        <v>242.9</v>
       </c>
       <c r="F81" t="n">
-        <v>1026.43879147</v>
+        <v>8.2339</v>
       </c>
       <c r="G81" t="n">
-        <v>241.485</v>
+        <v>241.4483333333333</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3495,22 +3473,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>243.8</v>
+        <v>243</v>
       </c>
       <c r="C82" t="n">
-        <v>243.8</v>
+        <v>243.9</v>
       </c>
       <c r="D82" t="n">
-        <v>243.8</v>
+        <v>243.9</v>
       </c>
       <c r="E82" t="n">
-        <v>243.8</v>
+        <v>243</v>
       </c>
       <c r="F82" t="n">
-        <v>5391.1927</v>
+        <v>1026.43879147</v>
       </c>
       <c r="G82" t="n">
-        <v>241.52</v>
+        <v>241.485</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3534,22 +3512,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>242.8</v>
+        <v>243.8</v>
       </c>
       <c r="C83" t="n">
-        <v>242.2</v>
+        <v>243.8</v>
       </c>
       <c r="D83" t="n">
-        <v>242.8</v>
+        <v>243.8</v>
       </c>
       <c r="E83" t="n">
-        <v>242.2</v>
+        <v>243.8</v>
       </c>
       <c r="F83" t="n">
-        <v>206.2132</v>
+        <v>5391.1927</v>
       </c>
       <c r="G83" t="n">
-        <v>241.5299999999999</v>
+        <v>241.52</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3573,22 +3551,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
+        <v>242.8</v>
+      </c>
+      <c r="C84" t="n">
         <v>242.2</v>
       </c>
-      <c r="C84" t="n">
-        <v>242.1</v>
-      </c>
       <c r="D84" t="n">
+        <v>242.8</v>
+      </c>
+      <c r="E84" t="n">
         <v>242.2</v>
       </c>
-      <c r="E84" t="n">
-        <v>242.1</v>
-      </c>
       <c r="F84" t="n">
-        <v>2150.2078</v>
+        <v>206.2132</v>
       </c>
       <c r="G84" t="n">
-        <v>241.54</v>
+        <v>241.5299999999999</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3612,22 +3590,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>243.7</v>
+        <v>242.2</v>
       </c>
       <c r="C85" t="n">
         <v>242.1</v>
       </c>
       <c r="D85" t="n">
-        <v>243.9</v>
+        <v>242.2</v>
       </c>
       <c r="E85" t="n">
         <v>242.1</v>
       </c>
       <c r="F85" t="n">
-        <v>87665.1087</v>
+        <v>2150.2078</v>
       </c>
       <c r="G85" t="n">
-        <v>241.5516666666666</v>
+        <v>241.54</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3651,22 +3629,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>242.5</v>
+        <v>243.7</v>
       </c>
       <c r="C86" t="n">
-        <v>242.5</v>
+        <v>242.1</v>
       </c>
       <c r="D86" t="n">
-        <v>242.5</v>
+        <v>243.9</v>
       </c>
       <c r="E86" t="n">
-        <v>242.5</v>
+        <v>242.1</v>
       </c>
       <c r="F86" t="n">
-        <v>167.0731</v>
+        <v>87665.1087</v>
       </c>
       <c r="G86" t="n">
-        <v>241.5783333333333</v>
+        <v>241.5516666666666</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3690,22 +3668,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>243</v>
+        <v>242.5</v>
       </c>
       <c r="C87" t="n">
-        <v>243</v>
+        <v>242.5</v>
       </c>
       <c r="D87" t="n">
-        <v>243.9</v>
+        <v>242.5</v>
       </c>
       <c r="E87" t="n">
         <v>242.5</v>
       </c>
       <c r="F87" t="n">
-        <v>3064.9</v>
+        <v>167.0731</v>
       </c>
       <c r="G87" t="n">
-        <v>241.6116666666667</v>
+        <v>241.5783333333333</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3735,16 +3713,16 @@
         <v>243</v>
       </c>
       <c r="D88" t="n">
-        <v>243</v>
+        <v>243.9</v>
       </c>
       <c r="E88" t="n">
-        <v>243</v>
+        <v>242.5</v>
       </c>
       <c r="F88" t="n">
-        <v>131.0084</v>
+        <v>3064.9</v>
       </c>
       <c r="G88" t="n">
-        <v>241.6466666666666</v>
+        <v>241.6116666666667</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3771,19 +3749,19 @@
         <v>243</v>
       </c>
       <c r="C89" t="n">
-        <v>242.6</v>
+        <v>243</v>
       </c>
       <c r="D89" t="n">
         <v>243</v>
       </c>
       <c r="E89" t="n">
-        <v>242.6</v>
+        <v>243</v>
       </c>
       <c r="F89" t="n">
-        <v>418876.8701</v>
+        <v>131.0084</v>
       </c>
       <c r="G89" t="n">
-        <v>241.6766666666667</v>
+        <v>241.6466666666666</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3807,22 +3785,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>241.5</v>
+        <v>243</v>
       </c>
       <c r="C90" t="n">
-        <v>241</v>
+        <v>242.6</v>
       </c>
       <c r="D90" t="n">
-        <v>241.5</v>
+        <v>243</v>
       </c>
       <c r="E90" t="n">
-        <v>241</v>
+        <v>242.6</v>
       </c>
       <c r="F90" t="n">
-        <v>19201.2125</v>
+        <v>418876.8701</v>
       </c>
       <c r="G90" t="n">
-        <v>241.68</v>
+        <v>241.6766666666667</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3846,22 +3824,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>242</v>
+        <v>241.5</v>
       </c>
       <c r="C91" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D91" t="n">
-        <v>242</v>
+        <v>241.5</v>
       </c>
       <c r="E91" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F91" t="n">
-        <v>8243.893099999999</v>
+        <v>19201.2125</v>
       </c>
       <c r="G91" t="n">
-        <v>241.7033333333333</v>
+        <v>241.68</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3885,22 +3863,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>241.4</v>
+        <v>242</v>
       </c>
       <c r="C92" t="n">
-        <v>241.4</v>
+        <v>242</v>
       </c>
       <c r="D92" t="n">
-        <v>241.4</v>
+        <v>242</v>
       </c>
       <c r="E92" t="n">
-        <v>241.4</v>
+        <v>242</v>
       </c>
       <c r="F92" t="n">
-        <v>499.9999</v>
+        <v>8243.893099999999</v>
       </c>
       <c r="G92" t="n">
-        <v>241.7133333333333</v>
+        <v>241.7033333333333</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3927,19 +3905,19 @@
         <v>241.4</v>
       </c>
       <c r="C93" t="n">
-        <v>241.3</v>
+        <v>241.4</v>
       </c>
       <c r="D93" t="n">
         <v>241.4</v>
       </c>
       <c r="E93" t="n">
-        <v>241.3</v>
+        <v>241.4</v>
       </c>
       <c r="F93" t="n">
-        <v>900</v>
+        <v>499.9999</v>
       </c>
       <c r="G93" t="n">
-        <v>241.7216666666667</v>
+        <v>241.7133333333333</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3963,22 +3941,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>241.5</v>
+        <v>241.4</v>
       </c>
       <c r="C94" t="n">
-        <v>241.5</v>
+        <v>241.3</v>
       </c>
       <c r="D94" t="n">
-        <v>241.5</v>
+        <v>241.4</v>
       </c>
       <c r="E94" t="n">
-        <v>241.5</v>
+        <v>241.3</v>
       </c>
       <c r="F94" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="G94" t="n">
-        <v>241.7366666666667</v>
+        <v>241.7216666666667</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4014,10 +3992,10 @@
         <v>241.5</v>
       </c>
       <c r="F95" t="n">
-        <v>1537.335</v>
+        <v>600</v>
       </c>
       <c r="G95" t="n">
-        <v>241.7116666666667</v>
+        <v>241.7366666666667</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4053,10 +4031,10 @@
         <v>241.5</v>
       </c>
       <c r="F96" t="n">
-        <v>200</v>
+        <v>1537.335</v>
       </c>
       <c r="G96" t="n">
-        <v>241.725</v>
+        <v>241.7116666666667</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4080,22 +4058,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>241.3</v>
+        <v>241.5</v>
       </c>
       <c r="C97" t="n">
-        <v>241.1</v>
+        <v>241.5</v>
       </c>
       <c r="D97" t="n">
-        <v>241.3</v>
+        <v>241.5</v>
       </c>
       <c r="E97" t="n">
-        <v>241.1</v>
+        <v>241.5</v>
       </c>
       <c r="F97" t="n">
-        <v>1751.9999</v>
+        <v>200</v>
       </c>
       <c r="G97" t="n">
-        <v>241.7066666666666</v>
+        <v>241.725</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4119,22 +4097,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
+        <v>241.3</v>
+      </c>
+      <c r="C98" t="n">
         <v>241.1</v>
       </c>
-      <c r="C98" t="n">
-        <v>241.5</v>
-      </c>
       <c r="D98" t="n">
-        <v>241.5</v>
+        <v>241.3</v>
       </c>
       <c r="E98" t="n">
         <v>241.1</v>
       </c>
       <c r="F98" t="n">
-        <v>1682.9999</v>
+        <v>1751.9999</v>
       </c>
       <c r="G98" t="n">
-        <v>241.695</v>
+        <v>241.7066666666666</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4158,22 +4136,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
+        <v>241.1</v>
+      </c>
+      <c r="C99" t="n">
         <v>241.5</v>
       </c>
-      <c r="C99" t="n">
-        <v>242</v>
-      </c>
       <c r="D99" t="n">
-        <v>242</v>
+        <v>241.5</v>
       </c>
       <c r="E99" t="n">
-        <v>241.5</v>
+        <v>241.1</v>
       </c>
       <c r="F99" t="n">
-        <v>3590.0279</v>
+        <v>1682.9999</v>
       </c>
       <c r="G99" t="n">
-        <v>241.71</v>
+        <v>241.695</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4197,22 +4175,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
+        <v>241.5</v>
+      </c>
+      <c r="C100" t="n">
         <v>242</v>
       </c>
-      <c r="C100" t="n">
-        <v>245.9</v>
-      </c>
       <c r="D100" t="n">
-        <v>245.9</v>
+        <v>242</v>
       </c>
       <c r="E100" t="n">
-        <v>242</v>
+        <v>241.5</v>
       </c>
       <c r="F100" t="n">
-        <v>135.4143</v>
+        <v>3590.0279</v>
       </c>
       <c r="G100" t="n">
-        <v>241.7966666666666</v>
+        <v>241.71</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4236,22 +4214,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>243.8</v>
+        <v>242</v>
       </c>
       <c r="C101" t="n">
-        <v>243.8</v>
+        <v>245.9</v>
       </c>
       <c r="D101" t="n">
-        <v>243.8</v>
+        <v>245.9</v>
       </c>
       <c r="E101" t="n">
-        <v>243.8</v>
+        <v>242</v>
       </c>
       <c r="F101" t="n">
-        <v>2323.7199</v>
+        <v>135.4143</v>
       </c>
       <c r="G101" t="n">
-        <v>241.8466666666666</v>
+        <v>241.7966666666666</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4275,22 +4253,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>242</v>
+        <v>243.8</v>
       </c>
       <c r="C102" t="n">
-        <v>242</v>
+        <v>243.8</v>
       </c>
       <c r="D102" t="n">
-        <v>242</v>
+        <v>243.8</v>
       </c>
       <c r="E102" t="n">
-        <v>242</v>
+        <v>243.8</v>
       </c>
       <c r="F102" t="n">
-        <v>79.9076</v>
+        <v>2323.7199</v>
       </c>
       <c r="G102" t="n">
-        <v>241.8433333333333</v>
+        <v>241.8466666666666</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4326,10 +4304,10 @@
         <v>242</v>
       </c>
       <c r="F103" t="n">
-        <v>20.0924</v>
+        <v>79.9076</v>
       </c>
       <c r="G103" t="n">
-        <v>241.8616666666666</v>
+        <v>241.8433333333333</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4359,16 +4337,16 @@
         <v>242</v>
       </c>
       <c r="D104" t="n">
-        <v>242.1</v>
+        <v>242</v>
       </c>
       <c r="E104" t="n">
         <v>242</v>
       </c>
       <c r="F104" t="n">
-        <v>12153.1811</v>
+        <v>20.0924</v>
       </c>
       <c r="G104" t="n">
-        <v>241.8816666666666</v>
+        <v>241.8616666666666</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4398,16 +4376,16 @@
         <v>242</v>
       </c>
       <c r="D105" t="n">
-        <v>242</v>
+        <v>242.1</v>
       </c>
       <c r="E105" t="n">
         <v>242</v>
       </c>
       <c r="F105" t="n">
-        <v>449</v>
+        <v>12153.1811</v>
       </c>
       <c r="G105" t="n">
-        <v>241.9033333333333</v>
+        <v>241.8816666666666</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4443,10 +4421,10 @@
         <v>242</v>
       </c>
       <c r="F106" t="n">
-        <v>178</v>
+        <v>449</v>
       </c>
       <c r="G106" t="n">
-        <v>241.92</v>
+        <v>241.9033333333333</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4482,10 +4460,10 @@
         <v>242</v>
       </c>
       <c r="F107" t="n">
-        <v>175.6225</v>
+        <v>178</v>
       </c>
       <c r="G107" t="n">
-        <v>241.9366666666666</v>
+        <v>241.92</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4512,19 +4490,19 @@
         <v>242</v>
       </c>
       <c r="C108" t="n">
-        <v>241.6</v>
+        <v>242</v>
       </c>
       <c r="D108" t="n">
         <v>242</v>
       </c>
       <c r="E108" t="n">
-        <v>241.6</v>
+        <v>242</v>
       </c>
       <c r="F108" t="n">
-        <v>26.754</v>
+        <v>175.6225</v>
       </c>
       <c r="G108" t="n">
-        <v>241.945</v>
+        <v>241.9366666666666</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4548,22 +4526,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>243.4</v>
+        <v>242</v>
       </c>
       <c r="C109" t="n">
-        <v>243.4</v>
+        <v>241.6</v>
       </c>
       <c r="D109" t="n">
-        <v>243.4</v>
+        <v>242</v>
       </c>
       <c r="E109" t="n">
-        <v>243.4</v>
+        <v>241.6</v>
       </c>
       <c r="F109" t="n">
-        <v>2.236</v>
+        <v>26.754</v>
       </c>
       <c r="G109" t="n">
-        <v>241.9899999999999</v>
+        <v>241.945</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4587,22 +4565,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>243</v>
+        <v>243.4</v>
       </c>
       <c r="C110" t="n">
-        <v>243</v>
+        <v>243.4</v>
       </c>
       <c r="D110" t="n">
-        <v>244</v>
+        <v>243.4</v>
       </c>
       <c r="E110" t="n">
-        <v>243</v>
+        <v>243.4</v>
       </c>
       <c r="F110" t="n">
-        <v>7386.2821</v>
+        <v>2.236</v>
       </c>
       <c r="G110" t="n">
-        <v>242.0266666666666</v>
+        <v>241.9899999999999</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4626,22 +4604,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>243.1</v>
+        <v>243</v>
       </c>
       <c r="C111" t="n">
-        <v>243.1</v>
+        <v>243</v>
       </c>
       <c r="D111" t="n">
-        <v>243.1</v>
+        <v>244</v>
       </c>
       <c r="E111" t="n">
-        <v>243.1</v>
+        <v>243</v>
       </c>
       <c r="F111" t="n">
-        <v>3303.8758</v>
+        <v>7386.2821</v>
       </c>
       <c r="G111" t="n">
-        <v>242.065</v>
+        <v>242.0266666666666</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4677,10 +4655,10 @@
         <v>243.1</v>
       </c>
       <c r="F112" t="n">
-        <v>954.242</v>
+        <v>3303.8758</v>
       </c>
       <c r="G112" t="n">
-        <v>242.1033333333333</v>
+        <v>242.065</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4704,22 +4682,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>246</v>
+        <v>243.1</v>
       </c>
       <c r="C113" t="n">
-        <v>246</v>
+        <v>243.1</v>
       </c>
       <c r="D113" t="n">
-        <v>246</v>
+        <v>243.1</v>
       </c>
       <c r="E113" t="n">
-        <v>246</v>
+        <v>243.1</v>
       </c>
       <c r="F113" t="n">
-        <v>4.8956</v>
+        <v>954.242</v>
       </c>
       <c r="G113" t="n">
-        <v>242.1883333333333</v>
+        <v>242.1033333333333</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4743,22 +4721,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C114" t="n">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D114" t="n">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E114" t="n">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F114" t="n">
-        <v>14.3537</v>
+        <v>4.8956</v>
       </c>
       <c r="G114" t="n">
-        <v>242.2416666666667</v>
+        <v>242.1883333333333</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4782,22 +4760,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>242.5</v>
+        <v>244</v>
       </c>
       <c r="C115" t="n">
-        <v>242.3</v>
+        <v>244</v>
       </c>
       <c r="D115" t="n">
-        <v>242.5</v>
+        <v>244</v>
       </c>
       <c r="E115" t="n">
-        <v>242.3</v>
+        <v>244</v>
       </c>
       <c r="F115" t="n">
-        <v>1403.7795</v>
+        <v>14.3537</v>
       </c>
       <c r="G115" t="n">
-        <v>242.2633333333333</v>
+        <v>242.2416666666667</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4821,22 +4799,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>243.7</v>
+        <v>242.5</v>
       </c>
       <c r="C116" t="n">
-        <v>244.2</v>
+        <v>242.3</v>
       </c>
       <c r="D116" t="n">
-        <v>248.9</v>
+        <v>242.5</v>
       </c>
       <c r="E116" t="n">
-        <v>243.7</v>
+        <v>242.3</v>
       </c>
       <c r="F116" t="n">
-        <v>12113.13625628</v>
+        <v>1403.7795</v>
       </c>
       <c r="G116" t="n">
-        <v>242.3166666666667</v>
+        <v>242.2633333333333</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4860,22 +4838,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
+        <v>243.7</v>
+      </c>
+      <c r="C117" t="n">
         <v>244.2</v>
       </c>
-      <c r="C117" t="n">
-        <v>242.3</v>
-      </c>
       <c r="D117" t="n">
-        <v>244.2</v>
+        <v>248.9</v>
       </c>
       <c r="E117" t="n">
-        <v>242.3</v>
+        <v>243.7</v>
       </c>
       <c r="F117" t="n">
-        <v>472</v>
+        <v>12113.13625628</v>
       </c>
       <c r="G117" t="n">
-        <v>242.3416666666667</v>
+        <v>242.3166666666667</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4899,46 +4877,44 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>244</v>
+        <v>244.2</v>
       </c>
       <c r="C118" t="n">
-        <v>246.7</v>
+        <v>242.3</v>
       </c>
       <c r="D118" t="n">
-        <v>246.7</v>
+        <v>244.2</v>
       </c>
       <c r="E118" t="n">
-        <v>244</v>
+        <v>242.3</v>
       </c>
       <c r="F118" t="n">
-        <v>2037.40691507</v>
+        <v>472</v>
       </c>
       <c r="G118" t="n">
-        <v>242.44</v>
+        <v>242.3416666666667</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>246.7</v>
+        <v>244</v>
       </c>
       <c r="C119" t="n">
         <v>246.7</v>
@@ -4947,27 +4923,23 @@
         <v>246.7</v>
       </c>
       <c r="E119" t="n">
-        <v>246.7</v>
+        <v>244</v>
       </c>
       <c r="F119" t="n">
-        <v>703.7963999999999</v>
+        <v>2037.40691507</v>
       </c>
       <c r="G119" t="n">
-        <v>242.5366666666667</v>
+        <v>242.44</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4989,24 +4961,20 @@
         <v>246.7</v>
       </c>
       <c r="F120" t="n">
-        <v>1617.3591</v>
+        <v>703.7963999999999</v>
       </c>
       <c r="G120" t="n">
-        <v>242.6283333333334</v>
+        <v>242.5366666666667</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5016,36 +4984,32 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>243</v>
+        <v>246.7</v>
       </c>
       <c r="C121" t="n">
-        <v>243</v>
+        <v>246.7</v>
       </c>
       <c r="D121" t="n">
-        <v>244</v>
+        <v>246.7</v>
       </c>
       <c r="E121" t="n">
-        <v>243</v>
+        <v>246.7</v>
       </c>
       <c r="F121" t="n">
-        <v>2365</v>
+        <v>1617.3591</v>
       </c>
       <c r="G121" t="n">
-        <v>242.6416666666667</v>
+        <v>242.6283333333334</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5058,56 +5022,54 @@
         <v>243</v>
       </c>
       <c r="C122" t="n">
-        <v>242.5</v>
+        <v>243</v>
       </c>
       <c r="D122" t="n">
+        <v>244</v>
+      </c>
+      <c r="E122" t="n">
         <v>243</v>
       </c>
-      <c r="E122" t="n">
-        <v>242.4</v>
-      </c>
       <c r="F122" t="n">
-        <v>10672.7764</v>
+        <v>2365</v>
       </c>
       <c r="G122" t="n">
-        <v>242.6466666666667</v>
+        <v>242.6416666666667</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
+        <v>243</v>
+      </c>
+      <c r="C123" t="n">
         <v>242.5</v>
       </c>
-      <c r="C123" t="n">
-        <v>242.2</v>
-      </c>
       <c r="D123" t="n">
-        <v>242.5</v>
+        <v>243</v>
       </c>
       <c r="E123" t="n">
-        <v>242.2</v>
+        <v>242.4</v>
       </c>
       <c r="F123" t="n">
-        <v>15783.7233</v>
+        <v>10672.7764</v>
       </c>
       <c r="G123" t="n">
-        <v>242.6416666666667</v>
+        <v>242.6466666666667</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5127,19 +5089,19 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>242.2</v>
+        <v>242.5</v>
       </c>
       <c r="C124" t="n">
         <v>242.2</v>
       </c>
       <c r="D124" t="n">
-        <v>242.2</v>
+        <v>242.5</v>
       </c>
       <c r="E124" t="n">
         <v>242.2</v>
       </c>
       <c r="F124" t="n">
-        <v>3538.6839</v>
+        <v>15783.7233</v>
       </c>
       <c r="G124" t="n">
         <v>242.6416666666667</v>
@@ -5165,19 +5127,19 @@
         <v>242.2</v>
       </c>
       <c r="C125" t="n">
-        <v>243.5</v>
+        <v>242.2</v>
       </c>
       <c r="D125" t="n">
-        <v>243.5</v>
+        <v>242.2</v>
       </c>
       <c r="E125" t="n">
         <v>242.2</v>
       </c>
       <c r="F125" t="n">
-        <v>4485.25051334</v>
+        <v>3538.6839</v>
       </c>
       <c r="G125" t="n">
-        <v>242.65</v>
+        <v>242.6416666666667</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5200,16 +5162,16 @@
         <v>242.2</v>
       </c>
       <c r="C126" t="n">
-        <v>242.2</v>
+        <v>243.5</v>
       </c>
       <c r="D126" t="n">
-        <v>242.2</v>
+        <v>243.5</v>
       </c>
       <c r="E126" t="n">
         <v>242.2</v>
       </c>
       <c r="F126" t="n">
-        <v>1818.195</v>
+        <v>4485.25051334</v>
       </c>
       <c r="G126" t="n">
         <v>242.65</v>
@@ -5244,7 +5206,7 @@
         <v>242.2</v>
       </c>
       <c r="F127" t="n">
-        <v>167.2908</v>
+        <v>1818.195</v>
       </c>
       <c r="G127" t="n">
         <v>242.65</v>
@@ -5267,19 +5229,19 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>242.3</v>
+        <v>242.2</v>
       </c>
       <c r="C128" t="n">
         <v>242.2</v>
       </c>
       <c r="D128" t="n">
-        <v>242.3</v>
+        <v>242.2</v>
       </c>
       <c r="E128" t="n">
         <v>242.2</v>
       </c>
       <c r="F128" t="n">
-        <v>69065.1087</v>
+        <v>167.2908</v>
       </c>
       <c r="G128" t="n">
         <v>242.65</v>
@@ -5302,22 +5264,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>242.2</v>
+        <v>242.3</v>
       </c>
       <c r="C129" t="n">
         <v>242.2</v>
       </c>
       <c r="D129" t="n">
-        <v>242.2</v>
+        <v>242.3</v>
       </c>
       <c r="E129" t="n">
         <v>242.2</v>
       </c>
       <c r="F129" t="n">
-        <v>4222.1217</v>
+        <v>69065.1087</v>
       </c>
       <c r="G129" t="n">
-        <v>242.6533333333334</v>
+        <v>242.65</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5340,19 +5302,19 @@
         <v>242.2</v>
       </c>
       <c r="C130" t="n">
-        <v>243.9</v>
+        <v>242.2</v>
       </c>
       <c r="D130" t="n">
-        <v>243.9</v>
+        <v>242.2</v>
       </c>
       <c r="E130" t="n">
         <v>242.2</v>
       </c>
       <c r="F130" t="n">
-        <v>2152.2316</v>
+        <v>4222.1217</v>
       </c>
       <c r="G130" t="n">
-        <v>242.685</v>
+        <v>242.6533333333334</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5372,22 +5334,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
+        <v>242.2</v>
+      </c>
+      <c r="C131" t="n">
         <v>243.9</v>
       </c>
-      <c r="C131" t="n">
-        <v>245.8</v>
-      </c>
       <c r="D131" t="n">
-        <v>245.8</v>
+        <v>243.9</v>
       </c>
       <c r="E131" t="n">
-        <v>243.9</v>
+        <v>242.2</v>
       </c>
       <c r="F131" t="n">
-        <v>200</v>
+        <v>2152.2316</v>
       </c>
       <c r="G131" t="n">
-        <v>242.7483333333334</v>
+        <v>242.685</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5407,22 +5369,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>243.2</v>
+        <v>243.9</v>
       </c>
       <c r="C132" t="n">
-        <v>243.2</v>
+        <v>245.8</v>
       </c>
       <c r="D132" t="n">
-        <v>243.2</v>
+        <v>245.8</v>
       </c>
       <c r="E132" t="n">
-        <v>243.2</v>
+        <v>243.9</v>
       </c>
       <c r="F132" t="n">
-        <v>1813.0914</v>
+        <v>200</v>
       </c>
       <c r="G132" t="n">
-        <v>242.7683333333334</v>
+        <v>242.7483333333334</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5442,22 +5404,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>245.5</v>
+        <v>243.2</v>
       </c>
       <c r="C133" t="n">
-        <v>245.5</v>
+        <v>243.2</v>
       </c>
       <c r="D133" t="n">
-        <v>245.5</v>
+        <v>243.2</v>
       </c>
       <c r="E133" t="n">
-        <v>245.5</v>
+        <v>243.2</v>
       </c>
       <c r="F133" t="n">
-        <v>4082.087</v>
+        <v>1813.0914</v>
       </c>
       <c r="G133" t="n">
-        <v>242.8383333333334</v>
+        <v>242.7683333333334</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5477,22 +5439,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>244</v>
+        <v>245.5</v>
       </c>
       <c r="C134" t="n">
-        <v>244</v>
+        <v>245.5</v>
       </c>
       <c r="D134" t="n">
-        <v>244</v>
+        <v>245.5</v>
       </c>
       <c r="E134" t="n">
-        <v>244</v>
+        <v>245.5</v>
       </c>
       <c r="F134" t="n">
-        <v>20</v>
+        <v>4082.087</v>
       </c>
       <c r="G134" t="n">
-        <v>242.8633333333334</v>
+        <v>242.8383333333334</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5512,28 +5474,28 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>245.6</v>
+        <v>244</v>
       </c>
       <c r="C135" t="n">
-        <v>245.6</v>
+        <v>244</v>
       </c>
       <c r="D135" t="n">
-        <v>245.6</v>
+        <v>244</v>
       </c>
       <c r="E135" t="n">
-        <v>245.6</v>
+        <v>244</v>
       </c>
       <c r="F135" t="n">
-        <v>214.2191</v>
+        <v>20</v>
       </c>
       <c r="G135" t="n">
-        <v>242.915</v>
+        <v>242.8633333333334</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
@@ -5547,22 +5509,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>244</v>
+        <v>245.6</v>
       </c>
       <c r="C136" t="n">
-        <v>244</v>
+        <v>245.6</v>
       </c>
       <c r="D136" t="n">
-        <v>244</v>
+        <v>245.6</v>
       </c>
       <c r="E136" t="n">
-        <v>244</v>
+        <v>245.6</v>
       </c>
       <c r="F136" t="n">
-        <v>20</v>
+        <v>214.2191</v>
       </c>
       <c r="G136" t="n">
-        <v>242.9650000000001</v>
+        <v>242.915</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5594,10 +5556,10 @@
         <v>244</v>
       </c>
       <c r="F137" t="n">
-        <v>213.7931</v>
+        <v>20</v>
       </c>
       <c r="G137" t="n">
-        <v>242.9983333333334</v>
+        <v>242.9650000000001</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5620,19 +5582,19 @@
         <v>244</v>
       </c>
       <c r="C138" t="n">
-        <v>243.1</v>
+        <v>244</v>
       </c>
       <c r="D138" t="n">
         <v>244</v>
       </c>
       <c r="E138" t="n">
-        <v>243.1</v>
+        <v>244</v>
       </c>
       <c r="F138" t="n">
-        <v>12934.9601</v>
+        <v>213.7931</v>
       </c>
       <c r="G138" t="n">
-        <v>243.0166666666667</v>
+        <v>242.9983333333334</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5652,22 +5614,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>243.6</v>
+        <v>244</v>
       </c>
       <c r="C139" t="n">
-        <v>243.6</v>
+        <v>243.1</v>
       </c>
       <c r="D139" t="n">
-        <v>243.6</v>
+        <v>244</v>
       </c>
       <c r="E139" t="n">
-        <v>243.6</v>
+        <v>243.1</v>
       </c>
       <c r="F139" t="n">
-        <v>7389.6432</v>
+        <v>12934.9601</v>
       </c>
       <c r="G139" t="n">
-        <v>243.0433333333334</v>
+        <v>243.0166666666667</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5687,22 +5649,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>243.9</v>
+        <v>243.6</v>
       </c>
       <c r="C140" t="n">
-        <v>243.3</v>
+        <v>243.6</v>
       </c>
       <c r="D140" t="n">
-        <v>245.3</v>
+        <v>243.6</v>
       </c>
       <c r="E140" t="n">
-        <v>243.3</v>
+        <v>243.6</v>
       </c>
       <c r="F140" t="n">
-        <v>66198.8481</v>
+        <v>7389.6432</v>
       </c>
       <c r="G140" t="n">
-        <v>243.0500000000001</v>
+        <v>243.0433333333334</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5722,10 +5684,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
+        <v>243.9</v>
+      </c>
+      <c r="C141" t="n">
         <v>243.3</v>
-      </c>
-      <c r="C141" t="n">
-        <v>245.3</v>
       </c>
       <c r="D141" t="n">
         <v>245.3</v>
@@ -5734,10 +5696,10 @@
         <v>243.3</v>
       </c>
       <c r="F141" t="n">
-        <v>1472.8684</v>
+        <v>66198.8481</v>
       </c>
       <c r="G141" t="n">
-        <v>243.0733333333334</v>
+        <v>243.0500000000001</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5757,22 +5719,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>244.9</v>
+        <v>243.3</v>
       </c>
       <c r="C142" t="n">
-        <v>244.9</v>
+        <v>245.3</v>
       </c>
       <c r="D142" t="n">
-        <v>244.9</v>
+        <v>245.3</v>
       </c>
       <c r="E142" t="n">
-        <v>244.9</v>
+        <v>243.3</v>
       </c>
       <c r="F142" t="n">
-        <v>12499.6764</v>
+        <v>1472.8684</v>
       </c>
       <c r="G142" t="n">
-        <v>243.0916666666667</v>
+        <v>243.0733333333334</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5792,22 +5754,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>244.5</v>
+        <v>244.9</v>
       </c>
       <c r="C143" t="n">
-        <v>244.5</v>
+        <v>244.9</v>
       </c>
       <c r="D143" t="n">
-        <v>244.5</v>
+        <v>244.9</v>
       </c>
       <c r="E143" t="n">
-        <v>244.5</v>
+        <v>244.9</v>
       </c>
       <c r="F143" t="n">
-        <v>288.6013</v>
+        <v>12499.6764</v>
       </c>
       <c r="G143" t="n">
-        <v>243.1300000000001</v>
+        <v>243.0916666666667</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5839,10 +5801,10 @@
         <v>244.5</v>
       </c>
       <c r="F144" t="n">
-        <v>795.1008</v>
+        <v>288.6013</v>
       </c>
       <c r="G144" t="n">
-        <v>243.17</v>
+        <v>243.1300000000001</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5874,10 +5836,10 @@
         <v>244.5</v>
       </c>
       <c r="F145" t="n">
-        <v>84.84529999999999</v>
+        <v>795.1008</v>
       </c>
       <c r="G145" t="n">
-        <v>243.21</v>
+        <v>243.17</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5897,22 +5859,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>243.3</v>
+        <v>244.5</v>
       </c>
       <c r="C146" t="n">
-        <v>243.3</v>
+        <v>244.5</v>
       </c>
       <c r="D146" t="n">
-        <v>243.3</v>
+        <v>244.5</v>
       </c>
       <c r="E146" t="n">
-        <v>243.3</v>
+        <v>244.5</v>
       </c>
       <c r="F146" t="n">
-        <v>5000</v>
+        <v>84.84529999999999</v>
       </c>
       <c r="G146" t="n">
-        <v>243.2233333333334</v>
+        <v>243.21</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5944,10 +5906,10 @@
         <v>243.3</v>
       </c>
       <c r="F147" t="n">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="G147" t="n">
-        <v>243.2283333333334</v>
+        <v>243.2233333333334</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5979,10 +5941,10 @@
         <v>243.3</v>
       </c>
       <c r="F148" t="n">
-        <v>3991.5227</v>
+        <v>1000</v>
       </c>
       <c r="G148" t="n">
-        <v>243.2333333333333</v>
+        <v>243.2283333333334</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -6002,22 +5964,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>243.1</v>
+        <v>243.3</v>
       </c>
       <c r="C149" t="n">
-        <v>243.1</v>
+        <v>243.3</v>
       </c>
       <c r="D149" t="n">
-        <v>243.1</v>
+        <v>243.3</v>
       </c>
       <c r="E149" t="n">
-        <v>243.1</v>
+        <v>243.3</v>
       </c>
       <c r="F149" t="n">
-        <v>8.4773</v>
+        <v>3991.5227</v>
       </c>
       <c r="G149" t="n">
-        <v>243.2416666666667</v>
+        <v>243.2333333333333</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -6037,22 +5999,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>244.4</v>
+        <v>243.1</v>
       </c>
       <c r="C150" t="n">
-        <v>244.9</v>
+        <v>243.1</v>
       </c>
       <c r="D150" t="n">
-        <v>244.9</v>
+        <v>243.1</v>
       </c>
       <c r="E150" t="n">
-        <v>244.4</v>
+        <v>243.1</v>
       </c>
       <c r="F150" t="n">
-        <v>10339.822</v>
+        <v>8.4773</v>
       </c>
       <c r="G150" t="n">
-        <v>243.3066666666667</v>
+        <v>243.2416666666667</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -6072,22 +6034,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>245.1</v>
+        <v>244.4</v>
       </c>
       <c r="C151" t="n">
-        <v>245.1</v>
+        <v>244.9</v>
       </c>
       <c r="D151" t="n">
-        <v>245.1</v>
+        <v>244.9</v>
       </c>
       <c r="E151" t="n">
-        <v>245.1</v>
+        <v>244.4</v>
       </c>
       <c r="F151" t="n">
-        <v>443.4397</v>
+        <v>10339.822</v>
       </c>
       <c r="G151" t="n">
-        <v>243.3583333333333</v>
+        <v>243.3066666666667</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -6107,7 +6069,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>245</v>
+        <v>245.1</v>
       </c>
       <c r="C152" t="n">
         <v>245.1</v>
@@ -6116,13 +6078,13 @@
         <v>245.1</v>
       </c>
       <c r="E152" t="n">
-        <v>245</v>
+        <v>245.1</v>
       </c>
       <c r="F152" t="n">
-        <v>13017.2687</v>
+        <v>443.4397</v>
       </c>
       <c r="G152" t="n">
-        <v>243.42</v>
+        <v>243.3583333333333</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6145,19 +6107,19 @@
         <v>245</v>
       </c>
       <c r="C153" t="n">
-        <v>245</v>
+        <v>245.1</v>
       </c>
       <c r="D153" t="n">
-        <v>245</v>
+        <v>245.1</v>
       </c>
       <c r="E153" t="n">
         <v>245</v>
       </c>
       <c r="F153" t="n">
-        <v>539.1461</v>
+        <v>13017.2687</v>
       </c>
       <c r="G153" t="n">
-        <v>243.4816666666667</v>
+        <v>243.42</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6177,22 +6139,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>243.3</v>
+        <v>245</v>
       </c>
       <c r="C154" t="n">
-        <v>244.4</v>
+        <v>245</v>
       </c>
       <c r="D154" t="n">
-        <v>244.4</v>
+        <v>245</v>
       </c>
       <c r="E154" t="n">
-        <v>243.3</v>
+        <v>245</v>
       </c>
       <c r="F154" t="n">
-        <v>1877.3</v>
+        <v>539.1461</v>
       </c>
       <c r="G154" t="n">
-        <v>243.53</v>
+        <v>243.4816666666667</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6212,7 +6174,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>244.4</v>
+        <v>243.3</v>
       </c>
       <c r="C155" t="n">
         <v>244.4</v>
@@ -6221,13 +6183,13 @@
         <v>244.4</v>
       </c>
       <c r="E155" t="n">
-        <v>244.4</v>
+        <v>243.3</v>
       </c>
       <c r="F155" t="n">
-        <v>210.4389</v>
+        <v>1877.3</v>
       </c>
       <c r="G155" t="n">
-        <v>243.5783333333333</v>
+        <v>243.53</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6247,22 +6209,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>244</v>
+        <v>244.4</v>
       </c>
       <c r="C156" t="n">
-        <v>244</v>
+        <v>244.4</v>
       </c>
       <c r="D156" t="n">
-        <v>244</v>
+        <v>244.4</v>
       </c>
       <c r="E156" t="n">
-        <v>244</v>
+        <v>244.4</v>
       </c>
       <c r="F156" t="n">
-        <v>20</v>
+        <v>210.4389</v>
       </c>
       <c r="G156" t="n">
-        <v>243.62</v>
+        <v>243.5783333333333</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6294,10 +6256,10 @@
         <v>244</v>
       </c>
       <c r="F157" t="n">
-        <v>9621.3439</v>
+        <v>20</v>
       </c>
       <c r="G157" t="n">
-        <v>243.6683333333334</v>
+        <v>243.62</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6329,10 +6291,10 @@
         <v>244</v>
       </c>
       <c r="F158" t="n">
-        <v>2681.7112</v>
+        <v>9621.3439</v>
       </c>
       <c r="G158" t="n">
-        <v>243.71</v>
+        <v>243.6683333333334</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6352,22 +6314,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>243.3</v>
+        <v>244</v>
       </c>
       <c r="C159" t="n">
-        <v>243.3</v>
+        <v>244</v>
       </c>
       <c r="D159" t="n">
-        <v>243.3</v>
+        <v>244</v>
       </c>
       <c r="E159" t="n">
-        <v>243.3</v>
+        <v>244</v>
       </c>
       <c r="F159" t="n">
-        <v>90</v>
+        <v>2681.7112</v>
       </c>
       <c r="G159" t="n">
-        <v>243.7316666666667</v>
+        <v>243.71</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6399,10 +6361,10 @@
         <v>243.3</v>
       </c>
       <c r="F160" t="n">
-        <v>994.2135</v>
+        <v>90</v>
       </c>
       <c r="G160" t="n">
-        <v>243.6883333333333</v>
+        <v>243.7316666666667</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6422,22 +6384,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>243.9</v>
+        <v>243.3</v>
       </c>
       <c r="C161" t="n">
-        <v>243.9</v>
+        <v>243.3</v>
       </c>
       <c r="D161" t="n">
-        <v>243.9</v>
+        <v>243.3</v>
       </c>
       <c r="E161" t="n">
-        <v>243.9</v>
+        <v>243.3</v>
       </c>
       <c r="F161" t="n">
-        <v>500</v>
+        <v>994.2135</v>
       </c>
       <c r="G161" t="n">
-        <v>243.69</v>
+        <v>243.6883333333333</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6460,19 +6422,19 @@
         <v>243.9</v>
       </c>
       <c r="C162" t="n">
-        <v>244</v>
+        <v>243.9</v>
       </c>
       <c r="D162" t="n">
-        <v>244</v>
+        <v>243.9</v>
       </c>
       <c r="E162" t="n">
         <v>243.9</v>
       </c>
       <c r="F162" t="n">
-        <v>15291.3501</v>
+        <v>500</v>
       </c>
       <c r="G162" t="n">
-        <v>243.7233333333333</v>
+        <v>243.69</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6492,22 +6454,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>243.5</v>
+        <v>243.9</v>
       </c>
       <c r="C163" t="n">
-        <v>243.5</v>
+        <v>244</v>
       </c>
       <c r="D163" t="n">
-        <v>243.5</v>
+        <v>244</v>
       </c>
       <c r="E163" t="n">
-        <v>243.5</v>
+        <v>243.9</v>
       </c>
       <c r="F163" t="n">
-        <v>1881.3739</v>
+        <v>15291.3501</v>
       </c>
       <c r="G163" t="n">
-        <v>243.7483333333333</v>
+        <v>243.7233333333333</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6527,22 +6489,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>243.3</v>
+        <v>243.5</v>
       </c>
       <c r="C164" t="n">
-        <v>243.3</v>
+        <v>243.5</v>
       </c>
       <c r="D164" t="n">
-        <v>243.3</v>
+        <v>243.5</v>
       </c>
       <c r="E164" t="n">
-        <v>243.3</v>
+        <v>243.5</v>
       </c>
       <c r="F164" t="n">
-        <v>1674.7831</v>
+        <v>1881.3739</v>
       </c>
       <c r="G164" t="n">
-        <v>243.77</v>
+        <v>243.7483333333333</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6562,22 +6524,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>244</v>
+        <v>243.3</v>
       </c>
       <c r="C165" t="n">
-        <v>244</v>
+        <v>243.3</v>
       </c>
       <c r="D165" t="n">
-        <v>244</v>
+        <v>243.3</v>
       </c>
       <c r="E165" t="n">
-        <v>244</v>
+        <v>243.3</v>
       </c>
       <c r="F165" t="n">
-        <v>22</v>
+        <v>1674.7831</v>
       </c>
       <c r="G165" t="n">
-        <v>243.8033333333333</v>
+        <v>243.77</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6597,22 +6559,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>243.3</v>
+        <v>244</v>
       </c>
       <c r="C166" t="n">
-        <v>243.4</v>
+        <v>244</v>
       </c>
       <c r="D166" t="n">
-        <v>243.4</v>
+        <v>244</v>
       </c>
       <c r="E166" t="n">
-        <v>243.3</v>
+        <v>244</v>
       </c>
       <c r="F166" t="n">
-        <v>1937</v>
+        <v>22</v>
       </c>
       <c r="G166" t="n">
-        <v>243.8266666666667</v>
+        <v>243.8033333333333</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6632,7 +6594,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>243.4</v>
+        <v>243.3</v>
       </c>
       <c r="C167" t="n">
         <v>243.4</v>
@@ -6641,13 +6603,13 @@
         <v>243.4</v>
       </c>
       <c r="E167" t="n">
-        <v>243.4</v>
+        <v>243.3</v>
       </c>
       <c r="F167" t="n">
-        <v>200</v>
+        <v>1937</v>
       </c>
       <c r="G167" t="n">
-        <v>243.85</v>
+        <v>243.8266666666667</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6670,19 +6632,19 @@
         <v>243.4</v>
       </c>
       <c r="C168" t="n">
-        <v>243.3</v>
+        <v>243.4</v>
       </c>
       <c r="D168" t="n">
         <v>243.4</v>
       </c>
       <c r="E168" t="n">
-        <v>243.3</v>
+        <v>243.4</v>
       </c>
       <c r="F168" t="n">
-        <v>968</v>
+        <v>200</v>
       </c>
       <c r="G168" t="n">
-        <v>243.8783333333333</v>
+        <v>243.85</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6702,22 +6664,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>243.5</v>
+        <v>243.4</v>
       </c>
       <c r="C169" t="n">
-        <v>243.5</v>
+        <v>243.3</v>
       </c>
       <c r="D169" t="n">
-        <v>243.5</v>
+        <v>243.4</v>
       </c>
       <c r="E169" t="n">
-        <v>243.5</v>
+        <v>243.3</v>
       </c>
       <c r="F169" t="n">
-        <v>2500</v>
+        <v>968</v>
       </c>
       <c r="G169" t="n">
-        <v>243.88</v>
+        <v>243.8783333333333</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6749,10 +6711,10 @@
         <v>243.5</v>
       </c>
       <c r="F170" t="n">
-        <v>483</v>
+        <v>2500</v>
       </c>
       <c r="G170" t="n">
-        <v>243.8883333333333</v>
+        <v>243.88</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6775,19 +6737,19 @@
         <v>243.5</v>
       </c>
       <c r="C171" t="n">
-        <v>244</v>
+        <v>243.5</v>
       </c>
       <c r="D171" t="n">
-        <v>244</v>
+        <v>243.5</v>
       </c>
       <c r="E171" t="n">
         <v>243.5</v>
       </c>
       <c r="F171" t="n">
-        <v>847.1092</v>
+        <v>483</v>
       </c>
       <c r="G171" t="n">
-        <v>243.9033333333333</v>
+        <v>243.8883333333333</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6807,22 +6769,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
+        <v>243.5</v>
+      </c>
+      <c r="C172" t="n">
         <v>244</v>
-      </c>
-      <c r="C172" t="n">
-        <v>243.6</v>
       </c>
       <c r="D172" t="n">
         <v>244</v>
       </c>
       <c r="E172" t="n">
-        <v>243.6</v>
+        <v>243.5</v>
       </c>
       <c r="F172" t="n">
-        <v>904.7078</v>
+        <v>847.1092</v>
       </c>
       <c r="G172" t="n">
-        <v>243.9116666666666</v>
+        <v>243.9033333333333</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6842,22 +6804,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>243.6</v>
+        <v>244</v>
       </c>
       <c r="C173" t="n">
         <v>243.6</v>
       </c>
       <c r="D173" t="n">
-        <v>243.6</v>
+        <v>244</v>
       </c>
       <c r="E173" t="n">
         <v>243.6</v>
       </c>
       <c r="F173" t="n">
-        <v>41</v>
+        <v>904.7078</v>
       </c>
       <c r="G173" t="n">
-        <v>243.8716666666666</v>
+        <v>243.9116666666666</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6877,19 +6839,19 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>244</v>
+        <v>243.6</v>
       </c>
       <c r="C174" t="n">
-        <v>244</v>
+        <v>243.6</v>
       </c>
       <c r="D174" t="n">
-        <v>244</v>
+        <v>243.6</v>
       </c>
       <c r="E174" t="n">
-        <v>244</v>
+        <v>243.6</v>
       </c>
       <c r="F174" t="n">
-        <v>0.0001</v>
+        <v>41</v>
       </c>
       <c r="G174" t="n">
         <v>243.8716666666666</v>
@@ -6912,22 +6874,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C175" t="n">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D175" t="n">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E175" t="n">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F175" t="n">
-        <v>592</v>
+        <v>0.0001</v>
       </c>
       <c r="G175" t="n">
-        <v>243.9166666666666</v>
+        <v>243.8716666666666</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6959,10 +6921,10 @@
         <v>245</v>
       </c>
       <c r="F176" t="n">
-        <v>1443.727</v>
+        <v>592</v>
       </c>
       <c r="G176" t="n">
-        <v>243.9299999999999</v>
+        <v>243.9166666666666</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6982,22 +6944,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>245.1</v>
+        <v>245</v>
       </c>
       <c r="C177" t="n">
-        <v>245.1</v>
+        <v>245</v>
       </c>
       <c r="D177" t="n">
-        <v>245.1</v>
+        <v>245</v>
       </c>
       <c r="E177" t="n">
-        <v>245.1</v>
+        <v>245</v>
       </c>
       <c r="F177" t="n">
-        <v>135.5706</v>
+        <v>1443.727</v>
       </c>
       <c r="G177" t="n">
-        <v>243.9766666666666</v>
+        <v>243.9299999999999</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -7017,22 +6979,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>244</v>
+        <v>245.1</v>
       </c>
       <c r="C178" t="n">
-        <v>243.4</v>
+        <v>245.1</v>
       </c>
       <c r="D178" t="n">
-        <v>244</v>
+        <v>245.1</v>
       </c>
       <c r="E178" t="n">
-        <v>243.4</v>
+        <v>245.1</v>
       </c>
       <c r="F178" t="n">
-        <v>9990.688899999999</v>
+        <v>135.5706</v>
       </c>
       <c r="G178" t="n">
-        <v>243.9216666666666</v>
+        <v>243.9766666666666</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -7052,22 +7014,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>244.7</v>
+        <v>244</v>
       </c>
       <c r="C179" t="n">
-        <v>244.7</v>
+        <v>243.4</v>
       </c>
       <c r="D179" t="n">
-        <v>244.7</v>
+        <v>244</v>
       </c>
       <c r="E179" t="n">
-        <v>244.7</v>
+        <v>243.4</v>
       </c>
       <c r="F179" t="n">
-        <v>10</v>
+        <v>9990.688899999999</v>
       </c>
       <c r="G179" t="n">
-        <v>243.8883333333333</v>
+        <v>243.9216666666666</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -7087,22 +7049,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>244.6</v>
+        <v>244.7</v>
       </c>
       <c r="C180" t="n">
-        <v>243.7</v>
+        <v>244.7</v>
       </c>
       <c r="D180" t="n">
-        <v>244.6</v>
+        <v>244.7</v>
       </c>
       <c r="E180" t="n">
-        <v>243.7</v>
+        <v>244.7</v>
       </c>
       <c r="F180" t="n">
-        <v>3000.6361</v>
+        <v>10</v>
       </c>
       <c r="G180" t="n">
-        <v>243.8383333333333</v>
+        <v>243.8883333333333</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -7122,22 +7084,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>245.1</v>
+        <v>244.6</v>
       </c>
       <c r="C181" t="n">
-        <v>245.8</v>
+        <v>243.7</v>
       </c>
       <c r="D181" t="n">
-        <v>245.8</v>
+        <v>244.6</v>
       </c>
       <c r="E181" t="n">
-        <v>245.1</v>
+        <v>243.7</v>
       </c>
       <c r="F181" t="n">
-        <v>200</v>
+        <v>3000.6361</v>
       </c>
       <c r="G181" t="n">
-        <v>243.8849999999999</v>
+        <v>243.8383333333333</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -7157,7 +7119,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>245.8</v>
+        <v>245.1</v>
       </c>
       <c r="C182" t="n">
         <v>245.8</v>
@@ -7166,13 +7128,13 @@
         <v>245.8</v>
       </c>
       <c r="E182" t="n">
-        <v>244.9</v>
+        <v>245.1</v>
       </c>
       <c r="F182" t="n">
-        <v>1017.1212</v>
+        <v>200</v>
       </c>
       <c r="G182" t="n">
-        <v>243.9399999999999</v>
+        <v>243.8849999999999</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -7192,22 +7154,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>244.6</v>
+        <v>245.8</v>
       </c>
       <c r="C183" t="n">
-        <v>244.6</v>
+        <v>245.8</v>
       </c>
       <c r="D183" t="n">
-        <v>244.6</v>
+        <v>245.8</v>
       </c>
       <c r="E183" t="n">
-        <v>244.6</v>
+        <v>244.9</v>
       </c>
       <c r="F183" t="n">
-        <v>7</v>
+        <v>1017.1212</v>
       </c>
       <c r="G183" t="n">
-        <v>243.9799999999999</v>
+        <v>243.9399999999999</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -7227,22 +7189,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>246</v>
+        <v>244.6</v>
       </c>
       <c r="C184" t="n">
-        <v>246</v>
+        <v>244.6</v>
       </c>
       <c r="D184" t="n">
-        <v>246</v>
+        <v>244.6</v>
       </c>
       <c r="E184" t="n">
-        <v>246</v>
+        <v>244.6</v>
       </c>
       <c r="F184" t="n">
-        <v>2.0326</v>
+        <v>7</v>
       </c>
       <c r="G184" t="n">
-        <v>244.0433333333332</v>
+        <v>243.9799999999999</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7265,19 +7227,19 @@
         <v>246</v>
       </c>
       <c r="C185" t="n">
-        <v>246.1</v>
+        <v>246</v>
       </c>
       <c r="D185" t="n">
-        <v>246.1</v>
+        <v>246</v>
       </c>
       <c r="E185" t="n">
         <v>246</v>
       </c>
       <c r="F185" t="n">
-        <v>100</v>
+        <v>2.0326</v>
       </c>
       <c r="G185" t="n">
-        <v>244.0866666666666</v>
+        <v>244.0433333333332</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7297,22 +7259,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
+        <v>246</v>
+      </c>
+      <c r="C186" t="n">
         <v>246.1</v>
       </c>
-      <c r="C186" t="n">
-        <v>246.5</v>
-      </c>
       <c r="D186" t="n">
-        <v>246.5</v>
+        <v>246.1</v>
       </c>
       <c r="E186" t="n">
-        <v>246.1</v>
+        <v>246</v>
       </c>
       <c r="F186" t="n">
-        <v>7153.2601</v>
+        <v>100</v>
       </c>
       <c r="G186" t="n">
-        <v>244.1583333333332</v>
+        <v>244.0866666666666</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7332,22 +7294,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
+        <v>246.1</v>
+      </c>
+      <c r="C187" t="n">
         <v>246.5</v>
       </c>
-      <c r="C187" t="n">
-        <v>247.9</v>
-      </c>
       <c r="D187" t="n">
-        <v>247.9</v>
+        <v>246.5</v>
       </c>
       <c r="E187" t="n">
-        <v>246.5</v>
+        <v>246.1</v>
       </c>
       <c r="F187" t="n">
-        <v>11681.62438493</v>
+        <v>7153.2601</v>
       </c>
       <c r="G187" t="n">
-        <v>244.2533333333332</v>
+        <v>244.1583333333332</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7367,22 +7329,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>246</v>
+        <v>246.5</v>
       </c>
       <c r="C188" t="n">
-        <v>245.9</v>
+        <v>247.9</v>
       </c>
       <c r="D188" t="n">
-        <v>246</v>
+        <v>247.9</v>
       </c>
       <c r="E188" t="n">
-        <v>245.9</v>
+        <v>246.5</v>
       </c>
       <c r="F188" t="n">
-        <v>764.5564000000001</v>
+        <v>11681.62438493</v>
       </c>
       <c r="G188" t="n">
-        <v>244.3149999999999</v>
+        <v>244.2533333333332</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7402,22 +7364,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>247.3</v>
+        <v>246</v>
       </c>
       <c r="C189" t="n">
-        <v>247.1</v>
+        <v>245.9</v>
       </c>
       <c r="D189" t="n">
-        <v>247.4</v>
+        <v>246</v>
       </c>
       <c r="E189" t="n">
-        <v>247.1</v>
+        <v>245.9</v>
       </c>
       <c r="F189" t="n">
-        <v>2073.6321</v>
+        <v>764.5564000000001</v>
       </c>
       <c r="G189" t="n">
-        <v>244.3966666666665</v>
+        <v>244.3149999999999</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7437,10 +7399,10 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
+        <v>247.3</v>
+      </c>
+      <c r="C190" t="n">
         <v>247.1</v>
-      </c>
-      <c r="C190" t="n">
-        <v>247.4</v>
       </c>
       <c r="D190" t="n">
         <v>247.4</v>
@@ -7449,10 +7411,10 @@
         <v>247.1</v>
       </c>
       <c r="F190" t="n">
-        <v>1430.1929</v>
+        <v>2073.6321</v>
       </c>
       <c r="G190" t="n">
-        <v>244.4549999999999</v>
+        <v>244.3966666666665</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7472,7 +7434,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>246.5</v>
+        <v>247.1</v>
       </c>
       <c r="C191" t="n">
         <v>247.4</v>
@@ -7481,13 +7443,13 @@
         <v>247.4</v>
       </c>
       <c r="E191" t="n">
-        <v>246.5</v>
+        <v>247.1</v>
       </c>
       <c r="F191" t="n">
-        <v>194.3423</v>
+        <v>1430.1929</v>
       </c>
       <c r="G191" t="n">
-        <v>244.4816666666665</v>
+        <v>244.4549999999999</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7507,7 +7469,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>247.4</v>
+        <v>246.5</v>
       </c>
       <c r="C192" t="n">
         <v>247.4</v>
@@ -7516,13 +7478,13 @@
         <v>247.4</v>
       </c>
       <c r="E192" t="n">
-        <v>247.4</v>
+        <v>246.5</v>
       </c>
       <c r="F192" t="n">
-        <v>2375.8233</v>
+        <v>194.3423</v>
       </c>
       <c r="G192" t="n">
-        <v>244.5516666666665</v>
+        <v>244.4816666666665</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7545,19 +7507,19 @@
         <v>247.4</v>
       </c>
       <c r="C193" t="n">
-        <v>246.4</v>
+        <v>247.4</v>
       </c>
       <c r="D193" t="n">
         <v>247.4</v>
       </c>
       <c r="E193" t="n">
-        <v>246.4</v>
+        <v>247.4</v>
       </c>
       <c r="F193" t="n">
-        <v>2921.9485</v>
+        <v>2375.8233</v>
       </c>
       <c r="G193" t="n">
-        <v>244.5666666666665</v>
+        <v>244.5516666666665</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7577,22 +7539,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>246.2</v>
+        <v>247.4</v>
       </c>
       <c r="C194" t="n">
-        <v>246.2</v>
+        <v>246.4</v>
       </c>
       <c r="D194" t="n">
-        <v>246.2</v>
+        <v>247.4</v>
       </c>
       <c r="E194" t="n">
-        <v>246.2</v>
+        <v>246.4</v>
       </c>
       <c r="F194" t="n">
-        <v>1181</v>
+        <v>2921.9485</v>
       </c>
       <c r="G194" t="n">
-        <v>244.6033333333332</v>
+        <v>244.5666666666665</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7624,10 +7586,10 @@
         <v>246.2</v>
       </c>
       <c r="F195" t="n">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="G195" t="n">
-        <v>244.6133333333332</v>
+        <v>244.6033333333332</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7647,22 +7609,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>247.1</v>
+        <v>246.2</v>
       </c>
       <c r="C196" t="n">
-        <v>247.2</v>
+        <v>246.2</v>
       </c>
       <c r="D196" t="n">
-        <v>247.2</v>
+        <v>246.2</v>
       </c>
       <c r="E196" t="n">
-        <v>247.1</v>
+        <v>246.2</v>
       </c>
       <c r="F196" t="n">
-        <v>4077.2278</v>
+        <v>1182</v>
       </c>
       <c r="G196" t="n">
-        <v>244.6666666666665</v>
+        <v>244.6133333333332</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7682,22 +7644,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>246.9</v>
+        <v>247.1</v>
       </c>
       <c r="C197" t="n">
-        <v>247</v>
+        <v>247.2</v>
       </c>
       <c r="D197" t="n">
-        <v>247</v>
+        <v>247.2</v>
       </c>
       <c r="E197" t="n">
-        <v>246.9</v>
+        <v>247.1</v>
       </c>
       <c r="F197" t="n">
-        <v>3230.7894</v>
+        <v>4077.2278</v>
       </c>
       <c r="G197" t="n">
-        <v>244.7166666666666</v>
+        <v>244.6666666666665</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7729,10 +7691,10 @@
         <v>246.9</v>
       </c>
       <c r="F198" t="n">
-        <v>3060.7204</v>
+        <v>3230.7894</v>
       </c>
       <c r="G198" t="n">
-        <v>244.7816666666666</v>
+        <v>244.7166666666666</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7752,22 +7714,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
+        <v>246.9</v>
+      </c>
+      <c r="C199" t="n">
         <v>247</v>
       </c>
-      <c r="C199" t="n">
-        <v>247.4</v>
-      </c>
       <c r="D199" t="n">
-        <v>247.4</v>
+        <v>247</v>
       </c>
       <c r="E199" t="n">
-        <v>247</v>
+        <v>246.9</v>
       </c>
       <c r="F199" t="n">
-        <v>4579.9972</v>
+        <v>3060.7204</v>
       </c>
       <c r="G199" t="n">
-        <v>244.8449999999999</v>
+        <v>244.7816666666666</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7787,22 +7749,22 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>247.5</v>
+        <v>247</v>
       </c>
       <c r="C200" t="n">
-        <v>247.6</v>
+        <v>247.4</v>
       </c>
       <c r="D200" t="n">
-        <v>247.6</v>
+        <v>247.4</v>
       </c>
       <c r="E200" t="n">
-        <v>247.5</v>
+        <v>247</v>
       </c>
       <c r="F200" t="n">
-        <v>4359.532</v>
+        <v>4579.9972</v>
       </c>
       <c r="G200" t="n">
-        <v>244.9166666666665</v>
+        <v>244.8449999999999</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7822,7 +7784,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>247.6</v>
+        <v>247.5</v>
       </c>
       <c r="C201" t="n">
         <v>247.6</v>
@@ -7831,13 +7793,13 @@
         <v>247.6</v>
       </c>
       <c r="E201" t="n">
-        <v>247.6</v>
+        <v>247.5</v>
       </c>
       <c r="F201" t="n">
-        <v>166.8927</v>
+        <v>4359.532</v>
       </c>
       <c r="G201" t="n">
-        <v>244.9549999999999</v>
+        <v>244.9166666666665</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7857,22 +7819,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>247.7</v>
+        <v>247.6</v>
       </c>
       <c r="C202" t="n">
         <v>247.6</v>
       </c>
       <c r="D202" t="n">
-        <v>247.7</v>
+        <v>247.6</v>
       </c>
       <c r="E202" t="n">
         <v>247.6</v>
       </c>
       <c r="F202" t="n">
-        <v>265.2693</v>
+        <v>166.8927</v>
       </c>
       <c r="G202" t="n">
-        <v>244.9999999999999</v>
+        <v>244.9549999999999</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7892,22 +7854,22 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>247.6</v>
+        <v>247.7</v>
       </c>
       <c r="C203" t="n">
         <v>247.6</v>
       </c>
       <c r="D203" t="n">
-        <v>247.6</v>
+        <v>247.7</v>
       </c>
       <c r="E203" t="n">
         <v>247.6</v>
       </c>
       <c r="F203" t="n">
-        <v>3.8</v>
+        <v>265.2693</v>
       </c>
       <c r="G203" t="n">
-        <v>245.0516666666666</v>
+        <v>244.9999999999999</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7939,10 +7901,10 @@
         <v>247.6</v>
       </c>
       <c r="F204" t="n">
-        <v>4741.3181</v>
+        <v>3.8</v>
       </c>
       <c r="G204" t="n">
-        <v>245.1033333333333</v>
+        <v>245.0516666666666</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7974,10 +7936,10 @@
         <v>247.6</v>
       </c>
       <c r="F205" t="n">
-        <v>5320.6479</v>
+        <v>4741.3181</v>
       </c>
       <c r="G205" t="n">
-        <v>245.1549999999999</v>
+        <v>245.1033333333333</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7997,22 +7959,22 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>247.1</v>
+        <v>247.6</v>
       </c>
       <c r="C206" t="n">
-        <v>246.5</v>
+        <v>247.6</v>
       </c>
       <c r="D206" t="n">
-        <v>247.1</v>
+        <v>247.6</v>
       </c>
       <c r="E206" t="n">
-        <v>246.5</v>
+        <v>247.6</v>
       </c>
       <c r="F206" t="n">
-        <v>2617.1307</v>
+        <v>5320.6479</v>
       </c>
       <c r="G206" t="n">
-        <v>245.2083333333333</v>
+        <v>245.1549999999999</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -8032,22 +7994,22 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>246.8</v>
+        <v>247.1</v>
       </c>
       <c r="C207" t="n">
-        <v>246.8</v>
+        <v>246.5</v>
       </c>
       <c r="D207" t="n">
-        <v>246.8</v>
+        <v>247.1</v>
       </c>
       <c r="E207" t="n">
-        <v>246.8</v>
+        <v>246.5</v>
       </c>
       <c r="F207" t="n">
-        <v>477</v>
+        <v>2617.1307</v>
       </c>
       <c r="G207" t="n">
-        <v>245.2666666666666</v>
+        <v>245.2083333333333</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -8067,22 +8029,22 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>247.8</v>
+        <v>246.8</v>
       </c>
       <c r="C208" t="n">
-        <v>248</v>
+        <v>246.8</v>
       </c>
       <c r="D208" t="n">
-        <v>248</v>
+        <v>246.8</v>
       </c>
       <c r="E208" t="n">
-        <v>247.8</v>
+        <v>246.8</v>
       </c>
       <c r="F208" t="n">
-        <v>3478.93185483</v>
+        <v>477</v>
       </c>
       <c r="G208" t="n">
-        <v>245.3449999999999</v>
+        <v>245.2666666666666</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -8102,22 +8064,22 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
+        <v>247.8</v>
+      </c>
+      <c r="C209" t="n">
         <v>248</v>
       </c>
-      <c r="C209" t="n">
-        <v>248.4</v>
-      </c>
       <c r="D209" t="n">
-        <v>248.4</v>
+        <v>248</v>
       </c>
       <c r="E209" t="n">
-        <v>248</v>
+        <v>247.8</v>
       </c>
       <c r="F209" t="n">
-        <v>4563.55707479</v>
+        <v>3478.93185483</v>
       </c>
       <c r="G209" t="n">
-        <v>245.4333333333333</v>
+        <v>245.3449999999999</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -8137,22 +8099,22 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C210" t="n">
-        <v>246</v>
+        <v>248.4</v>
       </c>
       <c r="D210" t="n">
-        <v>247</v>
+        <v>248.4</v>
       </c>
       <c r="E210" t="n">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F210" t="n">
-        <v>355</v>
+        <v>4563.55707479</v>
       </c>
       <c r="G210" t="n">
-        <v>245.4516666666666</v>
+        <v>245.4333333333333</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -8172,22 +8134,22 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>246.1</v>
+        <v>247</v>
       </c>
       <c r="C211" t="n">
-        <v>246.1</v>
+        <v>246</v>
       </c>
       <c r="D211" t="n">
-        <v>246.1</v>
+        <v>247</v>
       </c>
       <c r="E211" t="n">
-        <v>246.1</v>
+        <v>246</v>
       </c>
       <c r="F211" t="n">
-        <v>178</v>
+        <v>355</v>
       </c>
       <c r="G211" t="n">
-        <v>245.4683333333333</v>
+        <v>245.4516666666666</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -8207,22 +8169,22 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>246.5</v>
+        <v>246.1</v>
       </c>
       <c r="C212" t="n">
-        <v>246.5</v>
+        <v>246.1</v>
       </c>
       <c r="D212" t="n">
-        <v>246.5</v>
+        <v>246.1</v>
       </c>
       <c r="E212" t="n">
-        <v>246.5</v>
+        <v>246.1</v>
       </c>
       <c r="F212" t="n">
-        <v>847</v>
+        <v>178</v>
       </c>
       <c r="G212" t="n">
-        <v>245.4916666666666</v>
+        <v>245.4683333333333</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -8248,16 +8210,16 @@
         <v>246.5</v>
       </c>
       <c r="D213" t="n">
-        <v>248.8</v>
+        <v>246.5</v>
       </c>
       <c r="E213" t="n">
         <v>246.5</v>
       </c>
       <c r="F213" t="n">
-        <v>8508.400201119999</v>
+        <v>847</v>
       </c>
       <c r="G213" t="n">
-        <v>245.5166666666666</v>
+        <v>245.4916666666666</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -8283,16 +8245,16 @@
         <v>246.5</v>
       </c>
       <c r="D214" t="n">
-        <v>246.5</v>
+        <v>248.8</v>
       </c>
       <c r="E214" t="n">
         <v>246.5</v>
       </c>
       <c r="F214" t="n">
-        <v>2086.9999</v>
+        <v>8508.400201119999</v>
       </c>
       <c r="G214" t="n">
-        <v>245.5516666666666</v>
+        <v>245.5166666666666</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -8324,10 +8286,10 @@
         <v>246.5</v>
       </c>
       <c r="F215" t="n">
-        <v>928</v>
+        <v>2086.9999</v>
       </c>
       <c r="G215" t="n">
-        <v>245.5866666666666</v>
+        <v>245.5516666666666</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -8347,22 +8309,22 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>246.6</v>
+        <v>246.5</v>
       </c>
       <c r="C216" t="n">
-        <v>246.6</v>
+        <v>246.5</v>
       </c>
       <c r="D216" t="n">
-        <v>246.6</v>
+        <v>246.5</v>
       </c>
       <c r="E216" t="n">
-        <v>246.6</v>
+        <v>246.5</v>
       </c>
       <c r="F216" t="n">
-        <v>911</v>
+        <v>928</v>
       </c>
       <c r="G216" t="n">
-        <v>245.63</v>
+        <v>245.5866666666666</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -8382,22 +8344,22 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>246.5</v>
+        <v>246.6</v>
       </c>
       <c r="C217" t="n">
-        <v>246.5</v>
+        <v>246.6</v>
       </c>
       <c r="D217" t="n">
-        <v>246.5</v>
+        <v>246.6</v>
       </c>
       <c r="E217" t="n">
-        <v>246.5</v>
+        <v>246.6</v>
       </c>
       <c r="F217" t="n">
-        <v>146.9999</v>
+        <v>911</v>
       </c>
       <c r="G217" t="n">
-        <v>245.6716666666666</v>
+        <v>245.63</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8420,19 +8382,19 @@
         <v>246.5</v>
       </c>
       <c r="C218" t="n">
-        <v>246.4</v>
+        <v>246.5</v>
       </c>
       <c r="D218" t="n">
         <v>246.5</v>
       </c>
       <c r="E218" t="n">
-        <v>246.4</v>
+        <v>246.5</v>
       </c>
       <c r="F218" t="n">
-        <v>4333.7521</v>
+        <v>146.9999</v>
       </c>
       <c r="G218" t="n">
-        <v>245.7116666666666</v>
+        <v>245.6716666666666</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8464,10 +8426,10 @@
         <v>246.4</v>
       </c>
       <c r="F219" t="n">
-        <v>608.9263999999999</v>
+        <v>4333.7521</v>
       </c>
       <c r="G219" t="n">
-        <v>245.7633333333333</v>
+        <v>245.7116666666666</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8487,22 +8449,22 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>246.4</v>
+        <v>246.5</v>
       </c>
       <c r="C220" t="n">
         <v>246.4</v>
       </c>
       <c r="D220" t="n">
-        <v>246.4</v>
+        <v>246.5</v>
       </c>
       <c r="E220" t="n">
         <v>246.4</v>
       </c>
       <c r="F220" t="n">
-        <v>2180.0107</v>
+        <v>608.9263999999999</v>
       </c>
       <c r="G220" t="n">
-        <v>245.815</v>
+        <v>245.7633333333333</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8522,22 +8484,22 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>246.3</v>
+        <v>246.4</v>
       </c>
       <c r="C221" t="n">
-        <v>246.3</v>
+        <v>246.4</v>
       </c>
       <c r="D221" t="n">
-        <v>246.3</v>
+        <v>246.4</v>
       </c>
       <c r="E221" t="n">
-        <v>246.3</v>
+        <v>246.4</v>
       </c>
       <c r="F221" t="n">
-        <v>2558</v>
+        <v>2180.0107</v>
       </c>
       <c r="G221" t="n">
-        <v>245.855</v>
+        <v>245.815</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8557,22 +8519,22 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>246.2</v>
+        <v>246.3</v>
       </c>
       <c r="C222" t="n">
-        <v>246</v>
+        <v>246.3</v>
       </c>
       <c r="D222" t="n">
-        <v>246.2</v>
+        <v>246.3</v>
       </c>
       <c r="E222" t="n">
-        <v>246</v>
+        <v>246.3</v>
       </c>
       <c r="F222" t="n">
-        <v>8859.033600000001</v>
+        <v>2558</v>
       </c>
       <c r="G222" t="n">
-        <v>245.8883333333333</v>
+        <v>245.855</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8592,22 +8554,22 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>247.7</v>
+        <v>246.2</v>
       </c>
       <c r="C223" t="n">
-        <v>247.7</v>
+        <v>246</v>
       </c>
       <c r="D223" t="n">
-        <v>247.7</v>
+        <v>246.2</v>
       </c>
       <c r="E223" t="n">
-        <v>247.7</v>
+        <v>246</v>
       </c>
       <c r="F223" t="n">
-        <v>765.4568</v>
+        <v>8859.033600000001</v>
       </c>
       <c r="G223" t="n">
-        <v>245.9583333333333</v>
+        <v>245.8883333333333</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8627,22 +8589,22 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>245.9</v>
+        <v>247.7</v>
       </c>
       <c r="C224" t="n">
-        <v>246</v>
+        <v>247.7</v>
       </c>
       <c r="D224" t="n">
-        <v>246</v>
+        <v>247.7</v>
       </c>
       <c r="E224" t="n">
-        <v>245.9</v>
+        <v>247.7</v>
       </c>
       <c r="F224" t="n">
-        <v>2866.3735</v>
+        <v>765.4568</v>
       </c>
       <c r="G224" t="n">
-        <v>246.0033333333333</v>
+        <v>245.9583333333333</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8662,22 +8624,22 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>247.8</v>
+        <v>245.9</v>
       </c>
       <c r="C225" t="n">
-        <v>247.8</v>
+        <v>246</v>
       </c>
       <c r="D225" t="n">
-        <v>247.8</v>
+        <v>246</v>
       </c>
       <c r="E225" t="n">
-        <v>247.8</v>
+        <v>245.9</v>
       </c>
       <c r="F225" t="n">
-        <v>468.11945117</v>
+        <v>2866.3735</v>
       </c>
       <c r="G225" t="n">
-        <v>246.0666666666666</v>
+        <v>246.0033333333333</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8709,10 +8671,10 @@
         <v>247.8</v>
       </c>
       <c r="F226" t="n">
-        <v>8050.89604883</v>
+        <v>468.11945117</v>
       </c>
       <c r="G226" t="n">
-        <v>246.14</v>
+        <v>246.0666666666666</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8732,22 +8694,22 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>247.9</v>
+        <v>247.8</v>
       </c>
       <c r="C227" t="n">
-        <v>249</v>
+        <v>247.8</v>
       </c>
       <c r="D227" t="n">
-        <v>249</v>
+        <v>247.8</v>
       </c>
       <c r="E227" t="n">
-        <v>247.9</v>
+        <v>247.8</v>
       </c>
       <c r="F227" t="n">
-        <v>8802.523766259999</v>
+        <v>8050.89604883</v>
       </c>
       <c r="G227" t="n">
-        <v>246.2333333333333</v>
+        <v>246.14</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8767,22 +8729,22 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>247.8</v>
+        <v>247.9</v>
       </c>
       <c r="C228" t="n">
-        <v>247.8</v>
+        <v>249</v>
       </c>
       <c r="D228" t="n">
-        <v>247.8</v>
+        <v>249</v>
       </c>
       <c r="E228" t="n">
-        <v>247.8</v>
+        <v>247.9</v>
       </c>
       <c r="F228" t="n">
-        <v>5.117e-05</v>
+        <v>8802.523766259999</v>
       </c>
       <c r="G228" t="n">
-        <v>246.3083333333333</v>
+        <v>246.2333333333333</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8802,22 +8764,22 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>246</v>
+        <v>247.8</v>
       </c>
       <c r="C229" t="n">
-        <v>246</v>
+        <v>247.8</v>
       </c>
       <c r="D229" t="n">
-        <v>246</v>
+        <v>247.8</v>
       </c>
       <c r="E229" t="n">
-        <v>246</v>
+        <v>247.8</v>
       </c>
       <c r="F229" t="n">
-        <v>1245.3062</v>
+        <v>5.117e-05</v>
       </c>
       <c r="G229" t="n">
-        <v>246.35</v>
+        <v>246.3083333333333</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8837,22 +8799,22 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>246.8</v>
+        <v>246</v>
       </c>
       <c r="C230" t="n">
-        <v>246.8</v>
+        <v>246</v>
       </c>
       <c r="D230" t="n">
-        <v>246.8</v>
+        <v>246</v>
       </c>
       <c r="E230" t="n">
-        <v>246.8</v>
+        <v>246</v>
       </c>
       <c r="F230" t="n">
-        <v>404.1758</v>
+        <v>1245.3062</v>
       </c>
       <c r="G230" t="n">
-        <v>246.4049999999999</v>
+        <v>246.35</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -8872,22 +8834,22 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>247.3</v>
+        <v>246.8</v>
       </c>
       <c r="C231" t="n">
-        <v>247.3</v>
+        <v>246.8</v>
       </c>
       <c r="D231" t="n">
-        <v>247.5</v>
+        <v>246.8</v>
       </c>
       <c r="E231" t="n">
-        <v>247.3</v>
+        <v>246.8</v>
       </c>
       <c r="F231" t="n">
-        <v>4436.4585</v>
+        <v>404.1758</v>
       </c>
       <c r="G231" t="n">
-        <v>246.46</v>
+        <v>246.4049999999999</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -8907,22 +8869,22 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>247.8</v>
+        <v>247.3</v>
       </c>
       <c r="C232" t="n">
         <v>247.3</v>
       </c>
       <c r="D232" t="n">
-        <v>247.8</v>
+        <v>247.5</v>
       </c>
       <c r="E232" t="n">
         <v>247.3</v>
       </c>
       <c r="F232" t="n">
-        <v>1888.2388</v>
+        <v>4436.4585</v>
       </c>
       <c r="G232" t="n">
-        <v>246.5216666666666</v>
+        <v>246.46</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -8942,22 +8904,22 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>247.3</v>
+        <v>247.8</v>
       </c>
       <c r="C233" t="n">
         <v>247.3</v>
       </c>
       <c r="D233" t="n">
-        <v>247.3</v>
+        <v>247.8</v>
       </c>
       <c r="E233" t="n">
         <v>247.3</v>
       </c>
       <c r="F233" t="n">
-        <v>1407.0772</v>
+        <v>1888.2388</v>
       </c>
       <c r="G233" t="n">
-        <v>246.5833333333332</v>
+        <v>246.5216666666666</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -8989,10 +8951,10 @@
         <v>247.3</v>
       </c>
       <c r="F234" t="n">
-        <v>141.6228</v>
+        <v>1407.0772</v>
       </c>
       <c r="G234" t="n">
-        <v>246.6383333333332</v>
+        <v>246.5833333333332</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -9024,10 +8986,10 @@
         <v>247.3</v>
       </c>
       <c r="F235" t="n">
-        <v>1181</v>
+        <v>141.6228</v>
       </c>
       <c r="G235" t="n">
-        <v>246.6766666666666</v>
+        <v>246.6383333333332</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -9059,10 +9021,10 @@
         <v>247.3</v>
       </c>
       <c r="F236" t="n">
-        <v>206.8572</v>
+        <v>1181</v>
       </c>
       <c r="G236" t="n">
-        <v>246.7149999999999</v>
+        <v>246.6766666666666</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -9082,22 +9044,22 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>246.8</v>
+        <v>247.3</v>
       </c>
       <c r="C237" t="n">
-        <v>246.8</v>
+        <v>247.3</v>
       </c>
       <c r="D237" t="n">
-        <v>246.8</v>
+        <v>247.3</v>
       </c>
       <c r="E237" t="n">
-        <v>246.8</v>
+        <v>247.3</v>
       </c>
       <c r="F237" t="n">
-        <v>2000</v>
+        <v>206.8572</v>
       </c>
       <c r="G237" t="n">
-        <v>246.7433333333332</v>
+        <v>246.7149999999999</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -9117,22 +9079,22 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>247.8</v>
+        <v>246.8</v>
       </c>
       <c r="C238" t="n">
-        <v>247.8</v>
+        <v>246.8</v>
       </c>
       <c r="D238" t="n">
-        <v>247.8</v>
+        <v>246.8</v>
       </c>
       <c r="E238" t="n">
-        <v>247.8</v>
+        <v>246.8</v>
       </c>
       <c r="F238" t="n">
-        <v>3285.7677</v>
+        <v>2000</v>
       </c>
       <c r="G238" t="n">
-        <v>246.8166666666665</v>
+        <v>246.7433333333332</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -9152,22 +9114,22 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>248</v>
+        <v>247.8</v>
       </c>
       <c r="C239" t="n">
-        <v>248</v>
+        <v>247.8</v>
       </c>
       <c r="D239" t="n">
-        <v>248</v>
+        <v>247.8</v>
       </c>
       <c r="E239" t="n">
-        <v>248</v>
+        <v>247.8</v>
       </c>
       <c r="F239" t="n">
-        <v>5</v>
+        <v>3285.7677</v>
       </c>
       <c r="G239" t="n">
-        <v>246.8716666666665</v>
+        <v>246.8166666666665</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -9187,7 +9149,7 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>246.9</v>
+        <v>248</v>
       </c>
       <c r="C240" t="n">
         <v>248</v>
@@ -9196,13 +9158,13 @@
         <v>248</v>
       </c>
       <c r="E240" t="n">
-        <v>246.9</v>
+        <v>248</v>
       </c>
       <c r="F240" t="n">
-        <v>5376.0439</v>
+        <v>5</v>
       </c>
       <c r="G240" t="n">
-        <v>246.9433333333332</v>
+        <v>246.8716666666665</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -9222,10 +9184,10 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
+        <v>246.9</v>
+      </c>
+      <c r="C241" t="n">
         <v>248</v>
-      </c>
-      <c r="C241" t="n">
-        <v>246.9</v>
       </c>
       <c r="D241" t="n">
         <v>248</v>
@@ -9234,10 +9196,10 @@
         <v>246.9</v>
       </c>
       <c r="F241" t="n">
-        <v>3919.3848</v>
+        <v>5376.0439</v>
       </c>
       <c r="G241" t="n">
-        <v>246.9616666666665</v>
+        <v>246.9433333333332</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -9257,22 +9219,22 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>247.1</v>
+        <v>248</v>
       </c>
       <c r="C242" t="n">
-        <v>247.1</v>
+        <v>246.9</v>
       </c>
       <c r="D242" t="n">
-        <v>247.1</v>
+        <v>248</v>
       </c>
       <c r="E242" t="n">
-        <v>247.1</v>
+        <v>246.9</v>
       </c>
       <c r="F242" t="n">
-        <v>551.331</v>
+        <v>3919.3848</v>
       </c>
       <c r="G242" t="n">
-        <v>246.9833333333332</v>
+        <v>246.9616666666665</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -9292,22 +9254,22 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>247.3</v>
+        <v>247.1</v>
       </c>
       <c r="C243" t="n">
-        <v>247.3</v>
+        <v>247.1</v>
       </c>
       <c r="D243" t="n">
-        <v>247.3</v>
+        <v>247.1</v>
       </c>
       <c r="E243" t="n">
-        <v>247.3</v>
+        <v>247.1</v>
       </c>
       <c r="F243" t="n">
-        <v>2076.5752</v>
+        <v>551.331</v>
       </c>
       <c r="G243" t="n">
-        <v>247.0283333333332</v>
+        <v>246.9833333333332</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -9327,22 +9289,22 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>248.2</v>
+        <v>247.3</v>
       </c>
       <c r="C244" t="n">
-        <v>248.2</v>
+        <v>247.3</v>
       </c>
       <c r="D244" t="n">
-        <v>248.2</v>
+        <v>247.3</v>
       </c>
       <c r="E244" t="n">
-        <v>248.2</v>
+        <v>247.3</v>
       </c>
       <c r="F244" t="n">
-        <v>18.13053988</v>
+        <v>2076.5752</v>
       </c>
       <c r="G244" t="n">
-        <v>247.0649999999999</v>
+        <v>247.0283333333332</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -9362,22 +9324,22 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>247.4</v>
+        <v>248.2</v>
       </c>
       <c r="C245" t="n">
-        <v>247.4</v>
+        <v>248.2</v>
       </c>
       <c r="D245" t="n">
-        <v>247.4</v>
+        <v>248.2</v>
       </c>
       <c r="E245" t="n">
-        <v>247.4</v>
+        <v>248.2</v>
       </c>
       <c r="F245" t="n">
-        <v>900.4266</v>
+        <v>18.13053988</v>
       </c>
       <c r="G245" t="n">
-        <v>247.0866666666665</v>
+        <v>247.0649999999999</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -9409,10 +9371,10 @@
         <v>247.4</v>
       </c>
       <c r="F246" t="n">
-        <v>963</v>
+        <v>900.4266</v>
       </c>
       <c r="G246" t="n">
-        <v>247.1016666666665</v>
+        <v>247.0866666666665</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -9432,22 +9394,22 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>247.5</v>
+        <v>247.4</v>
       </c>
       <c r="C247" t="n">
-        <v>247.5</v>
+        <v>247.4</v>
       </c>
       <c r="D247" t="n">
-        <v>248</v>
+        <v>247.4</v>
       </c>
       <c r="E247" t="n">
-        <v>247.5</v>
+        <v>247.4</v>
       </c>
       <c r="F247" t="n">
-        <v>11115.2628</v>
+        <v>963</v>
       </c>
       <c r="G247" t="n">
-        <v>247.0949999999998</v>
+        <v>247.1016666666665</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -9467,22 +9429,22 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>247.4</v>
+        <v>247.5</v>
       </c>
       <c r="C248" t="n">
-        <v>247.4</v>
+        <v>247.5</v>
       </c>
       <c r="D248" t="n">
-        <v>247.4</v>
+        <v>248</v>
       </c>
       <c r="E248" t="n">
-        <v>247.4</v>
+        <v>247.5</v>
       </c>
       <c r="F248" t="n">
-        <v>387.6863</v>
+        <v>11115.2628</v>
       </c>
       <c r="G248" t="n">
-        <v>247.1199999999998</v>
+        <v>247.0949999999998</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -9502,22 +9464,22 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>247.3</v>
+        <v>247.4</v>
       </c>
       <c r="C249" t="n">
-        <v>247.3</v>
+        <v>247.4</v>
       </c>
       <c r="D249" t="n">
-        <v>247.3</v>
+        <v>247.4</v>
       </c>
       <c r="E249" t="n">
-        <v>247.3</v>
+        <v>247.4</v>
       </c>
       <c r="F249" t="n">
-        <v>3544.2298</v>
+        <v>387.6863</v>
       </c>
       <c r="G249" t="n">
-        <v>247.1233333333331</v>
+        <v>247.1199999999998</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -9549,10 +9511,10 @@
         <v>247.3</v>
       </c>
       <c r="F250" t="n">
-        <v>5</v>
+        <v>3544.2298</v>
       </c>
       <c r="G250" t="n">
-        <v>247.1216666666665</v>
+        <v>247.1233333333331</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -9572,7 +9534,7 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>247.2</v>
+        <v>247.3</v>
       </c>
       <c r="C251" t="n">
         <v>247.3</v>
@@ -9581,13 +9543,13 @@
         <v>247.3</v>
       </c>
       <c r="E251" t="n">
-        <v>247.2</v>
+        <v>247.3</v>
       </c>
       <c r="F251" t="n">
-        <v>913.0509</v>
+        <v>5</v>
       </c>
       <c r="G251" t="n">
-        <v>247.1199999999998</v>
+        <v>247.1216666666665</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -9607,7 +9569,7 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>247.3</v>
+        <v>247.2</v>
       </c>
       <c r="C252" t="n">
         <v>247.3</v>
@@ -9616,13 +9578,13 @@
         <v>247.3</v>
       </c>
       <c r="E252" t="n">
-        <v>247.3</v>
+        <v>247.2</v>
       </c>
       <c r="F252" t="n">
-        <v>5000</v>
+        <v>913.0509</v>
       </c>
       <c r="G252" t="n">
-        <v>247.1183333333331</v>
+        <v>247.1199999999998</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -9642,22 +9604,22 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>247.2</v>
+        <v>247.3</v>
       </c>
       <c r="C253" t="n">
-        <v>247.2</v>
+        <v>247.3</v>
       </c>
       <c r="D253" t="n">
-        <v>247.2</v>
+        <v>247.3</v>
       </c>
       <c r="E253" t="n">
-        <v>247.2</v>
+        <v>247.3</v>
       </c>
       <c r="F253" t="n">
-        <v>553</v>
+        <v>5000</v>
       </c>
       <c r="G253" t="n">
-        <v>247.1316666666665</v>
+        <v>247.1183333333331</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -9689,10 +9651,10 @@
         <v>247.2</v>
       </c>
       <c r="F254" t="n">
-        <v>2014.819</v>
+        <v>553</v>
       </c>
       <c r="G254" t="n">
-        <v>247.1483333333331</v>
+        <v>247.1316666666665</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -9715,19 +9677,19 @@
         <v>247.2</v>
       </c>
       <c r="C255" t="n">
-        <v>247.3</v>
+        <v>247.2</v>
       </c>
       <c r="D255" t="n">
-        <v>247.3</v>
+        <v>247.2</v>
       </c>
       <c r="E255" t="n">
         <v>247.2</v>
       </c>
       <c r="F255" t="n">
-        <v>3816.7116</v>
+        <v>2014.819</v>
       </c>
       <c r="G255" t="n">
-        <v>247.1666666666665</v>
+        <v>247.1483333333331</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -9747,10 +9709,10 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
+        <v>247.2</v>
+      </c>
+      <c r="C256" t="n">
         <v>247.3</v>
-      </c>
-      <c r="C256" t="n">
-        <v>247.2</v>
       </c>
       <c r="D256" t="n">
         <v>247.3</v>
@@ -9759,7 +9721,7 @@
         <v>247.2</v>
       </c>
       <c r="F256" t="n">
-        <v>4498.8501</v>
+        <v>3816.7116</v>
       </c>
       <c r="G256" t="n">
         <v>247.1666666666665</v>
@@ -9782,22 +9744,22 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>247.2</v>
+        <v>247.3</v>
       </c>
       <c r="C257" t="n">
         <v>247.2</v>
       </c>
       <c r="D257" t="n">
-        <v>247.2</v>
+        <v>247.3</v>
       </c>
       <c r="E257" t="n">
         <v>247.2</v>
       </c>
       <c r="F257" t="n">
-        <v>1242.1781</v>
+        <v>4498.8501</v>
       </c>
       <c r="G257" t="n">
-        <v>247.1699999999998</v>
+        <v>247.1666666666665</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -9817,22 +9779,22 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>247.5</v>
+        <v>247.2</v>
       </c>
       <c r="C258" t="n">
-        <v>248.2</v>
+        <v>247.2</v>
       </c>
       <c r="D258" t="n">
-        <v>248.2</v>
+        <v>247.2</v>
       </c>
       <c r="E258" t="n">
-        <v>247.5</v>
+        <v>247.2</v>
       </c>
       <c r="F258" t="n">
-        <v>4326.7305</v>
+        <v>1242.1781</v>
       </c>
       <c r="G258" t="n">
-        <v>247.1899999999998</v>
+        <v>247.1699999999998</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -9852,22 +9814,22 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>247.2</v>
+        <v>247.5</v>
       </c>
       <c r="C259" t="n">
-        <v>247.2</v>
+        <v>248.2</v>
       </c>
       <c r="D259" t="n">
-        <v>247.2</v>
+        <v>248.2</v>
       </c>
       <c r="E259" t="n">
-        <v>247.2</v>
+        <v>247.5</v>
       </c>
       <c r="F259" t="n">
-        <v>402.023</v>
+        <v>4326.7305</v>
       </c>
       <c r="G259" t="n">
-        <v>247.1866666666665</v>
+        <v>247.1899999999998</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -9899,10 +9861,10 @@
         <v>247.2</v>
       </c>
       <c r="F260" t="n">
-        <v>2055.4658</v>
+        <v>402.023</v>
       </c>
       <c r="G260" t="n">
-        <v>247.1799999999998</v>
+        <v>247.1866666666665</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -9925,19 +9887,19 @@
         <v>247.2</v>
       </c>
       <c r="C261" t="n">
-        <v>248.3</v>
+        <v>247.2</v>
       </c>
       <c r="D261" t="n">
-        <v>248.3</v>
+        <v>247.2</v>
       </c>
       <c r="E261" t="n">
         <v>247.2</v>
       </c>
       <c r="F261" t="n">
-        <v>681.11013048</v>
+        <v>2055.4658</v>
       </c>
       <c r="G261" t="n">
-        <v>247.1916666666665</v>
+        <v>247.1799999999998</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -9960,19 +9922,19 @@
         <v>247.2</v>
       </c>
       <c r="C262" t="n">
-        <v>247.2</v>
+        <v>248.3</v>
       </c>
       <c r="D262" t="n">
-        <v>247.2</v>
+        <v>248.3</v>
       </c>
       <c r="E262" t="n">
         <v>247.2</v>
       </c>
       <c r="F262" t="n">
-        <v>1000</v>
+        <v>681.11013048</v>
       </c>
       <c r="G262" t="n">
-        <v>247.1849999999998</v>
+        <v>247.1916666666665</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -10004,10 +9966,10 @@
         <v>247.2</v>
       </c>
       <c r="F263" t="n">
-        <v>1228.9999</v>
+        <v>1000</v>
       </c>
       <c r="G263" t="n">
-        <v>247.1783333333332</v>
+        <v>247.1849999999998</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -10039,10 +10001,10 @@
         <v>247.2</v>
       </c>
       <c r="F264" t="n">
-        <v>1771</v>
+        <v>1228.9999</v>
       </c>
       <c r="G264" t="n">
-        <v>247.1716666666665</v>
+        <v>247.1783333333332</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -10065,19 +10027,19 @@
         <v>247.2</v>
       </c>
       <c r="C265" t="n">
-        <v>247.1</v>
+        <v>247.2</v>
       </c>
       <c r="D265" t="n">
         <v>247.2</v>
       </c>
       <c r="E265" t="n">
-        <v>247.1</v>
+        <v>247.2</v>
       </c>
       <c r="F265" t="n">
-        <v>4078.729</v>
+        <v>1771</v>
       </c>
       <c r="G265" t="n">
-        <v>247.1633333333332</v>
+        <v>247.1716666666665</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -10097,22 +10059,22 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>247.1</v>
+        <v>247.2</v>
       </c>
       <c r="C266" t="n">
         <v>247.1</v>
       </c>
       <c r="D266" t="n">
-        <v>247.1</v>
+        <v>247.2</v>
       </c>
       <c r="E266" t="n">
         <v>247.1</v>
       </c>
       <c r="F266" t="n">
-        <v>2360.2885</v>
+        <v>4078.729</v>
       </c>
       <c r="G266" t="n">
-        <v>247.1733333333332</v>
+        <v>247.1633333333332</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -10135,16 +10097,16 @@
         <v>247.1</v>
       </c>
       <c r="C267" t="n">
-        <v>246.8</v>
+        <v>247.1</v>
       </c>
       <c r="D267" t="n">
         <v>247.1</v>
       </c>
       <c r="E267" t="n">
-        <v>246.8</v>
+        <v>247.1</v>
       </c>
       <c r="F267" t="n">
-        <v>16325.8958</v>
+        <v>2360.2885</v>
       </c>
       <c r="G267" t="n">
         <v>247.1733333333332</v>
@@ -10167,22 +10129,22 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>248.1</v>
+        <v>247.1</v>
       </c>
       <c r="C268" t="n">
-        <v>246.7</v>
+        <v>246.8</v>
       </c>
       <c r="D268" t="n">
-        <v>248.1</v>
+        <v>247.1</v>
       </c>
       <c r="E268" t="n">
-        <v>246.5</v>
+        <v>246.8</v>
       </c>
       <c r="F268" t="n">
-        <v>3011.0248</v>
+        <v>16325.8958</v>
       </c>
       <c r="G268" t="n">
-        <v>247.1516666666665</v>
+        <v>247.1733333333332</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -10202,22 +10164,22 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>246.7</v>
+        <v>248.1</v>
       </c>
       <c r="C269" t="n">
         <v>246.7</v>
       </c>
       <c r="D269" t="n">
-        <v>246.7</v>
+        <v>248.1</v>
       </c>
       <c r="E269" t="n">
-        <v>246.7</v>
+        <v>246.5</v>
       </c>
       <c r="F269" t="n">
-        <v>5</v>
+        <v>3011.0248</v>
       </c>
       <c r="G269" t="n">
-        <v>247.1233333333332</v>
+        <v>247.1516666666665</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -10237,22 +10199,22 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>247.3</v>
+        <v>246.7</v>
       </c>
       <c r="C270" t="n">
-        <v>247.3</v>
+        <v>246.7</v>
       </c>
       <c r="D270" t="n">
-        <v>247.3</v>
+        <v>246.7</v>
       </c>
       <c r="E270" t="n">
-        <v>247.3</v>
+        <v>246.7</v>
       </c>
       <c r="F270" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G270" t="n">
-        <v>247.1449999999999</v>
+        <v>247.1233333333332</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -10272,22 +10234,22 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>247.2</v>
+        <v>247.3</v>
       </c>
       <c r="C271" t="n">
-        <v>247.2</v>
+        <v>247.3</v>
       </c>
       <c r="D271" t="n">
-        <v>247.2</v>
+        <v>247.3</v>
       </c>
       <c r="E271" t="n">
-        <v>247.2</v>
+        <v>247.3</v>
       </c>
       <c r="F271" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G271" t="n">
-        <v>247.1633333333332</v>
+        <v>247.1449999999999</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -10307,22 +10269,22 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>247.3</v>
+        <v>247.2</v>
       </c>
       <c r="C272" t="n">
-        <v>247.3</v>
+        <v>247.2</v>
       </c>
       <c r="D272" t="n">
-        <v>247.3</v>
+        <v>247.2</v>
       </c>
       <c r="E272" t="n">
-        <v>247.3</v>
+        <v>247.2</v>
       </c>
       <c r="F272" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="G272" t="n">
-        <v>247.1766666666665</v>
+        <v>247.1633333333332</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -10342,22 +10304,22 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>247.5</v>
+        <v>247.3</v>
       </c>
       <c r="C273" t="n">
-        <v>247.5</v>
+        <v>247.3</v>
       </c>
       <c r="D273" t="n">
-        <v>247.5</v>
+        <v>247.3</v>
       </c>
       <c r="E273" t="n">
-        <v>247.5</v>
+        <v>247.3</v>
       </c>
       <c r="F273" t="n">
-        <v>3865.3885</v>
+        <v>100</v>
       </c>
       <c r="G273" t="n">
-        <v>247.1933333333332</v>
+        <v>247.1766666666665</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -10377,22 +10339,22 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>247.3</v>
+        <v>247.5</v>
       </c>
       <c r="C274" t="n">
-        <v>247.3</v>
+        <v>247.5</v>
       </c>
       <c r="D274" t="n">
-        <v>247.3</v>
+        <v>247.5</v>
       </c>
       <c r="E274" t="n">
-        <v>247.3</v>
+        <v>247.5</v>
       </c>
       <c r="F274" t="n">
-        <v>1037.0743</v>
+        <v>3865.3885</v>
       </c>
       <c r="G274" t="n">
-        <v>247.2066666666665</v>
+        <v>247.1933333333332</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -10412,22 +10374,22 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>248</v>
+        <v>247.3</v>
       </c>
       <c r="C275" t="n">
-        <v>248</v>
+        <v>247.3</v>
       </c>
       <c r="D275" t="n">
-        <v>248</v>
+        <v>247.3</v>
       </c>
       <c r="E275" t="n">
-        <v>248</v>
+        <v>247.3</v>
       </c>
       <c r="F275" t="n">
-        <v>989.2606</v>
+        <v>1037.0743</v>
       </c>
       <c r="G275" t="n">
-        <v>247.2316666666665</v>
+        <v>247.2066666666665</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -10447,22 +10409,22 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>247.2</v>
+        <v>248</v>
       </c>
       <c r="C276" t="n">
-        <v>247.1</v>
+        <v>248</v>
       </c>
       <c r="D276" t="n">
-        <v>247.2</v>
+        <v>248</v>
       </c>
       <c r="E276" t="n">
-        <v>247.1</v>
+        <v>248</v>
       </c>
       <c r="F276" t="n">
-        <v>4000</v>
+        <v>989.2606</v>
       </c>
       <c r="G276" t="n">
-        <v>247.2399999999998</v>
+        <v>247.2316666666665</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -10482,22 +10444,22 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>247.1</v>
+        <v>247.2</v>
       </c>
       <c r="C277" t="n">
         <v>247.1</v>
       </c>
       <c r="D277" t="n">
-        <v>247.1</v>
+        <v>247.2</v>
       </c>
       <c r="E277" t="n">
         <v>247.1</v>
       </c>
       <c r="F277" t="n">
-        <v>4.172</v>
+        <v>4000</v>
       </c>
       <c r="G277" t="n">
-        <v>247.2499999999999</v>
+        <v>247.2399999999998</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -10517,22 +10479,22 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>247.7</v>
+        <v>247.1</v>
       </c>
       <c r="C278" t="n">
-        <v>248</v>
+        <v>247.1</v>
       </c>
       <c r="D278" t="n">
-        <v>248</v>
+        <v>247.1</v>
       </c>
       <c r="E278" t="n">
-        <v>247.7</v>
+        <v>247.1</v>
       </c>
       <c r="F278" t="n">
-        <v>450</v>
+        <v>4.172</v>
       </c>
       <c r="G278" t="n">
-        <v>247.2766666666665</v>
+        <v>247.2499999999999</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -10552,22 +10514,22 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>247.1</v>
+        <v>247.7</v>
       </c>
       <c r="C279" t="n">
-        <v>247.1</v>
+        <v>248</v>
       </c>
       <c r="D279" t="n">
-        <v>247.1</v>
+        <v>248</v>
       </c>
       <c r="E279" t="n">
-        <v>247.1</v>
+        <v>247.7</v>
       </c>
       <c r="F279" t="n">
-        <v>542.2005</v>
+        <v>450</v>
       </c>
       <c r="G279" t="n">
-        <v>247.2883333333332</v>
+        <v>247.2766666666665</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -10587,22 +10549,22 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>247.5</v>
+        <v>247.1</v>
       </c>
       <c r="C280" t="n">
-        <v>247.5</v>
+        <v>247.1</v>
       </c>
       <c r="D280" t="n">
-        <v>247.5</v>
+        <v>247.1</v>
       </c>
       <c r="E280" t="n">
-        <v>247.5</v>
+        <v>247.1</v>
       </c>
       <c r="F280" t="n">
-        <v>3466.0221</v>
+        <v>542.2005</v>
       </c>
       <c r="G280" t="n">
-        <v>247.3066666666665</v>
+        <v>247.2883333333332</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -10622,22 +10584,22 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>248</v>
+        <v>247.5</v>
       </c>
       <c r="C281" t="n">
-        <v>248</v>
+        <v>247.5</v>
       </c>
       <c r="D281" t="n">
-        <v>248</v>
+        <v>247.5</v>
       </c>
       <c r="E281" t="n">
-        <v>248</v>
+        <v>247.5</v>
       </c>
       <c r="F281" t="n">
-        <v>1207.7411</v>
+        <v>3466.0221</v>
       </c>
       <c r="G281" t="n">
-        <v>247.3349999999999</v>
+        <v>247.3066666666665</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -10669,10 +10631,10 @@
         <v>248</v>
       </c>
       <c r="F282" t="n">
-        <v>345.5388</v>
+        <v>1207.7411</v>
       </c>
       <c r="G282" t="n">
-        <v>247.3683333333332</v>
+        <v>247.3349999999999</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -10704,10 +10666,10 @@
         <v>248</v>
       </c>
       <c r="F283" t="n">
-        <v>2523.1645</v>
+        <v>345.5388</v>
       </c>
       <c r="G283" t="n">
-        <v>247.3733333333332</v>
+        <v>247.3683333333332</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -10727,22 +10689,22 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>248.4</v>
+        <v>248</v>
       </c>
       <c r="C284" t="n">
-        <v>248.4</v>
+        <v>248</v>
       </c>
       <c r="D284" t="n">
-        <v>248.4</v>
+        <v>248</v>
       </c>
       <c r="E284" t="n">
-        <v>248.4</v>
+        <v>248</v>
       </c>
       <c r="F284" t="n">
-        <v>5943.4711</v>
+        <v>2523.1645</v>
       </c>
       <c r="G284" t="n">
-        <v>247.4133333333332</v>
+        <v>247.3733333333332</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -10762,22 +10724,22 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>248</v>
+        <v>248.4</v>
       </c>
       <c r="C285" t="n">
-        <v>248</v>
+        <v>248.4</v>
       </c>
       <c r="D285" t="n">
-        <v>248</v>
+        <v>248.4</v>
       </c>
       <c r="E285" t="n">
-        <v>248</v>
+        <v>248.4</v>
       </c>
       <c r="F285" t="n">
-        <v>167</v>
+        <v>5943.4711</v>
       </c>
       <c r="G285" t="n">
-        <v>247.4166666666665</v>
+        <v>247.4133333333332</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -10797,22 +10759,22 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>248.1</v>
+        <v>248</v>
       </c>
       <c r="C286" t="n">
-        <v>248.1</v>
+        <v>248</v>
       </c>
       <c r="D286" t="n">
-        <v>248.1</v>
+        <v>248</v>
       </c>
       <c r="E286" t="n">
-        <v>248.1</v>
+        <v>248</v>
       </c>
       <c r="F286" t="n">
-        <v>449.2573</v>
+        <v>167</v>
       </c>
       <c r="G286" t="n">
-        <v>247.4216666666666</v>
+        <v>247.4166666666665</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -10844,10 +10806,10 @@
         <v>248.1</v>
       </c>
       <c r="F287" t="n">
-        <v>1707.012</v>
+        <v>449.2573</v>
       </c>
       <c r="G287" t="n">
-        <v>247.4066666666666</v>
+        <v>247.4216666666666</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -10870,19 +10832,19 @@
         <v>248.1</v>
       </c>
       <c r="C288" t="n">
-        <v>248</v>
+        <v>248.1</v>
       </c>
       <c r="D288" t="n">
         <v>248.1</v>
       </c>
       <c r="E288" t="n">
-        <v>248</v>
+        <v>248.1</v>
       </c>
       <c r="F288" t="n">
-        <v>5400.597</v>
+        <v>1707.012</v>
       </c>
       <c r="G288" t="n">
-        <v>247.4099999999999</v>
+        <v>247.4066666666666</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -10902,22 +10864,22 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>248.5</v>
+        <v>248.1</v>
       </c>
       <c r="C289" t="n">
-        <v>248.5</v>
+        <v>248</v>
       </c>
       <c r="D289" t="n">
-        <v>248.5</v>
+        <v>248.1</v>
       </c>
       <c r="E289" t="n">
-        <v>248.5</v>
+        <v>248</v>
       </c>
       <c r="F289" t="n">
-        <v>17.88329979</v>
+        <v>5400.597</v>
       </c>
       <c r="G289" t="n">
-        <v>247.4516666666666</v>
+        <v>247.4099999999999</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -10937,22 +10899,22 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>247.7</v>
+        <v>248.5</v>
       </c>
       <c r="C290" t="n">
-        <v>247.7</v>
+        <v>248.5</v>
       </c>
       <c r="D290" t="n">
-        <v>247.7</v>
+        <v>248.5</v>
       </c>
       <c r="E290" t="n">
-        <v>247.7</v>
+        <v>248.5</v>
       </c>
       <c r="F290" t="n">
-        <v>3</v>
+        <v>17.88329979</v>
       </c>
       <c r="G290" t="n">
-        <v>247.4666666666666</v>
+        <v>247.4516666666666</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -10972,22 +10934,22 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>248.4</v>
+        <v>247.7</v>
       </c>
       <c r="C291" t="n">
         <v>247.7</v>
       </c>
       <c r="D291" t="n">
-        <v>248.4</v>
+        <v>247.7</v>
       </c>
       <c r="E291" t="n">
         <v>247.7</v>
       </c>
       <c r="F291" t="n">
-        <v>6.8471</v>
+        <v>3</v>
       </c>
       <c r="G291" t="n">
-        <v>247.4733333333333</v>
+        <v>247.4666666666666</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -11007,22 +10969,22 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
+        <v>248.4</v>
+      </c>
+      <c r="C292" t="n">
         <v>247.7</v>
       </c>
-      <c r="C292" t="n">
-        <v>248</v>
-      </c>
       <c r="D292" t="n">
-        <v>248</v>
+        <v>248.4</v>
       </c>
       <c r="E292" t="n">
         <v>247.7</v>
       </c>
       <c r="F292" t="n">
-        <v>15</v>
+        <v>6.8471</v>
       </c>
       <c r="G292" t="n">
-        <v>247.485</v>
+        <v>247.4733333333333</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -11042,7 +11004,7 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>248</v>
+        <v>247.7</v>
       </c>
       <c r="C293" t="n">
         <v>248</v>
@@ -11051,13 +11013,13 @@
         <v>248</v>
       </c>
       <c r="E293" t="n">
-        <v>248</v>
+        <v>247.7</v>
       </c>
       <c r="F293" t="n">
-        <v>2639.3226</v>
+        <v>15</v>
       </c>
       <c r="G293" t="n">
-        <v>247.4966666666666</v>
+        <v>247.485</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -11077,22 +11039,22 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>248.4</v>
+        <v>248</v>
       </c>
       <c r="C294" t="n">
-        <v>248.4</v>
+        <v>248</v>
       </c>
       <c r="D294" t="n">
-        <v>248.4</v>
+        <v>248</v>
       </c>
       <c r="E294" t="n">
-        <v>248.4</v>
+        <v>248</v>
       </c>
       <c r="F294" t="n">
-        <v>1000</v>
+        <v>2639.3226</v>
       </c>
       <c r="G294" t="n">
-        <v>247.515</v>
+        <v>247.4966666666666</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -11115,19 +11077,19 @@
         <v>248.4</v>
       </c>
       <c r="C295" t="n">
-        <v>248</v>
+        <v>248.4</v>
       </c>
       <c r="D295" t="n">
         <v>248.4</v>
       </c>
       <c r="E295" t="n">
-        <v>248</v>
+        <v>248.4</v>
       </c>
       <c r="F295" t="n">
-        <v>1682.8175</v>
+        <v>1000</v>
       </c>
       <c r="G295" t="n">
-        <v>247.5266666666667</v>
+        <v>247.515</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -11147,22 +11109,22 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>248</v>
+        <v>248.4</v>
       </c>
       <c r="C296" t="n">
         <v>248</v>
       </c>
       <c r="D296" t="n">
-        <v>248</v>
+        <v>248.4</v>
       </c>
       <c r="E296" t="n">
         <v>248</v>
       </c>
       <c r="F296" t="n">
-        <v>43.2139</v>
+        <v>1682.8175</v>
       </c>
       <c r="G296" t="n">
-        <v>247.5383333333334</v>
+        <v>247.5266666666667</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -11194,10 +11156,10 @@
         <v>248</v>
       </c>
       <c r="F297" t="n">
-        <v>1200.2194</v>
+        <v>43.2139</v>
       </c>
       <c r="G297" t="n">
-        <v>247.5583333333334</v>
+        <v>247.5383333333334</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -11217,22 +11179,22 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>248.4</v>
+        <v>248</v>
       </c>
       <c r="C298" t="n">
-        <v>248.4</v>
+        <v>248</v>
       </c>
       <c r="D298" t="n">
-        <v>248.4</v>
+        <v>248</v>
       </c>
       <c r="E298" t="n">
-        <v>248.4</v>
+        <v>248</v>
       </c>
       <c r="F298" t="n">
-        <v>221.41706924</v>
+        <v>1200.2194</v>
       </c>
       <c r="G298" t="n">
-        <v>247.5683333333334</v>
+        <v>247.5583333333334</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -11264,10 +11226,10 @@
         <v>248.4</v>
       </c>
       <c r="F299" t="n">
-        <v>1141.54163076</v>
+        <v>221.41706924</v>
       </c>
       <c r="G299" t="n">
-        <v>247.575</v>
+        <v>247.5683333333334</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -11290,16 +11252,16 @@
         <v>248.4</v>
       </c>
       <c r="C300" t="n">
-        <v>248</v>
+        <v>248.4</v>
       </c>
       <c r="D300" t="n">
         <v>248.4</v>
       </c>
       <c r="E300" t="n">
-        <v>248</v>
+        <v>248.4</v>
       </c>
       <c r="F300" t="n">
-        <v>1044.3518</v>
+        <v>1141.54163076</v>
       </c>
       <c r="G300" t="n">
         <v>247.575</v>
@@ -11322,22 +11284,22 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>248</v>
+        <v>248.4</v>
       </c>
       <c r="C301" t="n">
         <v>248</v>
       </c>
       <c r="D301" t="n">
-        <v>248</v>
+        <v>248.4</v>
       </c>
       <c r="E301" t="n">
         <v>248</v>
       </c>
       <c r="F301" t="n">
-        <v>1096.55</v>
+        <v>1044.3518</v>
       </c>
       <c r="G301" t="n">
-        <v>247.5933333333334</v>
+        <v>247.575</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -11360,19 +11322,19 @@
         <v>248</v>
       </c>
       <c r="C302" t="n">
-        <v>248.5</v>
+        <v>248</v>
       </c>
       <c r="D302" t="n">
-        <v>248.5</v>
+        <v>248</v>
       </c>
       <c r="E302" t="n">
         <v>248</v>
       </c>
       <c r="F302" t="n">
-        <v>497.2383</v>
+        <v>1096.55</v>
       </c>
       <c r="G302" t="n">
-        <v>247.6166666666667</v>
+        <v>247.5933333333334</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -11392,22 +11354,22 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>247.5</v>
+        <v>248</v>
       </c>
       <c r="C303" t="n">
-        <v>247.5</v>
+        <v>248.5</v>
       </c>
       <c r="D303" t="n">
-        <v>247.5</v>
+        <v>248.5</v>
       </c>
       <c r="E303" t="n">
-        <v>247.5</v>
+        <v>248</v>
       </c>
       <c r="F303" t="n">
-        <v>30</v>
+        <v>497.2383</v>
       </c>
       <c r="G303" t="n">
-        <v>247.62</v>
+        <v>247.6166666666667</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -11439,10 +11401,10 @@
         <v>247.5</v>
       </c>
       <c r="F304" t="n">
-        <v>3174.627</v>
+        <v>30</v>
       </c>
       <c r="G304" t="n">
-        <v>247.6083333333334</v>
+        <v>247.62</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -11462,22 +11424,22 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>248</v>
+        <v>247.5</v>
       </c>
       <c r="C305" t="n">
-        <v>248.5</v>
+        <v>247.5</v>
       </c>
       <c r="D305" t="n">
-        <v>248.5</v>
+        <v>247.5</v>
       </c>
       <c r="E305" t="n">
-        <v>248</v>
+        <v>247.5</v>
       </c>
       <c r="F305" t="n">
-        <v>926.20523138</v>
+        <v>3174.627</v>
       </c>
       <c r="G305" t="n">
-        <v>247.6266666666667</v>
+        <v>247.6083333333334</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -11497,22 +11459,22 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
+        <v>248</v>
+      </c>
+      <c r="C306" t="n">
         <v>248.5</v>
       </c>
-      <c r="C306" t="n">
-        <v>249</v>
-      </c>
       <c r="D306" t="n">
-        <v>249</v>
+        <v>248.5</v>
       </c>
       <c r="E306" t="n">
-        <v>247.5</v>
+        <v>248</v>
       </c>
       <c r="F306" t="n">
-        <v>8218.695400000001</v>
+        <v>926.20523138</v>
       </c>
       <c r="G306" t="n">
-        <v>247.6533333333334</v>
+        <v>247.6266666666667</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -11532,22 +11494,22 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>248.1</v>
+        <v>248.5</v>
       </c>
       <c r="C307" t="n">
-        <v>248.1</v>
+        <v>249</v>
       </c>
       <c r="D307" t="n">
         <v>249</v>
       </c>
       <c r="E307" t="n">
-        <v>248.1</v>
+        <v>247.5</v>
       </c>
       <c r="F307" t="n">
-        <v>1095.5882</v>
+        <v>8218.695400000001</v>
       </c>
       <c r="G307" t="n">
-        <v>247.6633333333334</v>
+        <v>247.6533333333334</v>
       </c>
       <c r="H307" t="n">
         <v>0</v>
@@ -11567,22 +11529,22 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>248.8</v>
+        <v>248.1</v>
       </c>
       <c r="C308" t="n">
         <v>248.1</v>
       </c>
       <c r="D308" t="n">
-        <v>248.8</v>
+        <v>249</v>
       </c>
       <c r="E308" t="n">
         <v>248.1</v>
       </c>
       <c r="F308" t="n">
-        <v>1277.0497</v>
+        <v>1095.5882</v>
       </c>
       <c r="G308" t="n">
-        <v>247.6750000000001</v>
+        <v>247.6633333333334</v>
       </c>
       <c r="H308" t="n">
         <v>0</v>
@@ -11602,22 +11564,22 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>248.3</v>
+        <v>248.8</v>
       </c>
       <c r="C309" t="n">
-        <v>248.3</v>
+        <v>248.1</v>
       </c>
       <c r="D309" t="n">
-        <v>248.3</v>
+        <v>248.8</v>
       </c>
       <c r="E309" t="n">
-        <v>248.3</v>
+        <v>248.1</v>
       </c>
       <c r="F309" t="n">
-        <v>631</v>
+        <v>1277.0497</v>
       </c>
       <c r="G309" t="n">
-        <v>247.6916666666667</v>
+        <v>247.6750000000001</v>
       </c>
       <c r="H309" t="n">
         <v>0</v>
@@ -11649,10 +11611,10 @@
         <v>248.3</v>
       </c>
       <c r="F310" t="n">
-        <v>204.281</v>
+        <v>631</v>
       </c>
       <c r="G310" t="n">
-        <v>247.7083333333334</v>
+        <v>247.6916666666667</v>
       </c>
       <c r="H310" t="n">
         <v>0</v>
@@ -11672,22 +11634,22 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>249</v>
+        <v>248.3</v>
       </c>
       <c r="C311" t="n">
-        <v>248.5</v>
+        <v>248.3</v>
       </c>
       <c r="D311" t="n">
-        <v>249</v>
+        <v>248.3</v>
       </c>
       <c r="E311" t="n">
-        <v>248.5</v>
+        <v>248.3</v>
       </c>
       <c r="F311" t="n">
-        <v>4797.1467</v>
+        <v>204.281</v>
       </c>
       <c r="G311" t="n">
-        <v>247.7283333333334</v>
+        <v>247.7083333333334</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
@@ -11707,10 +11669,10 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
+        <v>249</v>
+      </c>
+      <c r="C312" t="n">
         <v>248.5</v>
-      </c>
-      <c r="C312" t="n">
-        <v>249</v>
       </c>
       <c r="D312" t="n">
         <v>249</v>
@@ -11719,10 +11681,10 @@
         <v>248.5</v>
       </c>
       <c r="F312" t="n">
-        <v>3679.81100145</v>
+        <v>4797.1467</v>
       </c>
       <c r="G312" t="n">
-        <v>247.7566666666667</v>
+        <v>247.7283333333334</v>
       </c>
       <c r="H312" t="n">
         <v>0</v>
@@ -11742,22 +11704,22 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>249.5</v>
+        <v>248.5</v>
       </c>
       <c r="C313" t="n">
-        <v>249.7</v>
+        <v>249</v>
       </c>
       <c r="D313" t="n">
-        <v>249.7</v>
+        <v>249</v>
       </c>
       <c r="E313" t="n">
-        <v>249.5</v>
+        <v>248.5</v>
       </c>
       <c r="F313" t="n">
-        <v>2970.5308</v>
+        <v>3679.81100145</v>
       </c>
       <c r="G313" t="n">
-        <v>247.7983333333334</v>
+        <v>247.7566666666667</v>
       </c>
       <c r="H313" t="n">
         <v>0</v>
@@ -11780,19 +11742,19 @@
         <v>249.5</v>
       </c>
       <c r="C314" t="n">
-        <v>249.5</v>
+        <v>249.7</v>
       </c>
       <c r="D314" t="n">
-        <v>249.5</v>
+        <v>249.7</v>
       </c>
       <c r="E314" t="n">
         <v>249.5</v>
       </c>
       <c r="F314" t="n">
-        <v>1601.3493</v>
+        <v>2970.5308</v>
       </c>
       <c r="G314" t="n">
-        <v>247.8366666666667</v>
+        <v>247.7983333333334</v>
       </c>
       <c r="H314" t="n">
         <v>0</v>
@@ -11812,22 +11774,22 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>249.6</v>
+        <v>249.5</v>
       </c>
       <c r="C315" t="n">
-        <v>249.6</v>
+        <v>249.5</v>
       </c>
       <c r="D315" t="n">
-        <v>249.6</v>
+        <v>249.5</v>
       </c>
       <c r="E315" t="n">
-        <v>249.6</v>
+        <v>249.5</v>
       </c>
       <c r="F315" t="n">
-        <v>400.64102564</v>
+        <v>1601.3493</v>
       </c>
       <c r="G315" t="n">
-        <v>247.8750000000001</v>
+        <v>247.8366666666667</v>
       </c>
       <c r="H315" t="n">
         <v>0</v>
@@ -11847,22 +11809,22 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>248.4</v>
+        <v>249.6</v>
       </c>
       <c r="C316" t="n">
-        <v>249</v>
+        <v>249.6</v>
       </c>
       <c r="D316" t="n">
-        <v>249</v>
+        <v>249.6</v>
       </c>
       <c r="E316" t="n">
-        <v>248.4</v>
+        <v>249.6</v>
       </c>
       <c r="F316" t="n">
-        <v>8973.8992</v>
+        <v>400.64102564</v>
       </c>
       <c r="G316" t="n">
-        <v>247.9050000000001</v>
+        <v>247.8750000000001</v>
       </c>
       <c r="H316" t="n">
         <v>0</v>
@@ -11882,22 +11844,22 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>248.5</v>
+        <v>248.4</v>
       </c>
       <c r="C317" t="n">
-        <v>248.1</v>
+        <v>249</v>
       </c>
       <c r="D317" t="n">
-        <v>248.5</v>
+        <v>249</v>
       </c>
       <c r="E317" t="n">
-        <v>248.1</v>
+        <v>248.4</v>
       </c>
       <c r="F317" t="n">
-        <v>9488.6459</v>
+        <v>8973.8992</v>
       </c>
       <c r="G317" t="n">
-        <v>247.9200000000001</v>
+        <v>247.9050000000001</v>
       </c>
       <c r="H317" t="n">
         <v>0</v>
@@ -11917,22 +11879,22 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>248.4</v>
+        <v>248.5</v>
       </c>
       <c r="C318" t="n">
-        <v>247.7</v>
+        <v>248.1</v>
       </c>
       <c r="D318" t="n">
-        <v>248.4</v>
+        <v>248.5</v>
       </c>
       <c r="E318" t="n">
-        <v>247.6</v>
+        <v>248.1</v>
       </c>
       <c r="F318" t="n">
-        <v>1096.6744</v>
+        <v>9488.6459</v>
       </c>
       <c r="G318" t="n">
-        <v>247.9116666666667</v>
+        <v>247.9200000000001</v>
       </c>
       <c r="H318" t="n">
         <v>0</v>
@@ -11952,22 +11914,22 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>247.7</v>
+        <v>248.4</v>
       </c>
       <c r="C319" t="n">
         <v>247.7</v>
       </c>
       <c r="D319" t="n">
-        <v>247.7</v>
+        <v>248.4</v>
       </c>
       <c r="E319" t="n">
-        <v>247.7</v>
+        <v>247.6</v>
       </c>
       <c r="F319" t="n">
-        <v>10591.0901</v>
+        <v>1096.6744</v>
       </c>
       <c r="G319" t="n">
-        <v>247.9200000000001</v>
+        <v>247.9116666666667</v>
       </c>
       <c r="H319" t="n">
         <v>0</v>
@@ -11987,22 +11949,22 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>248.4</v>
+        <v>247.7</v>
       </c>
       <c r="C320" t="n">
-        <v>248.4</v>
+        <v>247.7</v>
       </c>
       <c r="D320" t="n">
-        <v>248.4</v>
+        <v>247.7</v>
       </c>
       <c r="E320" t="n">
-        <v>248.4</v>
+        <v>247.7</v>
       </c>
       <c r="F320" t="n">
-        <v>268.6532</v>
+        <v>10591.0901</v>
       </c>
       <c r="G320" t="n">
-        <v>247.9400000000001</v>
+        <v>247.9200000000001</v>
       </c>
       <c r="H320" t="n">
         <v>0</v>
@@ -12022,22 +11984,22 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>247.9</v>
+        <v>248.4</v>
       </c>
       <c r="C321" t="n">
-        <v>249.8</v>
+        <v>248.4</v>
       </c>
       <c r="D321" t="n">
-        <v>249.8</v>
+        <v>248.4</v>
       </c>
       <c r="E321" t="n">
-        <v>247.9</v>
+        <v>248.4</v>
       </c>
       <c r="F321" t="n">
-        <v>288.8399</v>
+        <v>268.6532</v>
       </c>
       <c r="G321" t="n">
-        <v>247.9650000000001</v>
+        <v>247.9400000000001</v>
       </c>
       <c r="H321" t="n">
         <v>0</v>
@@ -12057,22 +12019,22 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>248.3</v>
+        <v>247.9</v>
       </c>
       <c r="C322" t="n">
-        <v>248.3</v>
+        <v>249.8</v>
       </c>
       <c r="D322" t="n">
-        <v>248.3</v>
+        <v>249.8</v>
       </c>
       <c r="E322" t="n">
-        <v>248.3</v>
+        <v>247.9</v>
       </c>
       <c r="F322" t="n">
-        <v>30</v>
+        <v>288.8399</v>
       </c>
       <c r="G322" t="n">
-        <v>247.9833333333334</v>
+        <v>247.9650000000001</v>
       </c>
       <c r="H322" t="n">
         <v>0</v>
@@ -12095,19 +12057,19 @@
         <v>248.3</v>
       </c>
       <c r="C323" t="n">
-        <v>247.8</v>
+        <v>248.3</v>
       </c>
       <c r="D323" t="n">
         <v>248.3</v>
       </c>
       <c r="E323" t="n">
-        <v>247.7</v>
+        <v>248.3</v>
       </c>
       <c r="F323" t="n">
-        <v>8388.149299999999</v>
+        <v>30</v>
       </c>
       <c r="G323" t="n">
-        <v>247.9933333333333</v>
+        <v>247.9833333333334</v>
       </c>
       <c r="H323" t="n">
         <v>0</v>
@@ -12127,22 +12089,22 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>249.4</v>
+        <v>248.3</v>
       </c>
       <c r="C324" t="n">
-        <v>249.4</v>
+        <v>247.8</v>
       </c>
       <c r="D324" t="n">
-        <v>249.4</v>
+        <v>248.3</v>
       </c>
       <c r="E324" t="n">
-        <v>249.4</v>
+        <v>247.7</v>
       </c>
       <c r="F324" t="n">
-        <v>2.2586</v>
+        <v>8388.149299999999</v>
       </c>
       <c r="G324" t="n">
-        <v>248.03</v>
+        <v>247.9933333333333</v>
       </c>
       <c r="H324" t="n">
         <v>0</v>
@@ -12174,10 +12136,10 @@
         <v>249.4</v>
       </c>
       <c r="F325" t="n">
-        <v>155.4518</v>
+        <v>2.2586</v>
       </c>
       <c r="G325" t="n">
-        <v>248.0683333333333</v>
+        <v>248.03</v>
       </c>
       <c r="H325" t="n">
         <v>0</v>
@@ -12197,22 +12159,22 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>249.5</v>
+        <v>249.4</v>
       </c>
       <c r="C326" t="n">
         <v>249.4</v>
       </c>
       <c r="D326" t="n">
-        <v>249.5</v>
+        <v>249.4</v>
       </c>
       <c r="E326" t="n">
         <v>249.4</v>
       </c>
       <c r="F326" t="n">
-        <v>51.5698</v>
+        <v>155.4518</v>
       </c>
       <c r="G326" t="n">
-        <v>248.1066666666666</v>
+        <v>248.0683333333333</v>
       </c>
       <c r="H326" t="n">
         <v>0</v>
@@ -12232,22 +12194,22 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>249.4</v>
+        <v>249.5</v>
       </c>
       <c r="C327" t="n">
         <v>249.4</v>
       </c>
       <c r="D327" t="n">
-        <v>249.4</v>
+        <v>249.5</v>
       </c>
       <c r="E327" t="n">
         <v>249.4</v>
       </c>
       <c r="F327" t="n">
-        <v>0.5482</v>
+        <v>51.5698</v>
       </c>
       <c r="G327" t="n">
-        <v>248.15</v>
+        <v>248.1066666666666</v>
       </c>
       <c r="H327" t="n">
         <v>0</v>
@@ -12267,22 +12229,22 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>249.2</v>
+        <v>249.4</v>
       </c>
       <c r="C328" t="n">
-        <v>248.7</v>
+        <v>249.4</v>
       </c>
       <c r="D328" t="n">
         <v>249.4</v>
       </c>
       <c r="E328" t="n">
-        <v>248.7</v>
+        <v>249.4</v>
       </c>
       <c r="F328" t="n">
-        <v>686.08465232</v>
+        <v>0.5482</v>
       </c>
       <c r="G328" t="n">
-        <v>248.1833333333333</v>
+        <v>248.15</v>
       </c>
       <c r="H328" t="n">
         <v>0</v>
@@ -12302,22 +12264,22 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>248.7</v>
+        <v>249.2</v>
       </c>
       <c r="C329" t="n">
         <v>248.7</v>
       </c>
       <c r="D329" t="n">
-        <v>248.7</v>
+        <v>249.4</v>
       </c>
       <c r="E329" t="n">
         <v>248.7</v>
       </c>
       <c r="F329" t="n">
-        <v>240.0121</v>
+        <v>686.08465232</v>
       </c>
       <c r="G329" t="n">
-        <v>248.2166666666666</v>
+        <v>248.1833333333333</v>
       </c>
       <c r="H329" t="n">
         <v>0</v>
@@ -12340,19 +12302,19 @@
         <v>248.7</v>
       </c>
       <c r="C330" t="n">
-        <v>249.5</v>
+        <v>248.7</v>
       </c>
       <c r="D330" t="n">
-        <v>249.5</v>
+        <v>248.7</v>
       </c>
       <c r="E330" t="n">
-        <v>247.8</v>
+        <v>248.7</v>
       </c>
       <c r="F330" t="n">
-        <v>9668.23</v>
+        <v>240.0121</v>
       </c>
       <c r="G330" t="n">
-        <v>248.2533333333333</v>
+        <v>248.2166666666666</v>
       </c>
       <c r="H330" t="n">
         <v>0</v>
@@ -12372,22 +12334,22 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
+        <v>248.7</v>
+      </c>
+      <c r="C331" t="n">
         <v>249.5</v>
       </c>
-      <c r="C331" t="n">
-        <v>250</v>
-      </c>
       <c r="D331" t="n">
-        <v>250</v>
+        <v>249.5</v>
       </c>
       <c r="E331" t="n">
-        <v>249.5</v>
+        <v>247.8</v>
       </c>
       <c r="F331" t="n">
-        <v>21891.8014</v>
+        <v>9668.23</v>
       </c>
       <c r="G331" t="n">
-        <v>248.3</v>
+        <v>248.2533333333333</v>
       </c>
       <c r="H331" t="n">
         <v>0</v>
@@ -12407,22 +12369,22 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>248.7</v>
+        <v>249.5</v>
       </c>
       <c r="C332" t="n">
-        <v>248.7</v>
+        <v>250</v>
       </c>
       <c r="D332" t="n">
-        <v>248.7</v>
+        <v>250</v>
       </c>
       <c r="E332" t="n">
-        <v>248.7</v>
+        <v>249.5</v>
       </c>
       <c r="F332" t="n">
-        <v>4172.7506</v>
+        <v>21891.8014</v>
       </c>
       <c r="G332" t="n">
-        <v>248.3233333333333</v>
+        <v>248.3</v>
       </c>
       <c r="H332" t="n">
         <v>0</v>
@@ -12442,7 +12404,7 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>248</v>
+        <v>248.7</v>
       </c>
       <c r="C333" t="n">
         <v>248.7</v>
@@ -12451,13 +12413,13 @@
         <v>248.7</v>
       </c>
       <c r="E333" t="n">
-        <v>247.9</v>
+        <v>248.7</v>
       </c>
       <c r="F333" t="n">
-        <v>3104.3023</v>
+        <v>4172.7506</v>
       </c>
       <c r="G333" t="n">
-        <v>248.3433333333333</v>
+        <v>248.3233333333333</v>
       </c>
       <c r="H333" t="n">
         <v>0</v>
@@ -12477,7 +12439,7 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>248.7</v>
+        <v>248</v>
       </c>
       <c r="C334" t="n">
         <v>248.7</v>
@@ -12486,13 +12448,13 @@
         <v>248.7</v>
       </c>
       <c r="E334" t="n">
-        <v>248.7</v>
+        <v>247.9</v>
       </c>
       <c r="F334" t="n">
-        <v>1115.2296</v>
+        <v>3104.3023</v>
       </c>
       <c r="G334" t="n">
-        <v>248.3666666666667</v>
+        <v>248.3433333333333</v>
       </c>
       <c r="H334" t="n">
         <v>0</v>
@@ -12512,22 +12474,22 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>248.2</v>
+        <v>248.7</v>
       </c>
       <c r="C335" t="n">
-        <v>248.2</v>
+        <v>248.7</v>
       </c>
       <c r="D335" t="n">
-        <v>248.2</v>
+        <v>248.7</v>
       </c>
       <c r="E335" t="n">
-        <v>248.2</v>
+        <v>248.7</v>
       </c>
       <c r="F335" t="n">
-        <v>9878.0856</v>
+        <v>1115.2296</v>
       </c>
       <c r="G335" t="n">
-        <v>248.37</v>
+        <v>248.3666666666667</v>
       </c>
       <c r="H335" t="n">
         <v>0</v>
@@ -12550,19 +12512,19 @@
         <v>248.2</v>
       </c>
       <c r="C336" t="n">
-        <v>247.9</v>
+        <v>248.2</v>
       </c>
       <c r="D336" t="n">
         <v>248.2</v>
       </c>
       <c r="E336" t="n">
-        <v>247.9</v>
+        <v>248.2</v>
       </c>
       <c r="F336" t="n">
-        <v>1544.891</v>
+        <v>9878.0856</v>
       </c>
       <c r="G336" t="n">
-        <v>248.3833333333334</v>
+        <v>248.37</v>
       </c>
       <c r="H336" t="n">
         <v>0</v>
@@ -12582,22 +12544,22 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>247.8</v>
+        <v>248.2</v>
       </c>
       <c r="C337" t="n">
-        <v>247.7</v>
+        <v>247.9</v>
       </c>
       <c r="D337" t="n">
-        <v>247.8</v>
+        <v>248.2</v>
       </c>
       <c r="E337" t="n">
-        <v>247.7</v>
+        <v>247.9</v>
       </c>
       <c r="F337" t="n">
-        <v>35611.8357</v>
+        <v>1544.891</v>
       </c>
       <c r="G337" t="n">
-        <v>248.3933333333334</v>
+        <v>248.3833333333334</v>
       </c>
       <c r="H337" t="n">
         <v>0</v>
@@ -12617,22 +12579,22 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>247.7</v>
+        <v>247.8</v>
       </c>
       <c r="C338" t="n">
         <v>247.7</v>
       </c>
       <c r="D338" t="n">
-        <v>247.7</v>
+        <v>247.8</v>
       </c>
       <c r="E338" t="n">
         <v>247.7</v>
       </c>
       <c r="F338" t="n">
-        <v>9369.6185</v>
+        <v>35611.8357</v>
       </c>
       <c r="G338" t="n">
-        <v>248.3883333333334</v>
+        <v>248.3933333333334</v>
       </c>
       <c r="H338" t="n">
         <v>0</v>
@@ -12664,10 +12626,10 @@
         <v>247.7</v>
       </c>
       <c r="F339" t="n">
-        <v>49.824</v>
+        <v>9369.6185</v>
       </c>
       <c r="G339" t="n">
-        <v>248.3983333333334</v>
+        <v>248.3883333333334</v>
       </c>
       <c r="H339" t="n">
         <v>0</v>
@@ -12699,10 +12661,10 @@
         <v>247.7</v>
       </c>
       <c r="F340" t="n">
-        <v>18391.3724</v>
+        <v>49.824</v>
       </c>
       <c r="G340" t="n">
-        <v>248.4016666666667</v>
+        <v>248.3983333333334</v>
       </c>
       <c r="H340" t="n">
         <v>0</v>
@@ -12722,19 +12684,19 @@
         <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>248</v>
+        <v>247.7</v>
       </c>
       <c r="C341" t="n">
-        <v>248</v>
+        <v>247.7</v>
       </c>
       <c r="D341" t="n">
-        <v>248</v>
+        <v>247.7</v>
       </c>
       <c r="E341" t="n">
-        <v>248</v>
+        <v>247.7</v>
       </c>
       <c r="F341" t="n">
-        <v>224.5477</v>
+        <v>18391.3724</v>
       </c>
       <c r="G341" t="n">
         <v>248.4016666666667</v>
@@ -12769,7 +12731,7 @@
         <v>248</v>
       </c>
       <c r="F342" t="n">
-        <v>2153.1159</v>
+        <v>224.5477</v>
       </c>
       <c r="G342" t="n">
         <v>248.4016666666667</v>
@@ -12804,7 +12766,7 @@
         <v>248</v>
       </c>
       <c r="F343" t="n">
-        <v>2055.0804</v>
+        <v>2153.1159</v>
       </c>
       <c r="G343" t="n">
         <v>248.4016666666667</v>
@@ -12827,22 +12789,22 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>247.5</v>
+        <v>248</v>
       </c>
       <c r="C344" t="n">
-        <v>247.5</v>
+        <v>248</v>
       </c>
       <c r="D344" t="n">
-        <v>247.5</v>
+        <v>248</v>
       </c>
       <c r="E344" t="n">
-        <v>247.5</v>
+        <v>248</v>
       </c>
       <c r="F344" t="n">
-        <v>567.256</v>
+        <v>2055.0804</v>
       </c>
       <c r="G344" t="n">
-        <v>248.3866666666667</v>
+        <v>248.4016666666667</v>
       </c>
       <c r="H344" t="n">
         <v>0</v>
@@ -12874,10 +12836,10 @@
         <v>247.5</v>
       </c>
       <c r="F345" t="n">
-        <v>3008.5185</v>
+        <v>567.256</v>
       </c>
       <c r="G345" t="n">
-        <v>248.3783333333334</v>
+        <v>248.3866666666667</v>
       </c>
       <c r="H345" t="n">
         <v>0</v>
@@ -12892,6 +12854,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="346">
+      <c r="A346" s="1" t="n">
+        <v>344</v>
+      </c>
+      <c r="B346" t="n">
+        <v>247.5</v>
+      </c>
+      <c r="C346" t="n">
+        <v>247.5</v>
+      </c>
+      <c r="D346" t="n">
+        <v>247.5</v>
+      </c>
+      <c r="E346" t="n">
+        <v>247.5</v>
+      </c>
+      <c r="F346" t="n">
+        <v>3008.5185</v>
+      </c>
+      <c r="G346" t="n">
+        <v>248.3783333333334</v>
+      </c>
+      <c r="H346" t="n">
+        <v>0</v>
+      </c>
+      <c r="I346" t="n">
+        <v>0</v>
+      </c>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
+      <c r="L346" t="inlineStr"/>
+      <c r="M346" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-15 BackTest MTL.xlsx
+++ b/BackTest/2020-01-15 BackTest MTL.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-38259.27124069999</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-37847.14764069999</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-37847.14764069999</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-38148.34764069999</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-38146.34764069999</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-47447.84704069999</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-47445.84704069999</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-48048.49774069999</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-47148.45414069999</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-48139.2725407</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-48161.2725407</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-60114.53534069999</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-60010.53534069999</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-60458.10214069999</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-61735.05474069999</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-61735.05474069999</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-61735.05474069999</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-62935.05474069999</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-65699.05824069999</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-65699.05824069999</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-65770.95824069998</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-65770.95824069998</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-65726.35424069998</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-69422.37234069998</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-69422.37234069998</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-69422.37234069998</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-69422.37234069998</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-69417.77234069997</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-70787.64074069998</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-70787.64074069998</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-70783.34074069998</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-70783.34074069998</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-121251.9924407</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-121251.9924407</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-123251.9924407</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-123251.9924407</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-113335.5826407</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-113753.3909407</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -3355,17 +3355,11 @@
         <v>-333996.0841230001</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
-      </c>
-      <c r="I90" t="n">
-        <v>240.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3394,17 +3388,11 @@
         <v>-330494.7808230001</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
-      </c>
-      <c r="I91" t="n">
-        <v>240.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3437,11 +3425,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3470,17 +3454,11 @@
         <v>-333459.9681230001</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
-      </c>
-      <c r="I93" t="n">
-        <v>240.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3509,17 +3487,11 @@
         <v>-333447.6574230001</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
-      </c>
-      <c r="I94" t="n">
-        <v>240.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3548,17 +3520,11 @@
         <v>-335648.0147230001</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
-      </c>
-      <c r="I95" t="n">
-        <v>243</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3587,17 +3553,11 @@
         <v>-335170.1947230001</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
-      </c>
-      <c r="I96" t="n">
-        <v>240.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3630,11 +3590,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3667,11 +3623,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3704,11 +3656,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3741,11 +3689,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3778,11 +3722,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3815,11 +3755,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3852,11 +3788,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3889,11 +3821,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3922,17 +3850,11 @@
         <v>-339134.419423</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
-      </c>
-      <c r="I105" t="n">
-        <v>240.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3965,11 +3887,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4002,11 +3920,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4039,11 +3953,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4072,17 +3982,11 @@
         <v>-354798.201923</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
-      </c>
-      <c r="I109" t="n">
-        <v>240.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4111,17 +4015,11 @@
         <v>-354798.201923</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
-      </c>
-      <c r="I110" t="n">
-        <v>240.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4150,17 +4048,11 @@
         <v>-354798.201923</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
-      </c>
-      <c r="I111" t="n">
-        <v>240.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4189,17 +4081,11 @@
         <v>-347157.7710230001</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
-      </c>
-      <c r="I112" t="n">
-        <v>240.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4228,17 +4114,11 @@
         <v>-361068.725323</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
-      </c>
-      <c r="I113" t="n">
-        <v>240.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4267,17 +4147,11 @@
         <v>-358158.156223</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
-      </c>
-      <c r="I114" t="n">
-        <v>240.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4306,17 +4180,11 @@
         <v>-358158.156223</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
-      </c>
-      <c r="I115" t="n">
-        <v>241</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4349,11 +4217,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4382,17 +4246,11 @@
         <v>-362960.536223</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
-      </c>
-      <c r="I117" t="n">
-        <v>240.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4421,17 +4279,11 @@
         <v>-361182.018823</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
-      </c>
-      <c r="I118" t="n">
-        <v>240.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4460,17 +4312,11 @@
         <v>-354785.101223</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
-      </c>
-      <c r="I119" t="n">
-        <v>240.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4499,17 +4345,11 @@
         <v>-336076.317123</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
-      </c>
-      <c r="I120" t="n">
-        <v>241.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4538,17 +4378,11 @@
         <v>-336076.317123</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
-      </c>
-      <c r="I121" t="n">
-        <v>242.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4577,17 +4411,11 @@
         <v>-295752.9561230001</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
-      </c>
-      <c r="I122" t="n">
-        <v>242.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4616,17 +4444,11 @@
         <v>-299725.0332230001</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
-      </c>
-      <c r="I123" t="n">
-        <v>242.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4655,17 +4477,11 @@
         <v>-299714.0207230001</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
-      </c>
-      <c r="I124" t="n">
-        <v>242.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4694,17 +4510,11 @@
         <v>-307215.4852230001</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
-      </c>
-      <c r="I125" t="n">
-        <v>243</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4733,17 +4543,11 @@
         <v>-307215.4852230001</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
-      </c>
-      <c r="I126" t="n">
-        <v>242.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4772,17 +4576,11 @@
         <v>-307215.4852230001</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
-      </c>
-      <c r="I127" t="n">
-        <v>242.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4811,17 +4609,11 @@
         <v>-313180.402823</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
-      </c>
-      <c r="I128" t="n">
-        <v>242.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4850,17 +4642,11 @@
         <v>-313180.402823</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
-      </c>
-      <c r="I129" t="n">
-        <v>242</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4889,17 +4675,11 @@
         <v>-313180.402823</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
-      </c>
-      <c r="I130" t="n">
-        <v>242</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4928,17 +4708,11 @@
         <v>-313180.402823</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
-      </c>
-      <c r="I131" t="n">
-        <v>242</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4967,17 +4741,11 @@
         <v>-322831.206423</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
-      </c>
-      <c r="I132" t="n">
-        <v>242</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5006,17 +4774,11 @@
         <v>-322156.706423</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
-      </c>
-      <c r="I133" t="n">
-        <v>241.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5045,17 +4807,11 @@
         <v>-322156.706423</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
-      </c>
-      <c r="I134" t="n">
-        <v>242.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5084,17 +4840,11 @@
         <v>-327656.706423</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
-      </c>
-      <c r="I135" t="n">
-        <v>242.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5123,17 +4873,11 @@
         <v>-326342.943823</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
-      </c>
-      <c r="I136" t="n">
-        <v>241</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5162,17 +4906,11 @@
         <v>-326342.943823</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
-      </c>
-      <c r="I137" t="n">
-        <v>242</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5201,17 +4939,11 @@
         <v>-326342.943823</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
-      </c>
-      <c r="I138" t="n">
-        <v>242</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5240,17 +4972,11 @@
         <v>-326334.709923</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
-      </c>
-      <c r="I139" t="n">
-        <v>242</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5283,11 +5009,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5316,17 +5038,11 @@
         <v>-330699.46383153</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
-      </c>
-      <c r="I141" t="n">
-        <v>243.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5359,11 +5075,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5396,11 +5108,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5433,11 +5141,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5470,11 +5174,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5507,11 +5207,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5544,11 +5240,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5581,11 +5273,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5618,11 +5306,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5655,11 +5339,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5692,11 +5372,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5729,11 +5405,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5762,17 +5434,11 @@
         <v>-760458.10113153</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
-      </c>
-      <c r="I153" t="n">
-        <v>241.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5805,11 +5471,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5842,11 +5504,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5875,7 +5533,7 @@
         <v>-762210.1010315301</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I156" t="n">
         <v>241.5</v>
@@ -5883,7 +5541,7 @@
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L156" t="n">
@@ -5914,7 +5572,7 @@
         <v>-760527.10113153</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I157" t="n">
         <v>241.1</v>
@@ -5953,11 +5611,9 @@
         <v>-756937.07323153</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
-      </c>
-      <c r="I158" t="n">
-        <v>241.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
@@ -5992,7 +5648,7 @@
         <v>-756801.6589315301</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I159" t="n">
         <v>242</v>
@@ -12987,16 +12643,18 @@
         <v>-832170.9453958799</v>
       </c>
       <c r="H348" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L348" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L348" t="n">
+        <v>1</v>
+      </c>
       <c r="M348" t="inlineStr"/>
     </row>
     <row r="349">
@@ -13026,7 +12684,11 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -13059,7 +12721,11 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -13092,7 +12758,11 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13125,7 +12795,11 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13158,7 +12832,11 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13191,7 +12869,11 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13224,7 +12906,11 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13257,7 +12943,11 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13290,7 +12980,11 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13323,7 +13017,11 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13356,7 +13054,11 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13385,11 +13087,15 @@
         <v>-833664.6976266399</v>
       </c>
       <c r="H360" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13422,7 +13128,11 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13455,7 +13165,11 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13488,7 +13202,11 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13521,7 +13239,11 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13554,7 +13276,11 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13587,7 +13313,11 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13620,7 +13350,11 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13653,7 +13387,11 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13686,7 +13424,11 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13719,7 +13461,11 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13752,7 +13498,11 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13785,7 +13535,11 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13818,7 +13572,11 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13851,7 +13609,11 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13880,11 +13642,15 @@
         <v>-823244.26586817</v>
       </c>
       <c r="H375" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13913,11 +13679,15 @@
         <v>-832732.91176817</v>
       </c>
       <c r="H376" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13950,7 +13720,11 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13983,7 +13757,11 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -14016,7 +13794,11 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -14049,7 +13831,11 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -14082,7 +13868,11 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14115,7 +13905,11 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14148,7 +13942,11 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14181,7 +13979,11 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14214,7 +14016,11 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14247,7 +14053,11 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14280,7 +14090,11 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14313,7 +14127,11 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14346,7 +14164,11 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14379,7 +14201,11 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14412,7 +14238,11 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14445,7 +14275,11 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14478,7 +14312,11 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14511,7 +14349,11 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14544,7 +14386,11 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14577,7 +14423,11 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14610,7 +14460,11 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14643,7 +14497,11 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14676,7 +14534,11 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14709,7 +14571,11 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14742,7 +14608,11 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14775,7 +14645,11 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14808,7 +14682,11 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14841,7 +14719,11 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14874,7 +14756,11 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14907,7 +14793,11 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14940,7 +14830,11 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14973,7 +14867,11 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -15006,7 +14904,11 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -15039,7 +14941,11 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15072,7 +14978,11 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15105,7 +15015,11 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15138,7 +15052,11 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -15171,13 +15089,17 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
       <c r="M414" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest MTL.xlsx
+++ b/BackTest/2020-01-15 BackTest MTL.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -781,7 +781,7 @@
         <v>-48139.2725407</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-60114.53534069999</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-60010.53534069999</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-60458.10214069999</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-61735.05474069999</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-61735.05474069999</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-61735.05474069999</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-62935.05474069999</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-65699.05824069999</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-65699.05824069999</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-65770.95824069998</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-65770.95824069998</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-65726.35424069998</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-69422.37234069998</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-69422.37234069998</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-69422.37234069998</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-69422.37234069998</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-69417.77234069997</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-70787.64074069998</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-70787.64074069998</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-70783.34074069998</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-70783.34074069998</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-121251.9924407</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -5533,17 +5533,11 @@
         <v>-762210.1010315301</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>241.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5572,17 +5566,11 @@
         <v>-760527.10113153</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>241.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5615,11 +5603,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5648,17 +5632,11 @@
         <v>-756801.6589315301</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>242</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5691,11 +5669,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5728,11 +5702,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5765,11 +5735,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5802,11 +5768,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5839,11 +5801,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5876,11 +5834,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5913,11 +5867,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5950,11 +5900,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5987,11 +5933,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6024,11 +5966,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6061,11 +5999,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6098,11 +6032,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6135,11 +6065,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6172,11 +6098,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6209,11 +6131,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6246,11 +6164,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6283,11 +6197,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6320,11 +6230,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6357,11 +6263,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6394,11 +6296,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6427,15 +6325,11 @@
         <v>-753411.9051601798</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6464,15 +6358,11 @@
         <v>-764084.6815601798</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6505,11 +6395,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6542,11 +6428,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6579,11 +6461,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6616,11 +6494,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6653,11 +6527,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6690,11 +6560,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6727,11 +6593,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6764,11 +6626,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6801,11 +6659,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6838,11 +6692,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6875,11 +6725,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6912,11 +6758,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6949,11 +6791,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6986,11 +6824,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7023,11 +6857,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7060,11 +6890,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7097,11 +6923,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7134,11 +6956,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7171,11 +6989,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7208,11 +7022,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7241,15 +7051,11 @@
         <v>-855465.4773468396</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7282,11 +7088,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7315,15 +7117,11 @@
         <v>-855465.4773468396</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7356,11 +7154,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7393,11 +7187,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7430,11 +7220,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7467,11 +7253,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7504,11 +7286,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7541,11 +7319,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7578,11 +7352,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7615,11 +7385,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7652,11 +7418,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7685,15 +7447,11 @@
         <v>-852107.1390468397</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7722,15 +7480,11 @@
         <v>-852127.1390468397</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7763,11 +7517,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7800,11 +7550,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7837,11 +7583,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7874,11 +7616,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7911,11 +7649,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7948,11 +7682,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7985,11 +7715,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8022,11 +7748,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8059,11 +7781,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8096,11 +7814,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8133,11 +7847,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8170,11 +7880,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8207,11 +7913,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8244,11 +7946,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8277,13 +7975,15 @@
         <v>-839517.8367468397</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I230" t="n">
+        <v>243.5</v>
+      </c>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L230" t="n">
@@ -8388,9 +8088,11 @@
         <v>-840422.5444468397</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I233" t="n">
+        <v>243.6</v>
+      </c>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
@@ -9683,18 +9385,16 @@
         <v>-819221.7358322897</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
+      <c r="L268" t="inlineStr"/>
       <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
@@ -9720,15 +9420,11 @@
         <v>-819576.7358322897</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9757,15 +9453,11 @@
         <v>-819398.7358322897</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9794,15 +9486,11 @@
         <v>-818551.7358322897</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9831,15 +9519,11 @@
         <v>-818551.7358322897</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9868,15 +9552,11 @@
         <v>-818551.7358322897</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9905,15 +9585,11 @@
         <v>-818551.7358322897</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9942,15 +9618,11 @@
         <v>-817640.7358322897</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9979,15 +9651,11 @@
         <v>-817787.7357322897</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10016,15 +9684,11 @@
         <v>-822121.4878322898</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10053,15 +9717,11 @@
         <v>-822121.4878322898</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10090,15 +9750,11 @@
         <v>-822121.4878322898</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10127,15 +9783,11 @@
         <v>-824679.4878322898</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10164,15 +9816,11 @@
         <v>-833538.5214322897</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10201,15 +9849,11 @@
         <v>-832773.0646322897</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10238,15 +9882,11 @@
         <v>-835639.4381322897</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10275,15 +9915,11 @@
         <v>-835171.3186811197</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10312,15 +9948,11 @@
         <v>-835171.3186811197</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10353,11 +9985,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10390,11 +10018,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10427,11 +10051,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10460,15 +10080,11 @@
         <v>-827209.9253660297</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10501,11 +10117,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10538,11 +10150,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10571,15 +10179,11 @@
         <v>-822773.4668660298</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10608,15 +10212,11 @@
         <v>-822773.4668660298</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10649,11 +10249,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10682,15 +10278,11 @@
         <v>-822773.4668660298</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10723,11 +10315,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10760,11 +10348,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10797,11 +10381,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10834,11 +10414,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10871,11 +10447,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10908,11 +10480,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10945,11 +10513,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10982,11 +10546,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11019,11 +10579,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11056,11 +10612,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11093,11 +10645,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11130,11 +10678,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11167,11 +10711,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11200,15 +10740,11 @@
         <v>-816473.1271261497</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11241,11 +10777,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11278,11 +10810,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11315,11 +10843,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11352,11 +10876,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11385,15 +10905,11 @@
         <v>-813209.4155261497</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11426,11 +10942,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11463,11 +10975,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11500,11 +11008,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11533,15 +11037,11 @@
         <v>-813783.5581261498</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11574,11 +11074,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11611,11 +11107,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11648,11 +11140,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11685,11 +11173,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11722,11 +11206,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11759,11 +11239,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11796,11 +11272,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11829,15 +11301,11 @@
         <v>-834507.0727956699</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11866,15 +11334,11 @@
         <v>-837518.0975956699</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11903,15 +11367,11 @@
         <v>-837518.0975956699</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11940,15 +11400,11 @@
         <v>-837508.0975956699</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11977,15 +11433,11 @@
         <v>-837513.0975956699</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12014,15 +11466,11 @@
         <v>-837413.0975956699</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12055,11 +11503,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12092,11 +11536,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12129,11 +11569,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12166,11 +11602,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12199,15 +11631,15 @@
         <v>-837595.5227956699</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
-      </c>
-      <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I336" t="n">
+        <v>247.1</v>
+      </c>
+      <c r="J336" t="n">
+        <v>247.1</v>
+      </c>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12236,13 +11668,17 @@
         <v>-837145.5227956699</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
-      </c>
-      <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I337" t="n">
+        <v>247.1</v>
+      </c>
+      <c r="J337" t="n">
+        <v>247.1</v>
+      </c>
       <c r="K337" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L337" t="n">
@@ -12276,10 +11712,12 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>247.1</v>
+      </c>
       <c r="K338" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L338" t="n">
@@ -12314,11 +11752,7 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12351,11 +11785,7 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12388,11 +11818,7 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12421,15 +11847,15 @@
         <v>-833013.96009567</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
-      </c>
-      <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I342" t="n">
+        <v>248</v>
+      </c>
+      <c r="J342" t="n">
+        <v>248</v>
+      </c>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12458,13 +11884,17 @@
         <v>-827070.48899567</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
-      </c>
-      <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I343" t="n">
+        <v>248</v>
+      </c>
+      <c r="J343" t="n">
+        <v>248</v>
+      </c>
       <c r="K343" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L343" t="n">
@@ -12495,13 +11925,17 @@
         <v>-827237.48899567</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
-      </c>
-      <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I344" t="n">
+        <v>248.4</v>
+      </c>
+      <c r="J344" t="n">
+        <v>248</v>
+      </c>
       <c r="K344" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L344" t="n">
@@ -12532,15 +11966,15 @@
         <v>-826788.2316956699</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
-      </c>
-      <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I345" t="n">
+        <v>248</v>
+      </c>
+      <c r="J345" t="n">
+        <v>248</v>
+      </c>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12572,10 +12006,12 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>248</v>
+      </c>
       <c r="K346" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L346" t="n">
@@ -12606,13 +12042,17 @@
         <v>-832188.8286956699</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
-      </c>
-      <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I347" t="n">
+        <v>248.1</v>
+      </c>
+      <c r="J347" t="n">
+        <v>248</v>
+      </c>
       <c r="K347" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L347" t="n">
@@ -12643,10 +12083,14 @@
         <v>-832170.9453958799</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
-      </c>
-      <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I348" t="n">
+        <v>248</v>
+      </c>
+      <c r="J348" t="n">
+        <v>248</v>
+      </c>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12680,10 +12124,14 @@
         <v>-832173.9453958799</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
-      </c>
-      <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I349" t="n">
+        <v>248.5</v>
+      </c>
+      <c r="J349" t="n">
+        <v>248</v>
+      </c>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12717,10 +12165,14 @@
         <v>-832173.9453958799</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
-      </c>
-      <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I350" t="n">
+        <v>247.7</v>
+      </c>
+      <c r="J350" t="n">
+        <v>248</v>
+      </c>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12754,10 +12206,14 @@
         <v>-832158.9453958799</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
-      </c>
-      <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I351" t="n">
+        <v>247.7</v>
+      </c>
+      <c r="J351" t="n">
+        <v>248</v>
+      </c>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12791,10 +12247,14 @@
         <v>-832158.9453958799</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
-      </c>
-      <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I352" t="n">
+        <v>248</v>
+      </c>
+      <c r="J352" t="n">
+        <v>248</v>
+      </c>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12828,10 +12288,14 @@
         <v>-831158.9453958799</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
-      </c>
-      <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I353" t="n">
+        <v>248</v>
+      </c>
+      <c r="J353" t="n">
+        <v>248</v>
+      </c>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12868,7 +12332,9 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>248</v>
+      </c>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12905,7 +12371,9 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>248</v>
+      </c>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12942,7 +12410,9 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>248</v>
+      </c>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12979,7 +12449,9 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>248</v>
+      </c>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13016,7 +12488,9 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>248</v>
+      </c>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13053,7 +12527,9 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>248</v>
+      </c>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13090,7 +12566,9 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>248</v>
+      </c>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13124,10 +12602,14 @@
         <v>-833167.4593266399</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
-      </c>
-      <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I361" t="n">
+        <v>248</v>
+      </c>
+      <c r="J361" t="n">
+        <v>248</v>
+      </c>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13164,7 +12646,9 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>248</v>
+      </c>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13201,7 +12685,9 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>248</v>
+      </c>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13238,7 +12724,9 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>248</v>
+      </c>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13275,7 +12763,9 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>248</v>
+      </c>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13312,7 +12802,9 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>248</v>
+      </c>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13349,7 +12841,9 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>248</v>
+      </c>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13386,7 +12880,9 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>248</v>
+      </c>
       <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13423,7 +12919,9 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>248</v>
+      </c>
       <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13460,7 +12958,9 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>248</v>
+      </c>
       <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13497,7 +12997,9 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>248</v>
+      </c>
       <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13534,7 +13036,9 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>248</v>
+      </c>
       <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13571,7 +13075,9 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>248</v>
+      </c>
       <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13608,7 +13114,9 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>248</v>
+      </c>
       <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13645,7 +13153,9 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>248</v>
+      </c>
       <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13682,7 +13192,9 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>248</v>
+      </c>
       <c r="K376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13719,7 +13231,9 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>248</v>
+      </c>
       <c r="K377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13756,7 +13270,9 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>248</v>
+      </c>
       <c r="K378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13793,7 +13309,9 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>248</v>
+      </c>
       <c r="K379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13830,7 +13348,9 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>248</v>
+      </c>
       <c r="K380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13867,7 +13387,9 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>248</v>
+      </c>
       <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13904,7 +13426,9 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>248</v>
+      </c>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13941,7 +13465,9 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>248</v>
+      </c>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13978,7 +13504,9 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>248</v>
+      </c>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14015,7 +13543,9 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>248</v>
+      </c>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14052,7 +13582,9 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>248</v>
+      </c>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14089,7 +13621,9 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>248</v>
+      </c>
       <c r="K387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14126,7 +13660,9 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>248</v>
+      </c>
       <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14163,7 +13699,9 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>248</v>
+      </c>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14200,7 +13738,9 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>248</v>
+      </c>
       <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14237,7 +13777,9 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>248</v>
+      </c>
       <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14274,7 +13816,9 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>248</v>
+      </c>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14311,7 +13855,9 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>248</v>
+      </c>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14348,7 +13894,9 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>248</v>
+      </c>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14385,7 +13933,9 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>248</v>
+      </c>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14422,7 +13972,9 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>248</v>
+      </c>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14459,7 +14011,9 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>248</v>
+      </c>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14496,7 +14050,9 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>248</v>
+      </c>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14533,7 +14089,9 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>248</v>
+      </c>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14570,7 +14128,9 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>248</v>
+      </c>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14607,7 +14167,9 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>248</v>
+      </c>
       <c r="K401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14644,7 +14206,9 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>248</v>
+      </c>
       <c r="K402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14681,7 +14245,9 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>248</v>
+      </c>
       <c r="K403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14718,7 +14284,9 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>248</v>
+      </c>
       <c r="K404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14755,7 +14323,9 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>248</v>
+      </c>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14792,7 +14362,9 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>248</v>
+      </c>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14829,7 +14401,9 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>248</v>
+      </c>
       <c r="K407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14863,10 +14437,14 @@
         <v>-859354.7497204902</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
-      </c>
-      <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I408" t="n">
+        <v>248.1</v>
+      </c>
+      <c r="J408" t="n">
+        <v>248</v>
+      </c>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14903,7 +14481,9 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>248</v>
+      </c>
       <c r="K409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14940,7 +14520,9 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>248</v>
+      </c>
       <c r="K410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14977,7 +14559,9 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>248</v>
+      </c>
       <c r="K411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15014,7 +14598,9 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>248</v>
+      </c>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15051,7 +14637,9 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>248</v>
+      </c>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15088,7 +14676,9 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>248</v>
+      </c>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15100,6 +14690,6 @@
       <c r="M414" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest MTL.xlsx
+++ b/BackTest/2020-01-15 BackTest MTL.xlsx
@@ -451,7 +451,7 @@
         <v>-38259.27124069999</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-37847.14764069999</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-37847.14764069999</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-38148.34764069999</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-38146.34764069999</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-47447.84704069999</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-47445.84704069999</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-48048.49774069999</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-47148.45414069999</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-47133.11824069999</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-48139.2725407</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-48161.2725407</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-48161.2725407</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-753411.9051601798</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-764084.6815601798</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-855465.4773468396</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,10 +7084,14 @@
         <v>-855465.4773468396</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I203" t="n">
+        <v>244.5</v>
+      </c>
+      <c r="J203" t="n">
+        <v>244.5</v>
+      </c>
       <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
@@ -7117,11 +7121,19 @@
         <v>-855465.4773468396</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I204" t="n">
+        <v>244.5</v>
+      </c>
+      <c r="J204" t="n">
+        <v>244.5</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7150,11 +7162,19 @@
         <v>-860465.4773468396</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I205" t="n">
+        <v>244.5</v>
+      </c>
+      <c r="J205" t="n">
+        <v>244.5</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7183,10 +7203,14 @@
         <v>-860465.4773468396</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I206" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="J206" t="n">
+        <v>243.3</v>
+      </c>
       <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
@@ -7216,11 +7240,19 @@
         <v>-860465.4773468396</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I207" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="J207" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7249,11 +7281,19 @@
         <v>-860473.9546468396</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="J208" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7282,10 +7322,14 @@
         <v>-850134.1326468396</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I209" t="n">
+        <v>243.1</v>
+      </c>
+      <c r="J209" t="n">
+        <v>243.1</v>
+      </c>
       <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
@@ -7315,11 +7359,19 @@
         <v>-849690.6929468396</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>244.9</v>
+      </c>
+      <c r="J210" t="n">
+        <v>243.1</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7351,8 +7403,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>243.1</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7447,10 +7505,14 @@
         <v>-852107.1390468397</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I214" t="n">
+        <v>244.4</v>
+      </c>
+      <c r="J214" t="n">
+        <v>244.4</v>
+      </c>
       <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
@@ -7480,11 +7542,19 @@
         <v>-852127.1390468397</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I215" t="n">
+        <v>244.4</v>
+      </c>
+      <c r="J215" t="n">
+        <v>244.4</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7513,11 +7583,19 @@
         <v>-852127.1390468397</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I216" t="n">
+        <v>244</v>
+      </c>
+      <c r="J216" t="n">
+        <v>244.4</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7546,10 +7624,14 @@
         <v>-852127.1390468397</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>244</v>
+      </c>
+      <c r="J217" t="n">
+        <v>244</v>
+      </c>
       <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
@@ -7579,11 +7661,19 @@
         <v>-852217.1390468397</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I218" t="n">
+        <v>244</v>
+      </c>
+      <c r="J218" t="n">
+        <v>244</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7612,11 +7702,19 @@
         <v>-852217.1390468397</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I219" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="J219" t="n">
+        <v>244</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7645,10 +7743,14 @@
         <v>-851717.1390468397</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I220" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="J220" t="n">
+        <v>243.3</v>
+      </c>
       <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
@@ -7678,11 +7780,19 @@
         <v>-836425.7889468396</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I221" t="n">
+        <v>243.9</v>
+      </c>
+      <c r="J221" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7714,8 +7824,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7744,10 +7860,14 @@
         <v>-839981.9459468396</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I223" t="n">
+        <v>243.5</v>
+      </c>
+      <c r="J223" t="n">
+        <v>243.5</v>
+      </c>
       <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
@@ -7777,11 +7897,19 @@
         <v>-839959.9459468396</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I224" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="J224" t="n">
+        <v>243.5</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7810,11 +7938,19 @@
         <v>-841896.9459468396</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I225" t="n">
+        <v>244</v>
+      </c>
+      <c r="J225" t="n">
+        <v>243.5</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7843,11 +7979,19 @@
         <v>-841896.9459468396</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I226" t="n">
+        <v>243.4</v>
+      </c>
+      <c r="J226" t="n">
+        <v>243.5</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7876,11 +8020,19 @@
         <v>-842864.9459468396</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>243.4</v>
+      </c>
+      <c r="J227" t="n">
+        <v>243.5</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7909,11 +8061,19 @@
         <v>-840364.9459468396</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I228" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="J228" t="n">
+        <v>243.5</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -7942,11 +8102,19 @@
         <v>-840364.9459468396</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I229" t="n">
+        <v>243.5</v>
+      </c>
+      <c r="J229" t="n">
+        <v>243.5</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -7980,10 +8148,12 @@
       <c r="I230" t="n">
         <v>243.5</v>
       </c>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>243.5</v>
+      </c>
       <c r="K230" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L230" t="n">
@@ -8014,10 +8184,14 @@
         <v>-840422.5445468397</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I231" t="n">
+        <v>244</v>
+      </c>
+      <c r="J231" t="n">
+        <v>243.5</v>
+      </c>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8051,10 +8225,14 @@
         <v>-840422.5445468397</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I232" t="n">
+        <v>243.6</v>
+      </c>
+      <c r="J232" t="n">
+        <v>243.5</v>
+      </c>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8093,7 +8271,9 @@
       <c r="I233" t="n">
         <v>243.6</v>
       </c>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>243.5</v>
+      </c>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8127,10 +8307,14 @@
         <v>-839830.5444468397</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I234" t="n">
+        <v>244</v>
+      </c>
+      <c r="J234" t="n">
+        <v>243.5</v>
+      </c>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8164,10 +8348,14 @@
         <v>-839830.5444468397</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I235" t="n">
+        <v>245</v>
+      </c>
+      <c r="J235" t="n">
+        <v>243.5</v>
+      </c>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8201,10 +8389,14 @@
         <v>-839694.9738468397</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I236" t="n">
+        <v>245</v>
+      </c>
+      <c r="J236" t="n">
+        <v>243.5</v>
+      </c>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8238,10 +8430,14 @@
         <v>-849685.6627468397</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I237" t="n">
+        <v>245.1</v>
+      </c>
+      <c r="J237" t="n">
+        <v>243.5</v>
+      </c>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8275,10 +8471,14 @@
         <v>-849675.6627468397</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I238" t="n">
+        <v>243.4</v>
+      </c>
+      <c r="J238" t="n">
+        <v>243.5</v>
+      </c>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8312,10 +8512,14 @@
         <v>-852676.2988468397</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I239" t="n">
+        <v>244.7</v>
+      </c>
+      <c r="J239" t="n">
+        <v>243.5</v>
+      </c>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8349,10 +8553,14 @@
         <v>-852476.2988468397</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I240" t="n">
+        <v>243.7</v>
+      </c>
+      <c r="J240" t="n">
+        <v>243.5</v>
+      </c>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8386,10 +8594,14 @@
         <v>-852476.2988468397</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I241" t="n">
+        <v>245.8</v>
+      </c>
+      <c r="J241" t="n">
+        <v>243.5</v>
+      </c>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8423,10 +8635,14 @@
         <v>-852483.2988468397</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I242" t="n">
+        <v>245.8</v>
+      </c>
+      <c r="J242" t="n">
+        <v>243.5</v>
+      </c>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8460,10 +8676,14 @@
         <v>-852481.2662468397</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I243" t="n">
+        <v>244.6</v>
+      </c>
+      <c r="J243" t="n">
+        <v>243.5</v>
+      </c>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8497,10 +8717,14 @@
         <v>-852381.2662468397</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I244" t="n">
+        <v>246</v>
+      </c>
+      <c r="J244" t="n">
+        <v>243.5</v>
+      </c>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8537,7 +8761,9 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>243.5</v>
+      </c>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8574,7 +8800,9 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>243.5</v>
+      </c>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8611,7 +8839,9 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>243.5</v>
+      </c>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8648,7 +8878,9 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>243.5</v>
+      </c>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8685,7 +8917,9 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>243.5</v>
+      </c>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8722,7 +8956,9 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>243.5</v>
+      </c>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8759,7 +8995,9 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>243.5</v>
+      </c>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8796,7 +9034,9 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>243.5</v>
+      </c>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8833,7 +9073,9 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>243.5</v>
+      </c>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8867,10 +9109,14 @@
         <v>-834910.0616619097</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
+        <v>246.2</v>
+      </c>
+      <c r="J254" t="n">
+        <v>243.5</v>
+      </c>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8907,7 +9153,9 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>243.5</v>
+      </c>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8944,7 +9192,9 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>243.5</v>
+      </c>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8981,7 +9231,9 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>243.5</v>
+      </c>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9018,7 +9270,9 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>243.5</v>
+      </c>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9055,7 +9309,9 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>243.5</v>
+      </c>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9092,7 +9348,9 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>243.5</v>
+      </c>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9129,7 +9387,9 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>243.5</v>
+      </c>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9166,7 +9426,9 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>243.5</v>
+      </c>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9203,7 +9465,9 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>243.5</v>
+      </c>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9240,7 +9504,9 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>243.5</v>
+      </c>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9277,7 +9543,9 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>243.5</v>
+      </c>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9311,10 +9579,14 @@
         <v>-827264.2247619097</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>246.5</v>
+      </c>
+      <c r="J266" t="n">
+        <v>243.5</v>
+      </c>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9348,10 +9620,14 @@
         <v>-823785.2929070797</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>246.8</v>
+      </c>
+      <c r="J267" t="n">
+        <v>243.5</v>
+      </c>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9385,16 +9661,20 @@
         <v>-819221.7358322897</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>243.5</v>
+      </c>
       <c r="K268" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L268" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
       <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
@@ -9420,11 +9700,17 @@
         <v>-819576.7358322897</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>243.5</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9453,11 +9739,19 @@
         <v>-819398.7358322897</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I270" t="n">
+        <v>246</v>
+      </c>
+      <c r="J270" t="n">
+        <v>243.5</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9486,11 +9780,19 @@
         <v>-818551.7358322897</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I271" t="n">
+        <v>246.1</v>
+      </c>
+      <c r="J271" t="n">
+        <v>243.5</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9519,11 +9821,19 @@
         <v>-818551.7358322897</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I272" t="n">
+        <v>246.5</v>
+      </c>
+      <c r="J272" t="n">
+        <v>243.5</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9552,11 +9862,17 @@
         <v>-818551.7358322897</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>243.5</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9585,11 +9901,17 @@
         <v>-818551.7358322897</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>243.5</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9618,11 +9940,17 @@
         <v>-817640.7358322897</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>243.5</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9651,11 +9979,19 @@
         <v>-817787.7357322897</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I276" t="n">
+        <v>246.6</v>
+      </c>
+      <c r="J276" t="n">
+        <v>243.5</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9684,11 +10020,17 @@
         <v>-822121.4878322898</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>243.5</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9717,11 +10059,19 @@
         <v>-822121.4878322898</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I278" t="n">
+        <v>246.4</v>
+      </c>
+      <c r="J278" t="n">
+        <v>243.5</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9750,11 +10100,19 @@
         <v>-822121.4878322898</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I279" t="n">
+        <v>246.4</v>
+      </c>
+      <c r="J279" t="n">
+        <v>243.5</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9783,11 +10141,19 @@
         <v>-824679.4878322898</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I280" t="n">
+        <v>246.4</v>
+      </c>
+      <c r="J280" t="n">
+        <v>243.5</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9816,11 +10182,19 @@
         <v>-833538.5214322897</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I281" t="n">
+        <v>246.3</v>
+      </c>
+      <c r="J281" t="n">
+        <v>243.5</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9849,11 +10223,19 @@
         <v>-832773.0646322897</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I282" t="n">
+        <v>246</v>
+      </c>
+      <c r="J282" t="n">
+        <v>243.5</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9882,11 +10264,17 @@
         <v>-835639.4381322897</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>243.5</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9915,11 +10303,17 @@
         <v>-835171.3186811197</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>243.5</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9948,11 +10342,17 @@
         <v>-835171.3186811197</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>243.5</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -9984,8 +10384,14 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>243.5</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10017,8 +10423,14 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>243.5</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10050,8 +10462,14 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>243.5</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10080,11 +10498,17 @@
         <v>-827209.9253660297</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>243.5</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10116,8 +10540,14 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>243.5</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10149,8 +10579,14 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>243.5</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10179,11 +10615,17 @@
         <v>-822773.4668660298</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>243.5</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10212,11 +10654,17 @@
         <v>-822773.4668660298</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>243.5</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10248,8 +10696,14 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>243.5</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10278,11 +10732,17 @@
         <v>-822773.4668660298</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>243.5</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10314,8 +10774,14 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>243.5</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10347,8 +10813,14 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>243.5</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10380,8 +10852,14 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>243.5</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10413,8 +10891,14 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>243.5</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10446,8 +10930,14 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>243.5</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10479,8 +10969,14 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>243.5</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10512,8 +11008,14 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>243.5</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10545,8 +11047,14 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>243.5</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10578,8 +11086,14 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>243.5</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10611,8 +11125,14 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>243.5</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10644,8 +11164,14 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>243.5</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10677,8 +11203,14 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>243.5</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10710,8 +11242,14 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>243.5</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10740,11 +11278,17 @@
         <v>-816473.1271261497</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>243.5</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10776,8 +11320,14 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>243.5</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10809,8 +11359,14 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>243.5</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10842,8 +11398,14 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>243.5</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10875,8 +11437,14 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>243.5</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -10905,11 +11473,17 @@
         <v>-813209.4155261497</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>243.5</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -10941,8 +11515,14 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>243.5</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -10974,8 +11554,14 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>243.5</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11007,8 +11593,14 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>243.5</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11037,11 +11629,17 @@
         <v>-813783.5581261498</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>243.5</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11073,8 +11671,14 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>243.5</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11106,8 +11710,14 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>243.5</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11139,8 +11749,14 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>243.5</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11172,8 +11788,14 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>243.5</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11205,8 +11827,14 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>243.5</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11238,8 +11866,14 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>243.5</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11271,8 +11905,14 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>243.5</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11301,11 +11941,17 @@
         <v>-834507.0727956699</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>243.5</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11334,11 +11980,17 @@
         <v>-837518.0975956699</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>243.5</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11367,11 +12019,17 @@
         <v>-837518.0975956699</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>243.5</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11400,11 +12058,17 @@
         <v>-837508.0975956699</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>243.5</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11433,11 +12097,17 @@
         <v>-837513.0975956699</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>243.5</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11466,11 +12136,17 @@
         <v>-837413.0975956699</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>243.5</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11502,8 +12178,14 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>243.5</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11535,8 +12217,14 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>243.5</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11568,8 +12256,14 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>243.5</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11601,8 +12295,14 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>243.5</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11631,15 +12331,17 @@
         <v>-837595.5227956699</v>
       </c>
       <c r="H336" t="n">
-        <v>1</v>
-      </c>
-      <c r="I336" t="n">
-        <v>247.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I336" t="inlineStr"/>
       <c r="J336" t="n">
-        <v>247.1</v>
-      </c>
-      <c r="K336" t="inlineStr"/>
+        <v>243.5</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11668,17 +12370,15 @@
         <v>-837145.5227956699</v>
       </c>
       <c r="H337" t="n">
-        <v>1</v>
-      </c>
-      <c r="I337" t="n">
-        <v>247.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I337" t="inlineStr"/>
       <c r="J337" t="n">
-        <v>247.1</v>
+        <v>243.5</v>
       </c>
       <c r="K337" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L337" t="n">
@@ -11713,11 +12413,11 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="n">
-        <v>247.1</v>
+        <v>243.5</v>
       </c>
       <c r="K338" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L338" t="n">
@@ -11751,8 +12451,14 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>243.5</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11784,8 +12490,14 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>243.5</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11817,8 +12529,14 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>243.5</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11847,15 +12565,17 @@
         <v>-833013.96009567</v>
       </c>
       <c r="H342" t="n">
-        <v>1</v>
-      </c>
-      <c r="I342" t="n">
-        <v>248</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I342" t="inlineStr"/>
       <c r="J342" t="n">
-        <v>248</v>
-      </c>
-      <c r="K342" t="inlineStr"/>
+        <v>243.5</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11884,17 +12604,15 @@
         <v>-827070.48899567</v>
       </c>
       <c r="H343" t="n">
-        <v>1</v>
-      </c>
-      <c r="I343" t="n">
-        <v>248</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I343" t="inlineStr"/>
       <c r="J343" t="n">
-        <v>248</v>
+        <v>243.5</v>
       </c>
       <c r="K343" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L343" t="n">
@@ -11925,17 +12643,15 @@
         <v>-827237.48899567</v>
       </c>
       <c r="H344" t="n">
-        <v>1</v>
-      </c>
-      <c r="I344" t="n">
-        <v>248.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I344" t="inlineStr"/>
       <c r="J344" t="n">
-        <v>248</v>
+        <v>243.5</v>
       </c>
       <c r="K344" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L344" t="n">
@@ -11966,15 +12682,17 @@
         <v>-826788.2316956699</v>
       </c>
       <c r="H345" t="n">
-        <v>1</v>
-      </c>
-      <c r="I345" t="n">
-        <v>248</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I345" t="inlineStr"/>
       <c r="J345" t="n">
-        <v>248</v>
-      </c>
-      <c r="K345" t="inlineStr"/>
+        <v>243.5</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12007,11 +12725,11 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="n">
-        <v>248</v>
+        <v>243.5</v>
       </c>
       <c r="K346" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L346" t="n">
@@ -12042,17 +12760,15 @@
         <v>-832188.8286956699</v>
       </c>
       <c r="H347" t="n">
-        <v>1</v>
-      </c>
-      <c r="I347" t="n">
-        <v>248.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I347" t="inlineStr"/>
       <c r="J347" t="n">
-        <v>248</v>
+        <v>243.5</v>
       </c>
       <c r="K347" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L347" t="n">
@@ -12083,13 +12799,11 @@
         <v>-832170.9453958799</v>
       </c>
       <c r="H348" t="n">
-        <v>1</v>
-      </c>
-      <c r="I348" t="n">
-        <v>248</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I348" t="inlineStr"/>
       <c r="J348" t="n">
-        <v>248</v>
+        <v>243.5</v>
       </c>
       <c r="K348" t="inlineStr">
         <is>
@@ -12124,13 +12838,11 @@
         <v>-832173.9453958799</v>
       </c>
       <c r="H349" t="n">
-        <v>1</v>
-      </c>
-      <c r="I349" t="n">
-        <v>248.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I349" t="inlineStr"/>
       <c r="J349" t="n">
-        <v>248</v>
+        <v>243.5</v>
       </c>
       <c r="K349" t="inlineStr">
         <is>
@@ -12165,13 +12877,11 @@
         <v>-832173.9453958799</v>
       </c>
       <c r="H350" t="n">
-        <v>1</v>
-      </c>
-      <c r="I350" t="n">
-        <v>247.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I350" t="inlineStr"/>
       <c r="J350" t="n">
-        <v>248</v>
+        <v>243.5</v>
       </c>
       <c r="K350" t="inlineStr">
         <is>
@@ -12206,13 +12916,11 @@
         <v>-832158.9453958799</v>
       </c>
       <c r="H351" t="n">
-        <v>1</v>
-      </c>
-      <c r="I351" t="n">
-        <v>247.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I351" t="inlineStr"/>
       <c r="J351" t="n">
-        <v>248</v>
+        <v>243.5</v>
       </c>
       <c r="K351" t="inlineStr">
         <is>
@@ -12247,13 +12955,11 @@
         <v>-832158.9453958799</v>
       </c>
       <c r="H352" t="n">
-        <v>1</v>
-      </c>
-      <c r="I352" t="n">
-        <v>248</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I352" t="inlineStr"/>
       <c r="J352" t="n">
-        <v>248</v>
+        <v>243.5</v>
       </c>
       <c r="K352" t="inlineStr">
         <is>
@@ -12288,13 +12994,11 @@
         <v>-831158.9453958799</v>
       </c>
       <c r="H353" t="n">
-        <v>1</v>
-      </c>
-      <c r="I353" t="n">
-        <v>248</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I353" t="inlineStr"/>
       <c r="J353" t="n">
-        <v>248</v>
+        <v>243.5</v>
       </c>
       <c r="K353" t="inlineStr">
         <is>
@@ -12333,7 +13037,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="n">
-        <v>248</v>
+        <v>243.5</v>
       </c>
       <c r="K354" t="inlineStr">
         <is>
@@ -12372,7 +13076,7 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="n">
-        <v>248</v>
+        <v>243.5</v>
       </c>
       <c r="K355" t="inlineStr">
         <is>
@@ -12411,7 +13115,7 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="n">
-        <v>248</v>
+        <v>243.5</v>
       </c>
       <c r="K356" t="inlineStr">
         <is>
@@ -12450,7 +13154,7 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="n">
-        <v>248</v>
+        <v>243.5</v>
       </c>
       <c r="K357" t="inlineStr">
         <is>
@@ -12489,7 +13193,7 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="n">
-        <v>248</v>
+        <v>243.5</v>
       </c>
       <c r="K358" t="inlineStr">
         <is>
@@ -12528,7 +13232,7 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="n">
-        <v>248</v>
+        <v>243.5</v>
       </c>
       <c r="K359" t="inlineStr">
         <is>
@@ -12567,7 +13271,7 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="n">
-        <v>248</v>
+        <v>243.5</v>
       </c>
       <c r="K360" t="inlineStr">
         <is>
@@ -12602,13 +13306,11 @@
         <v>-833167.4593266399</v>
       </c>
       <c r="H361" t="n">
-        <v>1</v>
-      </c>
-      <c r="I361" t="n">
-        <v>248</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I361" t="inlineStr"/>
       <c r="J361" t="n">
-        <v>248</v>
+        <v>243.5</v>
       </c>
       <c r="K361" t="inlineStr">
         <is>
@@ -12647,7 +13349,7 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="n">
-        <v>248</v>
+        <v>243.5</v>
       </c>
       <c r="K362" t="inlineStr">
         <is>
@@ -12686,7 +13388,7 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="n">
-        <v>248</v>
+        <v>243.5</v>
       </c>
       <c r="K363" t="inlineStr">
         <is>
@@ -12725,7 +13427,7 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="n">
-        <v>248</v>
+        <v>243.5</v>
       </c>
       <c r="K364" t="inlineStr">
         <is>
@@ -12764,7 +13466,7 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="n">
-        <v>248</v>
+        <v>243.5</v>
       </c>
       <c r="K365" t="inlineStr">
         <is>
@@ -12803,7 +13505,7 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="n">
-        <v>248</v>
+        <v>243.5</v>
       </c>
       <c r="K366" t="inlineStr">
         <is>
@@ -12842,7 +13544,7 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="n">
-        <v>248</v>
+        <v>243.5</v>
       </c>
       <c r="K367" t="inlineStr">
         <is>
@@ -12881,7 +13583,7 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="n">
-        <v>248</v>
+        <v>243.5</v>
       </c>
       <c r="K368" t="inlineStr">
         <is>
@@ -12920,7 +13622,7 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="n">
-        <v>248</v>
+        <v>243.5</v>
       </c>
       <c r="K369" t="inlineStr">
         <is>
@@ -12959,7 +13661,7 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="n">
-        <v>248</v>
+        <v>243.5</v>
       </c>
       <c r="K370" t="inlineStr">
         <is>
@@ -12998,7 +13700,7 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="n">
-        <v>248</v>
+        <v>243.5</v>
       </c>
       <c r="K371" t="inlineStr">
         <is>
@@ -13037,7 +13739,7 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="n">
-        <v>248</v>
+        <v>243.5</v>
       </c>
       <c r="K372" t="inlineStr">
         <is>
@@ -13076,7 +13778,7 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="n">
-        <v>248</v>
+        <v>243.5</v>
       </c>
       <c r="K373" t="inlineStr">
         <is>
@@ -13115,7 +13817,7 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="n">
-        <v>248</v>
+        <v>243.5</v>
       </c>
       <c r="K374" t="inlineStr">
         <is>
@@ -13154,7 +13856,7 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="n">
-        <v>248</v>
+        <v>243.5</v>
       </c>
       <c r="K375" t="inlineStr">
         <is>
@@ -13193,7 +13895,7 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="n">
-        <v>248</v>
+        <v>243.5</v>
       </c>
       <c r="K376" t="inlineStr">
         <is>
@@ -13232,7 +13934,7 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="n">
-        <v>248</v>
+        <v>243.5</v>
       </c>
       <c r="K377" t="inlineStr">
         <is>
@@ -13271,7 +13973,7 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="n">
-        <v>248</v>
+        <v>243.5</v>
       </c>
       <c r="K378" t="inlineStr">
         <is>
@@ -13310,7 +14012,7 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="n">
-        <v>248</v>
+        <v>243.5</v>
       </c>
       <c r="K379" t="inlineStr">
         <is>
@@ -13349,7 +14051,7 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="n">
-        <v>248</v>
+        <v>243.5</v>
       </c>
       <c r="K380" t="inlineStr">
         <is>
@@ -13388,7 +14090,7 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="n">
-        <v>248</v>
+        <v>243.5</v>
       </c>
       <c r="K381" t="inlineStr">
         <is>
@@ -13427,7 +14129,7 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="n">
-        <v>248</v>
+        <v>243.5</v>
       </c>
       <c r="K382" t="inlineStr">
         <is>
@@ -13466,7 +14168,7 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="n">
-        <v>248</v>
+        <v>243.5</v>
       </c>
       <c r="K383" t="inlineStr">
         <is>
@@ -13505,7 +14207,7 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="n">
-        <v>248</v>
+        <v>243.5</v>
       </c>
       <c r="K384" t="inlineStr">
         <is>
@@ -13544,7 +14246,7 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="n">
-        <v>248</v>
+        <v>243.5</v>
       </c>
       <c r="K385" t="inlineStr">
         <is>
@@ -13583,7 +14285,7 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="n">
-        <v>248</v>
+        <v>243.5</v>
       </c>
       <c r="K386" t="inlineStr">
         <is>
@@ -13622,7 +14324,7 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="n">
-        <v>248</v>
+        <v>243.5</v>
       </c>
       <c r="K387" t="inlineStr">
         <is>
@@ -13661,7 +14363,7 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="n">
-        <v>248</v>
+        <v>243.5</v>
       </c>
       <c r="K388" t="inlineStr">
         <is>
@@ -13700,7 +14402,7 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="n">
-        <v>248</v>
+        <v>243.5</v>
       </c>
       <c r="K389" t="inlineStr">
         <is>
@@ -13739,7 +14441,7 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="n">
-        <v>248</v>
+        <v>243.5</v>
       </c>
       <c r="K390" t="inlineStr">
         <is>
@@ -13778,7 +14480,7 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="n">
-        <v>248</v>
+        <v>243.5</v>
       </c>
       <c r="K391" t="inlineStr">
         <is>
@@ -13817,7 +14519,7 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="n">
-        <v>248</v>
+        <v>243.5</v>
       </c>
       <c r="K392" t="inlineStr">
         <is>
@@ -13856,7 +14558,7 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="n">
-        <v>248</v>
+        <v>243.5</v>
       </c>
       <c r="K393" t="inlineStr">
         <is>
@@ -13895,7 +14597,7 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="n">
-        <v>248</v>
+        <v>243.5</v>
       </c>
       <c r="K394" t="inlineStr">
         <is>
@@ -13934,7 +14636,7 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="n">
-        <v>248</v>
+        <v>243.5</v>
       </c>
       <c r="K395" t="inlineStr">
         <is>
@@ -13973,7 +14675,7 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="n">
-        <v>248</v>
+        <v>243.5</v>
       </c>
       <c r="K396" t="inlineStr">
         <is>
@@ -14012,7 +14714,7 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="n">
-        <v>248</v>
+        <v>243.5</v>
       </c>
       <c r="K397" t="inlineStr">
         <is>
@@ -14051,7 +14753,7 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="n">
-        <v>248</v>
+        <v>243.5</v>
       </c>
       <c r="K398" t="inlineStr">
         <is>
@@ -14090,7 +14792,7 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="n">
-        <v>248</v>
+        <v>243.5</v>
       </c>
       <c r="K399" t="inlineStr">
         <is>
@@ -14129,7 +14831,7 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="n">
-        <v>248</v>
+        <v>243.5</v>
       </c>
       <c r="K400" t="inlineStr">
         <is>
@@ -14168,7 +14870,7 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="n">
-        <v>248</v>
+        <v>243.5</v>
       </c>
       <c r="K401" t="inlineStr">
         <is>
@@ -14207,7 +14909,7 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="n">
-        <v>248</v>
+        <v>243.5</v>
       </c>
       <c r="K402" t="inlineStr">
         <is>
@@ -14246,7 +14948,7 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="n">
-        <v>248</v>
+        <v>243.5</v>
       </c>
       <c r="K403" t="inlineStr">
         <is>
@@ -14285,7 +14987,7 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="n">
-        <v>248</v>
+        <v>243.5</v>
       </c>
       <c r="K404" t="inlineStr">
         <is>
@@ -14324,7 +15026,7 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="n">
-        <v>248</v>
+        <v>243.5</v>
       </c>
       <c r="K405" t="inlineStr">
         <is>
@@ -14363,7 +15065,7 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="n">
-        <v>248</v>
+        <v>243.5</v>
       </c>
       <c r="K406" t="inlineStr">
         <is>
@@ -14402,7 +15104,7 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="n">
-        <v>248</v>
+        <v>243.5</v>
       </c>
       <c r="K407" t="inlineStr">
         <is>
@@ -14437,13 +15139,11 @@
         <v>-859354.7497204902</v>
       </c>
       <c r="H408" t="n">
-        <v>1</v>
-      </c>
-      <c r="I408" t="n">
-        <v>248.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I408" t="inlineStr"/>
       <c r="J408" t="n">
-        <v>248</v>
+        <v>243.5</v>
       </c>
       <c r="K408" t="inlineStr">
         <is>
@@ -14482,7 +15182,7 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="n">
-        <v>248</v>
+        <v>243.5</v>
       </c>
       <c r="K409" t="inlineStr">
         <is>
@@ -14521,7 +15221,7 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="n">
-        <v>248</v>
+        <v>243.5</v>
       </c>
       <c r="K410" t="inlineStr">
         <is>
@@ -14560,7 +15260,7 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="n">
-        <v>248</v>
+        <v>243.5</v>
       </c>
       <c r="K411" t="inlineStr">
         <is>
@@ -14599,7 +15299,7 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="n">
-        <v>248</v>
+        <v>243.5</v>
       </c>
       <c r="K412" t="inlineStr">
         <is>
@@ -14638,7 +15338,7 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="n">
-        <v>248</v>
+        <v>243.5</v>
       </c>
       <c r="K413" t="inlineStr">
         <is>
@@ -14677,7 +15377,7 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="n">
-        <v>248</v>
+        <v>243.5</v>
       </c>
       <c r="K414" t="inlineStr">
         <is>
